--- a/work/Book_list.xlsx
+++ b/work/Book_list.xlsx
@@ -10,7 +10,7 @@
     <sheet name="book_list" sheetId="1" r:id="rId1"/>
     <sheet name="csv_temp" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -156,12 +156,99 @@
     <t>subLesson</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>Test N3 năm 1991</t>
+  </si>
+  <si>
+    <t>Đề thi N3 của năm 1991</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>Phần 1</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',1991,vocabulary,'}}</t>
+  </si>
+  <si>
+    <t>Phần 2</t>
+  </si>
+  <si>
+    <t>Ngữ pháp</t>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',1991,grammar,'}}</t>
+  </si>
+  <si>
+    <t>Phần 3</t>
+  </si>
+  <si>
+    <t>Đọc hiểu</t>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',1991,reading,'}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanji N2 </t>
+  </si>
+  <si>
+    <t>Kanji N2 dựa theo chuẩn của JLPT</t>
+  </si>
+  <si>
+    <t>kanji</t>
+  </si>
+  <si>
+    <t>Kanji</t>
+  </si>
+  <si>
+    <t>{'level': 'N2', 'tag' : {'contains':',jlptkanji,lesson1,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N2', 'tag' : {'contains':',jlptkanji,lesson2,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N2', 'tag' : {'contains':',jlptkanji,lesson3,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N2', 'tag' : {'contains':',jlptkanji,lesson4,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N2', 'tag' : {'contains':',jlptkanji,lesson5,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N2', 'tag' : {'contains':',jlptkanji,lesson6,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N2', 'tag' : {'contains':',jlptkanji,lesson7,'}}</t>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>est</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -199,6 +286,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4236,22 +4329,46 @@
       <c r="Z82" s="2"/>
     </row>
     <row r="83" spans="1:26" ht="15.75">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
+      <c r="A83" s="2">
+        <v>83</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F83" s="2">
+        <v>3</v>
+      </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+      <c r="J83" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
+      <c r="P83" s="2">
+        <v>1</v>
+      </c>
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
@@ -4264,7 +4381,9 @@
       <c r="Z83" s="2"/>
     </row>
     <row r="84" spans="1:26" ht="15.75">
-      <c r="A84" s="2"/>
+      <c r="A84" s="2">
+        <v>84</v>
+      </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -4273,13 +4392,25 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+      <c r="J84" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
+      <c r="P84" s="2">
+        <v>2</v>
+      </c>
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
@@ -4292,7 +4423,9 @@
       <c r="Z84" s="2"/>
     </row>
     <row r="85" spans="1:26" ht="15.75">
-      <c r="A85" s="2"/>
+      <c r="A85" s="2">
+        <v>85</v>
+      </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -4301,13 +4434,25 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+      <c r="J85" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
+      <c r="P85" s="2">
+        <v>3</v>
+      </c>
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
@@ -4320,22 +4465,46 @@
       <c r="Z85" s="2"/>
     </row>
     <row r="86" spans="1:26" ht="15.75">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
+      <c r="A86" s="2">
+        <v>86</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="2">
+        <v>7</v>
+      </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+      <c r="J86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
+      <c r="P86" s="2">
+        <v>1</v>
+      </c>
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
@@ -4348,7 +4517,9 @@
       <c r="Z86" s="2"/>
     </row>
     <row r="87" spans="1:26" ht="15.75">
-      <c r="A87" s="2"/>
+      <c r="A87" s="2">
+        <v>87</v>
+      </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -4357,13 +4528,25 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+      <c r="J87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
+      <c r="P87" s="2">
+        <v>2</v>
+      </c>
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
@@ -4376,7 +4559,9 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88" spans="1:26" ht="15.75">
-      <c r="A88" s="2"/>
+      <c r="A88" s="2">
+        <v>88</v>
+      </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -4385,13 +4570,25 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+      <c r="J88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
+      <c r="P88" s="2">
+        <v>3</v>
+      </c>
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
@@ -4404,7 +4601,9 @@
       <c r="Z88" s="2"/>
     </row>
     <row r="89" spans="1:26" ht="15.75">
-      <c r="A89" s="2"/>
+      <c r="A89" s="2">
+        <v>89</v>
+      </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -4413,13 +4612,25 @@
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+      <c r="J89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
+      <c r="P89" s="2">
+        <v>4</v>
+      </c>
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
@@ -4432,7 +4643,9 @@
       <c r="Z89" s="2"/>
     </row>
     <row r="90" spans="1:26" ht="15.75">
-      <c r="A90" s="2"/>
+      <c r="A90" s="2">
+        <v>90</v>
+      </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -4441,13 +4654,25 @@
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+      <c r="J90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
+      <c r="P90" s="2">
+        <v>5</v>
+      </c>
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
@@ -4460,7 +4685,9 @@
       <c r="Z90" s="2"/>
     </row>
     <row r="91" spans="1:26" ht="15.75">
-      <c r="A91" s="2"/>
+      <c r="A91" s="2">
+        <v>91</v>
+      </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -4469,13 +4696,25 @@
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+      <c r="J91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
+      <c r="P91" s="2">
+        <v>6</v>
+      </c>
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
@@ -4488,7 +4727,9 @@
       <c r="Z91" s="2"/>
     </row>
     <row r="92" spans="1:26" ht="15.75">
-      <c r="A92" s="2"/>
+      <c r="A92" s="2">
+        <v>92</v>
+      </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -4497,13 +4738,25 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+      <c r="J92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
+      <c r="P92" s="2">
+        <v>7</v>
+      </c>
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
       <c r="S92" s="2"/>

--- a/work/Book_list.xlsx
+++ b/work/Book_list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="12120" tabRatio="500"/>
@@ -10,7 +10,7 @@
     <sheet name="book_list" sheetId="1" r:id="rId1"/>
     <sheet name="csv_temp" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="165">
   <si>
     <t>No</t>
   </si>
@@ -146,15 +146,15 @@
   </si>
   <si>
     <t>lessonNum</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>lesson</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>subLesson</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Test N3 năm 1991</t>
@@ -240,7 +240,7 @@
       </rPr>
       <t>est</t>
     </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Bài 22</t>
@@ -370,7 +370,7 @@
   </si>
   <si>
     <t>Kanji</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Bộ từ vựng N3 tập 1</t>
@@ -386,18 +386,1399 @@
   </si>
   <si>
     <t>sort</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>173 mẫu ngữ pháp Tiếng Nhật</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ổng hợp 173 mẫu ngữ pháp Tiếng Nhật trình độ 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>級</t>
+    </r>
+    <rPh sb="47" eb="48">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>grammar</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>N2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 1</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Ngữ pháp</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>rammar</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,'}}</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>7,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>9,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>11,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>12,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>13,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>14,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>15,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>16,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>17,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>18,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>19,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>20,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N2', 'tag' : {'contains':',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>173nguphapn2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>,lesson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>21,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i 21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -437,6 +1818,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -482,62 +1870,62 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -917,7 +2305,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -1037,7 +2425,7 @@
         <v>12</v>
       </c>
       <c r="O2" s="1" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L2&amp;",'}}"</f>
+        <f t="shared" ref="O2:O21" si="0">"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L2&amp;",'}}"</f>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson1,'}}</v>
       </c>
       <c r="P2" s="1"/>
@@ -1080,7 +2468,7 @@
         <v>12</v>
       </c>
       <c r="O3" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L3&amp;",'}}"</f>
+        <f t="shared" si="0"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson2,'}}</v>
       </c>
       <c r="P3" s="1"/>
@@ -1123,7 +2511,7 @@
         <v>12</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L4&amp;",'}}"</f>
+        <f t="shared" si="0"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson3,'}}</v>
       </c>
       <c r="P4" s="1"/>
@@ -1166,7 +2554,7 @@
         <v>12</v>
       </c>
       <c r="O5" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L5&amp;",'}}"</f>
+        <f t="shared" si="0"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson4,'}}</v>
       </c>
       <c r="P5" s="1"/>
@@ -1209,7 +2597,7 @@
         <v>12</v>
       </c>
       <c r="O6" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L6&amp;",'}}"</f>
+        <f t="shared" si="0"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson5,'}}</v>
       </c>
       <c r="P6" s="1"/>
@@ -1252,7 +2640,7 @@
         <v>12</v>
       </c>
       <c r="O7" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L7&amp;",'}}"</f>
+        <f t="shared" si="0"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson6,'}}</v>
       </c>
       <c r="P7" s="1"/>
@@ -1295,7 +2683,7 @@
         <v>12</v>
       </c>
       <c r="O8" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L8&amp;",'}}"</f>
+        <f t="shared" si="0"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson7,'}}</v>
       </c>
       <c r="P8" s="1"/>
@@ -1338,7 +2726,7 @@
         <v>12</v>
       </c>
       <c r="O9" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L9&amp;",'}}"</f>
+        <f t="shared" si="0"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson8,'}}</v>
       </c>
       <c r="P9" s="1"/>
@@ -1381,7 +2769,7 @@
         <v>12</v>
       </c>
       <c r="O10" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L10&amp;",'}}"</f>
+        <f t="shared" si="0"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson9,'}}</v>
       </c>
       <c r="P10" s="1"/>
@@ -1424,7 +2812,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L11&amp;",'}}"</f>
+        <f t="shared" si="0"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson10,'}}</v>
       </c>
       <c r="P11" s="1"/>
@@ -1467,7 +2855,7 @@
         <v>12</v>
       </c>
       <c r="O12" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L12&amp;",'}}"</f>
+        <f t="shared" si="0"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson11,'}}</v>
       </c>
       <c r="P12" s="1"/>
@@ -1510,7 +2898,7 @@
         <v>12</v>
       </c>
       <c r="O13" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L13&amp;",'}}"</f>
+        <f t="shared" si="0"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson12,'}}</v>
       </c>
       <c r="P13" s="1"/>
@@ -1553,7 +2941,7 @@
         <v>12</v>
       </c>
       <c r="O14" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L14&amp;",'}}"</f>
+        <f t="shared" si="0"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson13,'}}</v>
       </c>
       <c r="P14" s="1"/>
@@ -1596,7 +2984,7 @@
         <v>12</v>
       </c>
       <c r="O15" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L15&amp;",'}}"</f>
+        <f t="shared" si="0"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson14,'}}</v>
       </c>
       <c r="P15" s="1"/>
@@ -1639,7 +3027,7 @@
         <v>12</v>
       </c>
       <c r="O16" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L16&amp;",'}}"</f>
+        <f t="shared" si="0"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson15,'}}</v>
       </c>
       <c r="P16" s="1"/>
@@ -1682,7 +3070,7 @@
         <v>12</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L17&amp;",'}}"</f>
+        <f t="shared" si="0"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson16,'}}</v>
       </c>
       <c r="P17" s="1"/>
@@ -1725,7 +3113,7 @@
         <v>12</v>
       </c>
       <c r="O18" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L18&amp;",'}}"</f>
+        <f t="shared" si="0"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson17,'}}</v>
       </c>
       <c r="P18" s="1"/>
@@ -1768,7 +3156,7 @@
         <v>12</v>
       </c>
       <c r="O19" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L19&amp;",'}}"</f>
+        <f t="shared" si="0"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson18,'}}</v>
       </c>
       <c r="P19" s="1"/>
@@ -1811,7 +3199,7 @@
         <v>12</v>
       </c>
       <c r="O20" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L20&amp;",'}}"</f>
+        <f t="shared" si="0"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson19,'}}</v>
       </c>
       <c r="P20" s="1"/>
@@ -1854,7 +3242,7 @@
         <v>12</v>
       </c>
       <c r="O21" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson"&amp;L21&amp;",'}}"</f>
+        <f t="shared" si="0"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia1,lesson20,'}}</v>
       </c>
       <c r="P21" s="1"/>
@@ -1907,7 +3295,7 @@
         <v>12</v>
       </c>
       <c r="O22" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L22&amp;",'}}"</f>
+        <f t="shared" ref="O22:O41" si="1">"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L22&amp;",'}}"</f>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson1,'}}</v>
       </c>
       <c r="P22" s="1"/>
@@ -1950,7 +3338,7 @@
         <v>12</v>
       </c>
       <c r="O23" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L23&amp;",'}}"</f>
+        <f t="shared" si="1"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson2,'}}</v>
       </c>
       <c r="P23" s="1"/>
@@ -1993,7 +3381,7 @@
         <v>12</v>
       </c>
       <c r="O24" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L24&amp;",'}}"</f>
+        <f t="shared" si="1"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson3,'}}</v>
       </c>
       <c r="P24" s="1"/>
@@ -2036,7 +3424,7 @@
         <v>12</v>
       </c>
       <c r="O25" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L25&amp;",'}}"</f>
+        <f t="shared" si="1"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson4,'}}</v>
       </c>
       <c r="P25" s="1"/>
@@ -2079,7 +3467,7 @@
         <v>12</v>
       </c>
       <c r="O26" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L26&amp;",'}}"</f>
+        <f t="shared" si="1"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson5,'}}</v>
       </c>
       <c r="P26" s="1"/>
@@ -2122,7 +3510,7 @@
         <v>12</v>
       </c>
       <c r="O27" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L27&amp;",'}}"</f>
+        <f t="shared" si="1"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson6,'}}</v>
       </c>
       <c r="P27" s="1"/>
@@ -2165,7 +3553,7 @@
         <v>12</v>
       </c>
       <c r="O28" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L28&amp;",'}}"</f>
+        <f t="shared" si="1"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson7,'}}</v>
       </c>
       <c r="P28" s="1"/>
@@ -2208,7 +3596,7 @@
         <v>12</v>
       </c>
       <c r="O29" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L29&amp;",'}}"</f>
+        <f t="shared" si="1"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson8,'}}</v>
       </c>
       <c r="P29" s="1"/>
@@ -2251,7 +3639,7 @@
         <v>12</v>
       </c>
       <c r="O30" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L30&amp;",'}}"</f>
+        <f t="shared" si="1"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson9,'}}</v>
       </c>
       <c r="P30" s="1"/>
@@ -2294,7 +3682,7 @@
         <v>12</v>
       </c>
       <c r="O31" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L31&amp;",'}}"</f>
+        <f t="shared" si="1"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson10,'}}</v>
       </c>
       <c r="P31" s="1"/>
@@ -2337,7 +3725,7 @@
         <v>12</v>
       </c>
       <c r="O32" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L32&amp;",'}}"</f>
+        <f t="shared" si="1"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson11,'}}</v>
       </c>
       <c r="P32" s="1"/>
@@ -2380,7 +3768,7 @@
         <v>12</v>
       </c>
       <c r="O33" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L33&amp;",'}}"</f>
+        <f t="shared" si="1"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson12,'}}</v>
       </c>
       <c r="P33" s="1"/>
@@ -2423,7 +3811,7 @@
         <v>12</v>
       </c>
       <c r="O34" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L34&amp;",'}}"</f>
+        <f t="shared" si="1"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson13,'}}</v>
       </c>
       <c r="P34" s="1"/>
@@ -2466,7 +3854,7 @@
         <v>12</v>
       </c>
       <c r="O35" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L35&amp;",'}}"</f>
+        <f t="shared" si="1"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson14,'}}</v>
       </c>
       <c r="P35" s="1"/>
@@ -2509,7 +3897,7 @@
         <v>12</v>
       </c>
       <c r="O36" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L36&amp;",'}}"</f>
+        <f t="shared" si="1"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson15,'}}</v>
       </c>
       <c r="P36" s="1"/>
@@ -2552,7 +3940,7 @@
         <v>12</v>
       </c>
       <c r="O37" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L37&amp;",'}}"</f>
+        <f t="shared" si="1"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson16,'}}</v>
       </c>
       <c r="P37" s="1"/>
@@ -2595,7 +3983,7 @@
         <v>12</v>
       </c>
       <c r="O38" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L38&amp;",'}}"</f>
+        <f t="shared" si="1"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson17,'}}</v>
       </c>
       <c r="P38" s="1"/>
@@ -2638,7 +4026,7 @@
         <v>12</v>
       </c>
       <c r="O39" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L39&amp;",'}}"</f>
+        <f t="shared" si="1"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson18,'}}</v>
       </c>
       <c r="P39" s="1"/>
@@ -2681,7 +4069,7 @@
         <v>12</v>
       </c>
       <c r="O40" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L40&amp;",'}}"</f>
+        <f t="shared" si="1"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson19,'}}</v>
       </c>
       <c r="P40" s="1"/>
@@ -2724,7 +4112,7 @@
         <v>12</v>
       </c>
       <c r="O41" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson"&amp;L41&amp;",'}}"</f>
+        <f t="shared" si="1"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia2,lesson20,'}}</v>
       </c>
       <c r="P41" s="1"/>
@@ -2777,7 +4165,7 @@
         <v>12</v>
       </c>
       <c r="O42" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L42&amp;",'}}"</f>
+        <f t="shared" ref="O42:O62" si="2">"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L42&amp;",'}}"</f>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson1,'}}</v>
       </c>
       <c r="P42" s="1"/>
@@ -2820,7 +4208,7 @@
         <v>12</v>
       </c>
       <c r="O43" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L43&amp;",'}}"</f>
+        <f t="shared" si="2"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson2,'}}</v>
       </c>
       <c r="P43" s="1"/>
@@ -2863,7 +4251,7 @@
         <v>12</v>
       </c>
       <c r="O44" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L44&amp;",'}}"</f>
+        <f t="shared" si="2"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson3,'}}</v>
       </c>
       <c r="P44" s="1"/>
@@ -2906,7 +4294,7 @@
         <v>12</v>
       </c>
       <c r="O45" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L45&amp;",'}}"</f>
+        <f t="shared" si="2"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson4,'}}</v>
       </c>
       <c r="P45" s="1"/>
@@ -2949,7 +4337,7 @@
         <v>12</v>
       </c>
       <c r="O46" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L46&amp;",'}}"</f>
+        <f t="shared" si="2"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson5,'}}</v>
       </c>
       <c r="P46" s="1"/>
@@ -2992,7 +4380,7 @@
         <v>12</v>
       </c>
       <c r="O47" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L47&amp;",'}}"</f>
+        <f t="shared" si="2"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson6,'}}</v>
       </c>
       <c r="P47" s="1"/>
@@ -3035,7 +4423,7 @@
         <v>12</v>
       </c>
       <c r="O48" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L48&amp;",'}}"</f>
+        <f t="shared" si="2"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson7,'}}</v>
       </c>
       <c r="P48" s="1"/>
@@ -3078,7 +4466,7 @@
         <v>12</v>
       </c>
       <c r="O49" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L49&amp;",'}}"</f>
+        <f t="shared" si="2"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson8,'}}</v>
       </c>
       <c r="P49" s="1"/>
@@ -3121,7 +4509,7 @@
         <v>12</v>
       </c>
       <c r="O50" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L50&amp;",'}}"</f>
+        <f t="shared" si="2"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson9,'}}</v>
       </c>
       <c r="P50" s="1"/>
@@ -3164,7 +4552,7 @@
         <v>12</v>
       </c>
       <c r="O51" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L51&amp;",'}}"</f>
+        <f t="shared" si="2"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson10,'}}</v>
       </c>
       <c r="P51" s="1"/>
@@ -3207,7 +4595,7 @@
         <v>12</v>
       </c>
       <c r="O52" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L52&amp;",'}}"</f>
+        <f t="shared" si="2"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson11,'}}</v>
       </c>
       <c r="P52" s="1"/>
@@ -3250,7 +4638,7 @@
         <v>12</v>
       </c>
       <c r="O53" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L53&amp;",'}}"</f>
+        <f t="shared" si="2"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson12,'}}</v>
       </c>
       <c r="P53" s="1"/>
@@ -3293,7 +4681,7 @@
         <v>12</v>
       </c>
       <c r="O54" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L54&amp;",'}}"</f>
+        <f t="shared" si="2"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson13,'}}</v>
       </c>
       <c r="P54" s="1"/>
@@ -3336,7 +4724,7 @@
         <v>12</v>
       </c>
       <c r="O55" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L55&amp;",'}}"</f>
+        <f t="shared" si="2"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson14,'}}</v>
       </c>
       <c r="P55" s="1"/>
@@ -3379,7 +4767,7 @@
         <v>12</v>
       </c>
       <c r="O56" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L56&amp;",'}}"</f>
+        <f t="shared" si="2"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson15,'}}</v>
       </c>
       <c r="P56" s="1"/>
@@ -3422,7 +4810,7 @@
         <v>12</v>
       </c>
       <c r="O57" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L57&amp;",'}}"</f>
+        <f t="shared" si="2"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson16,'}}</v>
       </c>
       <c r="P57" s="1"/>
@@ -3465,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="O58" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L58&amp;",'}}"</f>
+        <f t="shared" si="2"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson17,'}}</v>
       </c>
       <c r="P58" s="1"/>
@@ -3508,7 +4896,7 @@
         <v>12</v>
       </c>
       <c r="O59" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L59&amp;",'}}"</f>
+        <f t="shared" si="2"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson18,'}}</v>
       </c>
       <c r="P59" s="1"/>
@@ -3551,7 +4939,7 @@
         <v>12</v>
       </c>
       <c r="O60" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L60&amp;",'}}"</f>
+        <f t="shared" si="2"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson19,'}}</v>
       </c>
       <c r="P60" s="1"/>
@@ -3594,7 +4982,7 @@
         <v>12</v>
       </c>
       <c r="O61" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L61&amp;",'}}"</f>
+        <f t="shared" si="2"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson20,'}}</v>
       </c>
       <c r="P61" s="1"/>
@@ -3637,7 +5025,7 @@
         <v>12</v>
       </c>
       <c r="O62" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson"&amp;L62&amp;",'}}"</f>
+        <f t="shared" si="2"/>
         <v>{'level': 'N2', 'tag' : {'contains':',trainghia3,lesson21,'}}</v>
       </c>
       <c r="P62" s="1"/>
@@ -3690,7 +5078,7 @@
         <v>12</v>
       </c>
       <c r="O63" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L63&amp;",'}}"</f>
+        <f t="shared" ref="O63:O82" si="3">"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L63&amp;",'}}"</f>
         <v>{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson1,'}}</v>
       </c>
       <c r="P63" s="1"/>
@@ -3733,7 +5121,7 @@
         <v>12</v>
       </c>
       <c r="O64" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L64&amp;",'}}"</f>
+        <f t="shared" si="3"/>
         <v>{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson2,'}}</v>
       </c>
       <c r="P64" s="1"/>
@@ -3776,7 +5164,7 @@
         <v>12</v>
       </c>
       <c r="O65" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L65&amp;",'}}"</f>
+        <f t="shared" si="3"/>
         <v>{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson3,'}}</v>
       </c>
       <c r="P65" s="2"/>
@@ -3819,7 +5207,7 @@
         <v>12</v>
       </c>
       <c r="O66" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L66&amp;",'}}"</f>
+        <f t="shared" si="3"/>
         <v>{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson4,'}}</v>
       </c>
       <c r="P66" s="2"/>
@@ -3862,7 +5250,7 @@
         <v>12</v>
       </c>
       <c r="O67" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L67&amp;",'}}"</f>
+        <f t="shared" si="3"/>
         <v>{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson5,'}}</v>
       </c>
       <c r="P67" s="2"/>
@@ -3905,7 +5293,7 @@
         <v>12</v>
       </c>
       <c r="O68" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L68&amp;",'}}"</f>
+        <f t="shared" si="3"/>
         <v>{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson6,'}}</v>
       </c>
       <c r="P68" s="2"/>
@@ -3948,7 +5336,7 @@
         <v>12</v>
       </c>
       <c r="O69" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L69&amp;",'}}"</f>
+        <f t="shared" si="3"/>
         <v>{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson7,'}}</v>
       </c>
       <c r="P69" s="2"/>
@@ -3991,7 +5379,7 @@
         <v>12</v>
       </c>
       <c r="O70" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L70&amp;",'}}"</f>
+        <f t="shared" si="3"/>
         <v>{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson8,'}}</v>
       </c>
       <c r="P70" s="2"/>
@@ -4034,7 +5422,7 @@
         <v>12</v>
       </c>
       <c r="O71" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L71&amp;",'}}"</f>
+        <f t="shared" si="3"/>
         <v>{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson9,'}}</v>
       </c>
       <c r="P71" s="2"/>
@@ -4077,7 +5465,7 @@
         <v>12</v>
       </c>
       <c r="O72" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L72&amp;",'}}"</f>
+        <f t="shared" si="3"/>
         <v>{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson10,'}}</v>
       </c>
       <c r="P72" s="2"/>
@@ -4120,7 +5508,7 @@
         <v>12</v>
       </c>
       <c r="O73" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L73&amp;",'}}"</f>
+        <f t="shared" si="3"/>
         <v>{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson11,'}}</v>
       </c>
       <c r="P73" s="2"/>
@@ -4163,7 +5551,7 @@
         <v>12</v>
       </c>
       <c r="O74" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L74&amp;",'}}"</f>
+        <f t="shared" si="3"/>
         <v>{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson12,'}}</v>
       </c>
       <c r="P74" s="2"/>
@@ -4206,7 +5594,7 @@
         <v>12</v>
       </c>
       <c r="O75" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L75&amp;",'}}"</f>
+        <f t="shared" si="3"/>
         <v>{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson13,'}}</v>
       </c>
       <c r="P75" s="2"/>
@@ -4249,7 +5637,7 @@
         <v>12</v>
       </c>
       <c r="O76" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L76&amp;",'}}"</f>
+        <f t="shared" si="3"/>
         <v>{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson14,'}}</v>
       </c>
       <c r="P76" s="2"/>
@@ -4292,7 +5680,7 @@
         <v>12</v>
       </c>
       <c r="O77" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L77&amp;",'}}"</f>
+        <f t="shared" si="3"/>
         <v>{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson15,'}}</v>
       </c>
       <c r="P77" s="2"/>
@@ -4335,7 +5723,7 @@
         <v>12</v>
       </c>
       <c r="O78" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L78&amp;",'}}"</f>
+        <f t="shared" si="3"/>
         <v>{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson16,'}}</v>
       </c>
       <c r="P78" s="2"/>
@@ -4378,7 +5766,7 @@
         <v>12</v>
       </c>
       <c r="O79" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L79&amp;",'}}"</f>
+        <f t="shared" si="3"/>
         <v>{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson17,'}}</v>
       </c>
       <c r="P79" s="2"/>
@@ -4421,7 +5809,7 @@
         <v>12</v>
       </c>
       <c r="O80" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L80&amp;",'}}"</f>
+        <f t="shared" si="3"/>
         <v>{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson18,'}}</v>
       </c>
       <c r="P80" s="2"/>
@@ -4464,7 +5852,7 @@
         <v>12</v>
       </c>
       <c r="O81" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L81&amp;",'}}"</f>
+        <f t="shared" si="3"/>
         <v>{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson19,'}}</v>
       </c>
       <c r="P81" s="2"/>
@@ -4507,7 +5895,7 @@
         <v>12</v>
       </c>
       <c r="O82" s="2" t="str">
-        <f>"{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson"&amp;L82&amp;",'}}"</f>
+        <f t="shared" si="3"/>
         <v>{'level': 'N2', 'tag' : {'contains':',400dongtu,lesson20,'}}</v>
       </c>
       <c r="P82" s="2"/>
@@ -6167,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="J121" s="2" t="str">
-        <f>"Bài "&amp;L121</f>
+        <f t="shared" ref="J121:J152" si="4">"Bài "&amp;L121</f>
         <v>Bài 1</v>
       </c>
       <c r="K121" s="2" t="s">
@@ -6183,7 +7571,7 @@
         <v>12</v>
       </c>
       <c r="O121" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L121&amp;",'}}"</f>
+        <f t="shared" ref="O121:O150" si="5">"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L121&amp;",'}}"</f>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson1,'}}</v>
       </c>
       <c r="P121" s="2"/>
@@ -6211,7 +7599,7 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2" t="str">
-        <f>"Bài "&amp;L122</f>
+        <f t="shared" si="4"/>
         <v>Bài 2</v>
       </c>
       <c r="K122" s="2" t="s">
@@ -6227,7 +7615,7 @@
         <v>12</v>
       </c>
       <c r="O122" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L122&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson2,'}}</v>
       </c>
       <c r="P122" s="2"/>
@@ -6255,7 +7643,7 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2" t="str">
-        <f>"Bài "&amp;L123</f>
+        <f t="shared" si="4"/>
         <v>Bài 3</v>
       </c>
       <c r="K123" s="2" t="s">
@@ -6271,7 +7659,7 @@
         <v>12</v>
       </c>
       <c r="O123" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L123&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson3,'}}</v>
       </c>
       <c r="P123" s="2"/>
@@ -6299,7 +7687,7 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2" t="str">
-        <f>"Bài "&amp;L124</f>
+        <f t="shared" si="4"/>
         <v>Bài 4</v>
       </c>
       <c r="K124" s="2" t="s">
@@ -6315,7 +7703,7 @@
         <v>12</v>
       </c>
       <c r="O124" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L124&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson4,'}}</v>
       </c>
       <c r="P124" s="2"/>
@@ -6343,7 +7731,7 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2" t="str">
-        <f>"Bài "&amp;L125</f>
+        <f t="shared" si="4"/>
         <v>Bài 5</v>
       </c>
       <c r="K125" s="2" t="s">
@@ -6359,7 +7747,7 @@
         <v>12</v>
       </c>
       <c r="O125" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L125&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson5,'}}</v>
       </c>
       <c r="P125" s="2"/>
@@ -6387,7 +7775,7 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2" t="str">
-        <f>"Bài "&amp;L126</f>
+        <f t="shared" si="4"/>
         <v>Bài 6</v>
       </c>
       <c r="K126" s="2" t="s">
@@ -6403,7 +7791,7 @@
         <v>12</v>
       </c>
       <c r="O126" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L126&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson6,'}}</v>
       </c>
       <c r="P126" s="2"/>
@@ -6431,7 +7819,7 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2" t="str">
-        <f>"Bài "&amp;L127</f>
+        <f t="shared" si="4"/>
         <v>Bài 7</v>
       </c>
       <c r="K127" s="2" t="s">
@@ -6447,7 +7835,7 @@
         <v>12</v>
       </c>
       <c r="O127" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L127&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson7,'}}</v>
       </c>
       <c r="P127" s="2"/>
@@ -6475,7 +7863,7 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2" t="str">
-        <f>"Bài "&amp;L128</f>
+        <f t="shared" si="4"/>
         <v>Bài 8</v>
       </c>
       <c r="K128" s="2" t="s">
@@ -6491,7 +7879,7 @@
         <v>12</v>
       </c>
       <c r="O128" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L128&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson8,'}}</v>
       </c>
       <c r="P128" s="2"/>
@@ -6519,7 +7907,7 @@
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2" t="str">
-        <f>"Bài "&amp;L129</f>
+        <f t="shared" si="4"/>
         <v>Bài 9</v>
       </c>
       <c r="K129" s="2" t="s">
@@ -6535,7 +7923,7 @@
         <v>12</v>
       </c>
       <c r="O129" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L129&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson9,'}}</v>
       </c>
       <c r="P129" s="2"/>
@@ -6563,7 +7951,7 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="2" t="str">
-        <f>"Bài "&amp;L130</f>
+        <f t="shared" si="4"/>
         <v>Bài 10</v>
       </c>
       <c r="K130" s="2" t="s">
@@ -6579,7 +7967,7 @@
         <v>12</v>
       </c>
       <c r="O130" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L130&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson10,'}}</v>
       </c>
       <c r="P130" s="2"/>
@@ -6607,7 +7995,7 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="2" t="str">
-        <f>"Bài "&amp;L131</f>
+        <f t="shared" si="4"/>
         <v>Bài 11</v>
       </c>
       <c r="K131" s="2" t="s">
@@ -6623,7 +8011,7 @@
         <v>12</v>
       </c>
       <c r="O131" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L131&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson11,'}}</v>
       </c>
       <c r="P131" s="2"/>
@@ -6651,7 +8039,7 @@
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2" t="str">
-        <f>"Bài "&amp;L132</f>
+        <f t="shared" si="4"/>
         <v>Bài 12</v>
       </c>
       <c r="K132" s="2" t="s">
@@ -6667,7 +8055,7 @@
         <v>12</v>
       </c>
       <c r="O132" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L132&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson12,'}}</v>
       </c>
       <c r="P132" s="2"/>
@@ -6695,7 +8083,7 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="2" t="str">
-        <f>"Bài "&amp;L133</f>
+        <f t="shared" si="4"/>
         <v>Bài 13</v>
       </c>
       <c r="K133" s="2" t="s">
@@ -6711,7 +8099,7 @@
         <v>12</v>
       </c>
       <c r="O133" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L133&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson13,'}}</v>
       </c>
       <c r="P133" s="2"/>
@@ -6739,7 +8127,7 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2" t="str">
-        <f>"Bài "&amp;L134</f>
+        <f t="shared" si="4"/>
         <v>Bài 14</v>
       </c>
       <c r="K134" s="2" t="s">
@@ -6755,7 +8143,7 @@
         <v>12</v>
       </c>
       <c r="O134" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L134&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson14,'}}</v>
       </c>
       <c r="P134" s="2"/>
@@ -6783,7 +8171,7 @@
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="2" t="str">
-        <f>"Bài "&amp;L135</f>
+        <f t="shared" si="4"/>
         <v>Bài 15</v>
       </c>
       <c r="K135" s="2" t="s">
@@ -6799,7 +8187,7 @@
         <v>12</v>
       </c>
       <c r="O135" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L135&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson15,'}}</v>
       </c>
       <c r="P135" s="2"/>
@@ -6827,7 +8215,7 @@
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
       <c r="J136" s="2" t="str">
-        <f>"Bài "&amp;L136</f>
+        <f t="shared" si="4"/>
         <v>Bài 16</v>
       </c>
       <c r="K136" s="2" t="s">
@@ -6843,7 +8231,7 @@
         <v>12</v>
       </c>
       <c r="O136" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L136&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson16,'}}</v>
       </c>
       <c r="P136" s="2"/>
@@ -6871,7 +8259,7 @@
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
       <c r="J137" s="2" t="str">
-        <f>"Bài "&amp;L137</f>
+        <f t="shared" si="4"/>
         <v>Bài 17</v>
       </c>
       <c r="K137" s="2" t="s">
@@ -6887,7 +8275,7 @@
         <v>12</v>
       </c>
       <c r="O137" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L137&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson17,'}}</v>
       </c>
       <c r="P137" s="2"/>
@@ -6915,7 +8303,7 @@
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
       <c r="J138" s="2" t="str">
-        <f>"Bài "&amp;L138</f>
+        <f t="shared" si="4"/>
         <v>Bài 18</v>
       </c>
       <c r="K138" s="2" t="s">
@@ -6931,7 +8319,7 @@
         <v>12</v>
       </c>
       <c r="O138" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L138&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson18,'}}</v>
       </c>
       <c r="P138" s="2"/>
@@ -6959,7 +8347,7 @@
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
       <c r="J139" s="2" t="str">
-        <f>"Bài "&amp;L139</f>
+        <f t="shared" si="4"/>
         <v>Bài 19</v>
       </c>
       <c r="K139" s="2" t="s">
@@ -6975,7 +8363,7 @@
         <v>12</v>
       </c>
       <c r="O139" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L139&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson19,'}}</v>
       </c>
       <c r="P139" s="2"/>
@@ -7003,7 +8391,7 @@
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2" t="str">
-        <f>"Bài "&amp;L140</f>
+        <f t="shared" si="4"/>
         <v>Bài 20</v>
       </c>
       <c r="K140" s="2" t="s">
@@ -7019,7 +8407,7 @@
         <v>12</v>
       </c>
       <c r="O140" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L140&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson20,'}}</v>
       </c>
       <c r="P140" s="2"/>
@@ -7047,7 +8435,7 @@
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
       <c r="J141" s="2" t="str">
-        <f>"Bài "&amp;L141</f>
+        <f t="shared" si="4"/>
         <v>Bài 21</v>
       </c>
       <c r="K141" s="2" t="s">
@@ -7063,7 +8451,7 @@
         <v>12</v>
       </c>
       <c r="O141" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L141&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson21,'}}</v>
       </c>
       <c r="P141" s="2"/>
@@ -7091,7 +8479,7 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="2" t="str">
-        <f>"Bài "&amp;L142</f>
+        <f t="shared" si="4"/>
         <v>Bài 22</v>
       </c>
       <c r="K142" s="2" t="s">
@@ -7107,7 +8495,7 @@
         <v>12</v>
       </c>
       <c r="O142" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L142&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson22,'}}</v>
       </c>
       <c r="P142" s="2"/>
@@ -7135,7 +8523,7 @@
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="2" t="str">
-        <f>"Bài "&amp;L143</f>
+        <f t="shared" si="4"/>
         <v>Bài 23</v>
       </c>
       <c r="K143" s="2" t="s">
@@ -7151,7 +8539,7 @@
         <v>12</v>
       </c>
       <c r="O143" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L143&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson23,'}}</v>
       </c>
       <c r="P143" s="2"/>
@@ -7179,7 +8567,7 @@
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="2" t="str">
-        <f>"Bài "&amp;L144</f>
+        <f t="shared" si="4"/>
         <v>Bài 24</v>
       </c>
       <c r="K144" s="2" t="s">
@@ -7195,7 +8583,7 @@
         <v>12</v>
       </c>
       <c r="O144" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L144&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson24,'}}</v>
       </c>
       <c r="P144" s="2"/>
@@ -7223,7 +8611,7 @@
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2" t="str">
-        <f>"Bài "&amp;L145</f>
+        <f t="shared" si="4"/>
         <v>Bài 25</v>
       </c>
       <c r="K145" s="2" t="s">
@@ -7239,7 +8627,7 @@
         <v>12</v>
       </c>
       <c r="O145" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L145&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson25,'}}</v>
       </c>
       <c r="P145" s="2"/>
@@ -7267,7 +8655,7 @@
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
       <c r="J146" s="2" t="str">
-        <f>"Bài "&amp;L146</f>
+        <f t="shared" si="4"/>
         <v>Bài 26</v>
       </c>
       <c r="K146" s="2" t="s">
@@ -7283,7 +8671,7 @@
         <v>12</v>
       </c>
       <c r="O146" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L146&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson26,'}}</v>
       </c>
       <c r="P146" s="2"/>
@@ -7311,7 +8699,7 @@
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
       <c r="J147" s="2" t="str">
-        <f>"Bài "&amp;L147</f>
+        <f t="shared" si="4"/>
         <v>Bài 27</v>
       </c>
       <c r="K147" s="2" t="s">
@@ -7327,7 +8715,7 @@
         <v>12</v>
       </c>
       <c r="O147" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L147&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson27,'}}</v>
       </c>
       <c r="P147" s="2"/>
@@ -7355,7 +8743,7 @@
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2" t="str">
-        <f>"Bài "&amp;L148</f>
+        <f t="shared" si="4"/>
         <v>Bài 28</v>
       </c>
       <c r="K148" s="2" t="s">
@@ -7371,7 +8759,7 @@
         <v>12</v>
       </c>
       <c r="O148" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L148&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson28,'}}</v>
       </c>
       <c r="P148" s="2"/>
@@ -7399,7 +8787,7 @@
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2" t="str">
-        <f>"Bài "&amp;L149</f>
+        <f t="shared" si="4"/>
         <v>Bài 29</v>
       </c>
       <c r="K149" s="2" t="s">
@@ -7415,7 +8803,7 @@
         <v>12</v>
       </c>
       <c r="O149" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L149&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson29,'}}</v>
       </c>
       <c r="P149" s="2"/>
@@ -7443,7 +8831,7 @@
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
       <c r="J150" s="2" t="str">
-        <f>"Bài "&amp;L150</f>
+        <f t="shared" si="4"/>
         <v>Bài 30</v>
       </c>
       <c r="K150" s="2" t="s">
@@ -7459,7 +8847,7 @@
         <v>12</v>
       </c>
       <c r="O150" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap1,lesson"&amp;L150&amp;",'}}"</f>
+        <f t="shared" si="5"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap1,lesson30,'}}</v>
       </c>
       <c r="P150" s="2"/>
@@ -7503,7 +8891,7 @@
         <v>1</v>
       </c>
       <c r="J151" s="2" t="str">
-        <f>"Bài "&amp;L151</f>
+        <f t="shared" si="4"/>
         <v>Bài 1</v>
       </c>
       <c r="K151" s="2" t="s">
@@ -7519,7 +8907,7 @@
         <v>12</v>
       </c>
       <c r="O151" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L151&amp;",'}}"</f>
+        <f t="shared" ref="O151:O180" si="6">"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L151&amp;",'}}"</f>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson1,'}}</v>
       </c>
       <c r="P151" s="2"/>
@@ -7547,7 +8935,7 @@
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
       <c r="J152" s="2" t="str">
-        <f>"Bài "&amp;L152</f>
+        <f t="shared" si="4"/>
         <v>Bài 2</v>
       </c>
       <c r="K152" s="2" t="s">
@@ -7563,7 +8951,7 @@
         <v>12</v>
       </c>
       <c r="O152" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L152&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson2,'}}</v>
       </c>
       <c r="P152" s="2"/>
@@ -7591,7 +8979,7 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="2" t="str">
-        <f>"Bài "&amp;L153</f>
+        <f t="shared" ref="J153:J184" si="7">"Bài "&amp;L153</f>
         <v>Bài 3</v>
       </c>
       <c r="K153" s="2" t="s">
@@ -7607,7 +8995,7 @@
         <v>12</v>
       </c>
       <c r="O153" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L153&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson3,'}}</v>
       </c>
       <c r="P153" s="2"/>
@@ -7635,7 +9023,7 @@
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2" t="str">
-        <f>"Bài "&amp;L154</f>
+        <f t="shared" si="7"/>
         <v>Bài 4</v>
       </c>
       <c r="K154" s="2" t="s">
@@ -7651,7 +9039,7 @@
         <v>12</v>
       </c>
       <c r="O154" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L154&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson4,'}}</v>
       </c>
       <c r="P154" s="2"/>
@@ -7679,7 +9067,7 @@
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2" t="str">
-        <f>"Bài "&amp;L155</f>
+        <f t="shared" si="7"/>
         <v>Bài 5</v>
       </c>
       <c r="K155" s="2" t="s">
@@ -7695,7 +9083,7 @@
         <v>12</v>
       </c>
       <c r="O155" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L155&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson5,'}}</v>
       </c>
       <c r="P155" s="2"/>
@@ -7723,7 +9111,7 @@
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2" t="str">
-        <f>"Bài "&amp;L156</f>
+        <f t="shared" si="7"/>
         <v>Bài 6</v>
       </c>
       <c r="K156" s="2" t="s">
@@ -7739,7 +9127,7 @@
         <v>12</v>
       </c>
       <c r="O156" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L156&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson6,'}}</v>
       </c>
       <c r="P156" s="2"/>
@@ -7767,7 +9155,7 @@
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
       <c r="J157" s="2" t="str">
-        <f>"Bài "&amp;L157</f>
+        <f t="shared" si="7"/>
         <v>Bài 7</v>
       </c>
       <c r="K157" s="2" t="s">
@@ -7783,7 +9171,7 @@
         <v>12</v>
       </c>
       <c r="O157" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L157&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson7,'}}</v>
       </c>
       <c r="P157" s="2"/>
@@ -7811,7 +9199,7 @@
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
       <c r="J158" s="2" t="str">
-        <f>"Bài "&amp;L158</f>
+        <f t="shared" si="7"/>
         <v>Bài 8</v>
       </c>
       <c r="K158" s="2" t="s">
@@ -7827,7 +9215,7 @@
         <v>12</v>
       </c>
       <c r="O158" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L158&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson8,'}}</v>
       </c>
       <c r="P158" s="2"/>
@@ -7855,7 +9243,7 @@
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
       <c r="J159" s="2" t="str">
-        <f>"Bài "&amp;L159</f>
+        <f t="shared" si="7"/>
         <v>Bài 9</v>
       </c>
       <c r="K159" s="2" t="s">
@@ -7871,7 +9259,7 @@
         <v>12</v>
       </c>
       <c r="O159" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L159&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson9,'}}</v>
       </c>
       <c r="P159" s="2"/>
@@ -7899,7 +9287,7 @@
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
       <c r="J160" s="2" t="str">
-        <f>"Bài "&amp;L160</f>
+        <f t="shared" si="7"/>
         <v>Bài 10</v>
       </c>
       <c r="K160" s="2" t="s">
@@ -7915,7 +9303,7 @@
         <v>12</v>
       </c>
       <c r="O160" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L160&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson10,'}}</v>
       </c>
       <c r="P160" s="2"/>
@@ -7943,7 +9331,7 @@
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2" t="str">
-        <f>"Bài "&amp;L161</f>
+        <f t="shared" si="7"/>
         <v>Bài 11</v>
       </c>
       <c r="K161" s="2" t="s">
@@ -7959,7 +9347,7 @@
         <v>12</v>
       </c>
       <c r="O161" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L161&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson11,'}}</v>
       </c>
       <c r="P161" s="2"/>
@@ -7987,7 +9375,7 @@
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2" t="str">
-        <f>"Bài "&amp;L162</f>
+        <f t="shared" si="7"/>
         <v>Bài 12</v>
       </c>
       <c r="K162" s="2" t="s">
@@ -8003,7 +9391,7 @@
         <v>12</v>
       </c>
       <c r="O162" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L162&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson12,'}}</v>
       </c>
       <c r="P162" s="2"/>
@@ -8031,7 +9419,7 @@
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
       <c r="J163" s="2" t="str">
-        <f>"Bài "&amp;L163</f>
+        <f t="shared" si="7"/>
         <v>Bài 13</v>
       </c>
       <c r="K163" s="2" t="s">
@@ -8047,7 +9435,7 @@
         <v>12</v>
       </c>
       <c r="O163" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L163&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson13,'}}</v>
       </c>
       <c r="P163" s="2"/>
@@ -8075,7 +9463,7 @@
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
       <c r="J164" s="2" t="str">
-        <f>"Bài "&amp;L164</f>
+        <f t="shared" si="7"/>
         <v>Bài 14</v>
       </c>
       <c r="K164" s="2" t="s">
@@ -8091,7 +9479,7 @@
         <v>12</v>
       </c>
       <c r="O164" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L164&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson14,'}}</v>
       </c>
       <c r="P164" s="2"/>
@@ -8119,7 +9507,7 @@
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2" t="str">
-        <f>"Bài "&amp;L165</f>
+        <f t="shared" si="7"/>
         <v>Bài 15</v>
       </c>
       <c r="K165" s="2" t="s">
@@ -8135,7 +9523,7 @@
         <v>12</v>
       </c>
       <c r="O165" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L165&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson15,'}}</v>
       </c>
       <c r="P165" s="2"/>
@@ -8163,7 +9551,7 @@
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2" t="str">
-        <f>"Bài "&amp;L166</f>
+        <f t="shared" si="7"/>
         <v>Bài 16</v>
       </c>
       <c r="K166" s="2" t="s">
@@ -8179,7 +9567,7 @@
         <v>12</v>
       </c>
       <c r="O166" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L166&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson16,'}}</v>
       </c>
       <c r="P166" s="2"/>
@@ -8207,7 +9595,7 @@
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
       <c r="J167" s="2" t="str">
-        <f>"Bài "&amp;L167</f>
+        <f t="shared" si="7"/>
         <v>Bài 17</v>
       </c>
       <c r="K167" s="2" t="s">
@@ -8223,7 +9611,7 @@
         <v>12</v>
       </c>
       <c r="O167" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L167&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson17,'}}</v>
       </c>
       <c r="P167" s="2"/>
@@ -8251,7 +9639,7 @@
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
       <c r="J168" s="2" t="str">
-        <f>"Bài "&amp;L168</f>
+        <f t="shared" si="7"/>
         <v>Bài 18</v>
       </c>
       <c r="K168" s="2" t="s">
@@ -8267,7 +9655,7 @@
         <v>12</v>
       </c>
       <c r="O168" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L168&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson18,'}}</v>
       </c>
       <c r="P168" s="2"/>
@@ -8295,7 +9683,7 @@
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2" t="str">
-        <f>"Bài "&amp;L169</f>
+        <f t="shared" si="7"/>
         <v>Bài 19</v>
       </c>
       <c r="K169" s="2" t="s">
@@ -8311,7 +9699,7 @@
         <v>12</v>
       </c>
       <c r="O169" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L169&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson19,'}}</v>
       </c>
       <c r="P169" s="2"/>
@@ -8339,7 +9727,7 @@
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2" t="str">
-        <f>"Bài "&amp;L170</f>
+        <f t="shared" si="7"/>
         <v>Bài 20</v>
       </c>
       <c r="K170" s="2" t="s">
@@ -8355,7 +9743,7 @@
         <v>12</v>
       </c>
       <c r="O170" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L170&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson20,'}}</v>
       </c>
       <c r="P170" s="2"/>
@@ -8383,7 +9771,7 @@
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
       <c r="J171" s="2" t="str">
-        <f>"Bài "&amp;L171</f>
+        <f t="shared" si="7"/>
         <v>Bài 21</v>
       </c>
       <c r="K171" s="2" t="s">
@@ -8399,7 +9787,7 @@
         <v>12</v>
       </c>
       <c r="O171" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L171&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson21,'}}</v>
       </c>
       <c r="P171" s="2"/>
@@ -8427,7 +9815,7 @@
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
       <c r="J172" s="2" t="str">
-        <f>"Bài "&amp;L172</f>
+        <f t="shared" si="7"/>
         <v>Bài 22</v>
       </c>
       <c r="K172" s="2" t="s">
@@ -8443,7 +9831,7 @@
         <v>12</v>
       </c>
       <c r="O172" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L172&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson22,'}}</v>
       </c>
       <c r="P172" s="2"/>
@@ -8471,7 +9859,7 @@
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
       <c r="J173" s="2" t="str">
-        <f>"Bài "&amp;L173</f>
+        <f t="shared" si="7"/>
         <v>Bài 23</v>
       </c>
       <c r="K173" s="2" t="s">
@@ -8487,7 +9875,7 @@
         <v>12</v>
       </c>
       <c r="O173" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L173&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson23,'}}</v>
       </c>
       <c r="P173" s="2"/>
@@ -8515,7 +9903,7 @@
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
       <c r="J174" s="2" t="str">
-        <f>"Bài "&amp;L174</f>
+        <f t="shared" si="7"/>
         <v>Bài 24</v>
       </c>
       <c r="K174" s="2" t="s">
@@ -8531,7 +9919,7 @@
         <v>12</v>
       </c>
       <c r="O174" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L174&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson24,'}}</v>
       </c>
       <c r="P174" s="2"/>
@@ -8559,7 +9947,7 @@
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
       <c r="J175" s="2" t="str">
-        <f>"Bài "&amp;L175</f>
+        <f t="shared" si="7"/>
         <v>Bài 25</v>
       </c>
       <c r="K175" s="2" t="s">
@@ -8575,7 +9963,7 @@
         <v>12</v>
       </c>
       <c r="O175" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L175&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson25,'}}</v>
       </c>
       <c r="P175" s="2"/>
@@ -8603,7 +9991,7 @@
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
       <c r="J176" s="2" t="str">
-        <f>"Bài "&amp;L176</f>
+        <f t="shared" si="7"/>
         <v>Bài 26</v>
       </c>
       <c r="K176" s="2" t="s">
@@ -8619,7 +10007,7 @@
         <v>12</v>
       </c>
       <c r="O176" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L176&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson26,'}}</v>
       </c>
       <c r="P176" s="2"/>
@@ -8647,7 +10035,7 @@
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
       <c r="J177" s="2" t="str">
-        <f>"Bài "&amp;L177</f>
+        <f t="shared" si="7"/>
         <v>Bài 27</v>
       </c>
       <c r="K177" s="2" t="s">
@@ -8663,7 +10051,7 @@
         <v>12</v>
       </c>
       <c r="O177" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L177&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson27,'}}</v>
       </c>
       <c r="P177" s="2"/>
@@ -8691,7 +10079,7 @@
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
       <c r="J178" s="2" t="str">
-        <f>"Bài "&amp;L178</f>
+        <f t="shared" si="7"/>
         <v>Bài 28</v>
       </c>
       <c r="K178" s="2" t="s">
@@ -8707,7 +10095,7 @@
         <v>12</v>
       </c>
       <c r="O178" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L178&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson28,'}}</v>
       </c>
       <c r="P178" s="2"/>
@@ -8735,7 +10123,7 @@
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
       <c r="J179" s="2" t="str">
-        <f>"Bài "&amp;L179</f>
+        <f t="shared" si="7"/>
         <v>Bài 29</v>
       </c>
       <c r="K179" s="2" t="s">
@@ -8751,7 +10139,7 @@
         <v>12</v>
       </c>
       <c r="O179" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L179&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson29,'}}</v>
       </c>
       <c r="P179" s="2"/>
@@ -8779,7 +10167,7 @@
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
       <c r="J180" s="2" t="str">
-        <f>"Bài "&amp;L180</f>
+        <f t="shared" si="7"/>
         <v>Bài 30</v>
       </c>
       <c r="K180" s="2" t="s">
@@ -8795,7 +10183,7 @@
         <v>12</v>
       </c>
       <c r="O180" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap2,lesson"&amp;L180&amp;",'}}"</f>
+        <f t="shared" si="6"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap2,lesson30,'}}</v>
       </c>
       <c r="P180" s="2"/>
@@ -8839,7 +10227,7 @@
         <v>1</v>
       </c>
       <c r="J181" s="2" t="str">
-        <f>"Bài "&amp;L181</f>
+        <f t="shared" si="7"/>
         <v>Bài 1</v>
       </c>
       <c r="K181" s="2" t="s">
@@ -8855,7 +10243,7 @@
         <v>12</v>
       </c>
       <c r="O181" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L181&amp;",'}}"</f>
+        <f t="shared" ref="O181:O211" si="8">"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L181&amp;",'}}"</f>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson1,'}}</v>
       </c>
       <c r="P181" s="2"/>
@@ -8883,7 +10271,7 @@
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
       <c r="J182" s="2" t="str">
-        <f>"Bài "&amp;L182</f>
+        <f t="shared" si="7"/>
         <v>Bài 2</v>
       </c>
       <c r="K182" s="2" t="s">
@@ -8899,7 +10287,7 @@
         <v>12</v>
       </c>
       <c r="O182" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L182&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson2,'}}</v>
       </c>
       <c r="P182" s="2"/>
@@ -8927,7 +10315,7 @@
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
       <c r="J183" s="2" t="str">
-        <f>"Bài "&amp;L183</f>
+        <f t="shared" si="7"/>
         <v>Bài 3</v>
       </c>
       <c r="K183" s="2" t="s">
@@ -8943,7 +10331,7 @@
         <v>12</v>
       </c>
       <c r="O183" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L183&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson3,'}}</v>
       </c>
       <c r="P183" s="2"/>
@@ -8971,7 +10359,7 @@
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
       <c r="J184" s="2" t="str">
-        <f>"Bài "&amp;L184</f>
+        <f t="shared" si="7"/>
         <v>Bài 4</v>
       </c>
       <c r="K184" s="2" t="s">
@@ -8987,7 +10375,7 @@
         <v>12</v>
       </c>
       <c r="O184" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L184&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson4,'}}</v>
       </c>
       <c r="P184" s="2"/>
@@ -9015,7 +10403,7 @@
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
       <c r="J185" s="2" t="str">
-        <f>"Bài "&amp;L185</f>
+        <f t="shared" ref="J185:J210" si="9">"Bài "&amp;L185</f>
         <v>Bài 5</v>
       </c>
       <c r="K185" s="2" t="s">
@@ -9031,7 +10419,7 @@
         <v>12</v>
       </c>
       <c r="O185" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L185&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson5,'}}</v>
       </c>
       <c r="P185" s="2"/>
@@ -9059,7 +10447,7 @@
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
       <c r="J186" s="2" t="str">
-        <f>"Bài "&amp;L186</f>
+        <f t="shared" si="9"/>
         <v>Bài 6</v>
       </c>
       <c r="K186" s="2" t="s">
@@ -9075,7 +10463,7 @@
         <v>12</v>
       </c>
       <c r="O186" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L186&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson6,'}}</v>
       </c>
       <c r="P186" s="2"/>
@@ -9103,7 +10491,7 @@
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
       <c r="J187" s="2" t="str">
-        <f>"Bài "&amp;L187</f>
+        <f t="shared" si="9"/>
         <v>Bài 7</v>
       </c>
       <c r="K187" s="2" t="s">
@@ -9119,7 +10507,7 @@
         <v>12</v>
       </c>
       <c r="O187" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L187&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson7,'}}</v>
       </c>
       <c r="P187" s="2"/>
@@ -9147,7 +10535,7 @@
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
       <c r="J188" s="2" t="str">
-        <f>"Bài "&amp;L188</f>
+        <f t="shared" si="9"/>
         <v>Bài 8</v>
       </c>
       <c r="K188" s="2" t="s">
@@ -9163,7 +10551,7 @@
         <v>12</v>
       </c>
       <c r="O188" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L188&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson8,'}}</v>
       </c>
       <c r="P188" s="2"/>
@@ -9191,7 +10579,7 @@
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
       <c r="J189" s="2" t="str">
-        <f>"Bài "&amp;L189</f>
+        <f t="shared" si="9"/>
         <v>Bài 9</v>
       </c>
       <c r="K189" s="2" t="s">
@@ -9207,7 +10595,7 @@
         <v>12</v>
       </c>
       <c r="O189" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L189&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson9,'}}</v>
       </c>
       <c r="P189" s="2"/>
@@ -9235,7 +10623,7 @@
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
       <c r="J190" s="2" t="str">
-        <f>"Bài "&amp;L190</f>
+        <f t="shared" si="9"/>
         <v>Bài 10</v>
       </c>
       <c r="K190" s="2" t="s">
@@ -9251,7 +10639,7 @@
         <v>12</v>
       </c>
       <c r="O190" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L190&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson10,'}}</v>
       </c>
       <c r="P190" s="2"/>
@@ -9279,7 +10667,7 @@
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
       <c r="J191" s="2" t="str">
-        <f>"Bài "&amp;L191</f>
+        <f t="shared" si="9"/>
         <v>Bài 11</v>
       </c>
       <c r="K191" s="2" t="s">
@@ -9295,7 +10683,7 @@
         <v>12</v>
       </c>
       <c r="O191" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L191&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson11,'}}</v>
       </c>
       <c r="P191" s="2"/>
@@ -9323,7 +10711,7 @@
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
       <c r="J192" s="2" t="str">
-        <f>"Bài "&amp;L192</f>
+        <f t="shared" si="9"/>
         <v>Bài 12</v>
       </c>
       <c r="K192" s="2" t="s">
@@ -9339,7 +10727,7 @@
         <v>12</v>
       </c>
       <c r="O192" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L192&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson12,'}}</v>
       </c>
       <c r="P192" s="2"/>
@@ -9367,7 +10755,7 @@
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
       <c r="J193" s="2" t="str">
-        <f>"Bài "&amp;L193</f>
+        <f t="shared" si="9"/>
         <v>Bài 13</v>
       </c>
       <c r="K193" s="2" t="s">
@@ -9383,7 +10771,7 @@
         <v>12</v>
       </c>
       <c r="O193" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L193&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson13,'}}</v>
       </c>
       <c r="P193" s="2"/>
@@ -9411,7 +10799,7 @@
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
       <c r="J194" s="2" t="str">
-        <f>"Bài "&amp;L194</f>
+        <f t="shared" si="9"/>
         <v>Bài 14</v>
       </c>
       <c r="K194" s="2" t="s">
@@ -9427,7 +10815,7 @@
         <v>12</v>
       </c>
       <c r="O194" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L194&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson14,'}}</v>
       </c>
       <c r="P194" s="2"/>
@@ -9455,7 +10843,7 @@
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
       <c r="J195" s="2" t="str">
-        <f>"Bài "&amp;L195</f>
+        <f t="shared" si="9"/>
         <v>Bài 15</v>
       </c>
       <c r="K195" s="2" t="s">
@@ -9471,7 +10859,7 @@
         <v>12</v>
       </c>
       <c r="O195" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L195&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson15,'}}</v>
       </c>
       <c r="P195" s="2"/>
@@ -9499,7 +10887,7 @@
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
       <c r="J196" s="2" t="str">
-        <f>"Bài "&amp;L196</f>
+        <f t="shared" si="9"/>
         <v>Bài 16</v>
       </c>
       <c r="K196" s="2" t="s">
@@ -9515,7 +10903,7 @@
         <v>12</v>
       </c>
       <c r="O196" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L196&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson16,'}}</v>
       </c>
       <c r="P196" s="2"/>
@@ -9543,7 +10931,7 @@
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
       <c r="J197" s="2" t="str">
-        <f>"Bài "&amp;L197</f>
+        <f t="shared" si="9"/>
         <v>Bài 17</v>
       </c>
       <c r="K197" s="2" t="s">
@@ -9559,7 +10947,7 @@
         <v>12</v>
       </c>
       <c r="O197" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L197&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson17,'}}</v>
       </c>
       <c r="P197" s="2"/>
@@ -9587,7 +10975,7 @@
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
       <c r="J198" s="2" t="str">
-        <f>"Bài "&amp;L198</f>
+        <f t="shared" si="9"/>
         <v>Bài 18</v>
       </c>
       <c r="K198" s="2" t="s">
@@ -9603,7 +10991,7 @@
         <v>12</v>
       </c>
       <c r="O198" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L198&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson18,'}}</v>
       </c>
       <c r="P198" s="2"/>
@@ -9631,7 +11019,7 @@
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
       <c r="J199" s="2" t="str">
-        <f>"Bài "&amp;L199</f>
+        <f t="shared" si="9"/>
         <v>Bài 19</v>
       </c>
       <c r="K199" s="2" t="s">
@@ -9647,7 +11035,7 @@
         <v>12</v>
       </c>
       <c r="O199" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L199&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson19,'}}</v>
       </c>
       <c r="P199" s="2"/>
@@ -9675,7 +11063,7 @@
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
       <c r="J200" s="2" t="str">
-        <f>"Bài "&amp;L200</f>
+        <f t="shared" si="9"/>
         <v>Bài 20</v>
       </c>
       <c r="K200" s="2" t="s">
@@ -9691,7 +11079,7 @@
         <v>12</v>
       </c>
       <c r="O200" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L200&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson20,'}}</v>
       </c>
       <c r="P200" s="2"/>
@@ -9719,7 +11107,7 @@
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
       <c r="J201" s="2" t="str">
-        <f>"Bài "&amp;L201</f>
+        <f t="shared" si="9"/>
         <v>Bài 21</v>
       </c>
       <c r="K201" s="2" t="s">
@@ -9735,7 +11123,7 @@
         <v>12</v>
       </c>
       <c r="O201" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L201&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson21,'}}</v>
       </c>
       <c r="P201" s="2"/>
@@ -9763,7 +11151,7 @@
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
       <c r="J202" s="2" t="str">
-        <f>"Bài "&amp;L202</f>
+        <f t="shared" si="9"/>
         <v>Bài 22</v>
       </c>
       <c r="K202" s="2" t="s">
@@ -9779,7 +11167,7 @@
         <v>12</v>
       </c>
       <c r="O202" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L202&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson22,'}}</v>
       </c>
       <c r="P202" s="2"/>
@@ -9807,7 +11195,7 @@
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
       <c r="J203" s="2" t="str">
-        <f>"Bài "&amp;L203</f>
+        <f t="shared" si="9"/>
         <v>Bài 23</v>
       </c>
       <c r="K203" s="2" t="s">
@@ -9823,7 +11211,7 @@
         <v>12</v>
       </c>
       <c r="O203" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L203&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson23,'}}</v>
       </c>
       <c r="P203" s="2"/>
@@ -9851,7 +11239,7 @@
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
       <c r="J204" s="2" t="str">
-        <f>"Bài "&amp;L204</f>
+        <f t="shared" si="9"/>
         <v>Bài 24</v>
       </c>
       <c r="K204" s="2" t="s">
@@ -9867,7 +11255,7 @@
         <v>12</v>
       </c>
       <c r="O204" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L204&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson24,'}}</v>
       </c>
       <c r="P204" s="2"/>
@@ -9895,7 +11283,7 @@
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
       <c r="J205" s="2" t="str">
-        <f>"Bài "&amp;L205</f>
+        <f t="shared" si="9"/>
         <v>Bài 25</v>
       </c>
       <c r="K205" s="2" t="s">
@@ -9911,7 +11299,7 @@
         <v>12</v>
       </c>
       <c r="O205" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L205&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson25,'}}</v>
       </c>
       <c r="P205" s="2"/>
@@ -9939,7 +11327,7 @@
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
       <c r="J206" s="2" t="str">
-        <f>"Bài "&amp;L206</f>
+        <f t="shared" si="9"/>
         <v>Bài 26</v>
       </c>
       <c r="K206" s="2" t="s">
@@ -9955,7 +11343,7 @@
         <v>12</v>
       </c>
       <c r="O206" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L206&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson26,'}}</v>
       </c>
       <c r="P206" s="2"/>
@@ -9983,7 +11371,7 @@
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
       <c r="J207" s="2" t="str">
-        <f>"Bài "&amp;L207</f>
+        <f t="shared" si="9"/>
         <v>Bài 27</v>
       </c>
       <c r="K207" s="2" t="s">
@@ -9999,7 +11387,7 @@
         <v>12</v>
       </c>
       <c r="O207" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L207&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson27,'}}</v>
       </c>
       <c r="P207" s="2"/>
@@ -10027,7 +11415,7 @@
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
       <c r="J208" s="2" t="str">
-        <f>"Bài "&amp;L208</f>
+        <f t="shared" si="9"/>
         <v>Bài 28</v>
       </c>
       <c r="K208" s="2" t="s">
@@ -10043,7 +11431,7 @@
         <v>12</v>
       </c>
       <c r="O208" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L208&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson28,'}}</v>
       </c>
       <c r="P208" s="2"/>
@@ -10071,7 +11459,7 @@
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
       <c r="J209" s="2" t="str">
-        <f>"Bài "&amp;L209</f>
+        <f t="shared" si="9"/>
         <v>Bài 29</v>
       </c>
       <c r="K209" s="2" t="s">
@@ -10087,7 +11475,7 @@
         <v>12</v>
       </c>
       <c r="O209" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L209&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson29,'}}</v>
       </c>
       <c r="P209" s="2"/>
@@ -10115,7 +11503,7 @@
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
       <c r="J210" s="2" t="str">
-        <f>"Bài "&amp;L210</f>
+        <f t="shared" si="9"/>
         <v>Bài 30</v>
       </c>
       <c r="K210" s="2" t="s">
@@ -10131,7 +11519,7 @@
         <v>12</v>
       </c>
       <c r="O210" s="2" t="str">
-        <f>"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L210&amp;",'}}"</f>
+        <f t="shared" si="8"/>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson30,'}}</v>
       </c>
       <c r="P210" s="2"/>
@@ -10147,21 +11535,51 @@
       <c r="Z210" s="2"/>
     </row>
     <row r="211" spans="1:26" ht="15.75">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="2"/>
-      <c r="J211" s="2"/>
-      <c r="K211" s="2"/>
-      <c r="L211" s="2"/>
-      <c r="M211" s="2"/>
-      <c r="N211" s="2"/>
-      <c r="O211" s="2"/>
+      <c r="A211" s="2">
+        <v>211</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F211" s="2">
+        <v>21</v>
+      </c>
+      <c r="G211" s="2">
+        <v>40</v>
+      </c>
+      <c r="H211" s="2">
+        <v>1</v>
+      </c>
+      <c r="I211" s="2">
+        <v>1</v>
+      </c>
+      <c r="J211" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K211" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L211" s="2">
+        <v>1</v>
+      </c>
+      <c r="M211" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N211" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O211" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="P211" s="2"/>
       <c r="Q211" s="2"/>
       <c r="R211" s="2"/>
@@ -10175,7 +11593,9 @@
       <c r="Z211" s="2"/>
     </row>
     <row r="212" spans="1:26" ht="15.75">
-      <c r="A212" s="2"/>
+      <c r="A212" s="2">
+        <v>212</v>
+      </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -10184,12 +11604,24 @@
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
-      <c r="J212" s="2"/>
-      <c r="K212" s="2"/>
-      <c r="L212" s="2"/>
-      <c r="M212" s="2"/>
-      <c r="N212" s="2"/>
-      <c r="O212" s="2"/>
+      <c r="J212" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K212" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L212" s="2">
+        <v>2</v>
+      </c>
+      <c r="M212" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N212" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O212" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="P212" s="2"/>
       <c r="Q212" s="2"/>
       <c r="R212" s="2"/>
@@ -10203,7 +11635,9 @@
       <c r="Z212" s="2"/>
     </row>
     <row r="213" spans="1:26" ht="15.75">
-      <c r="A213" s="2"/>
+      <c r="A213" s="2">
+        <v>213</v>
+      </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -10212,12 +11646,24 @@
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
-      <c r="J213" s="2"/>
-      <c r="K213" s="2"/>
-      <c r="L213" s="2"/>
-      <c r="M213" s="2"/>
-      <c r="N213" s="2"/>
-      <c r="O213" s="2"/>
+      <c r="J213" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K213" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L213" s="2">
+        <v>3</v>
+      </c>
+      <c r="M213" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N213" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O213" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="P213" s="2"/>
       <c r="Q213" s="2"/>
       <c r="R213" s="2"/>
@@ -10231,7 +11677,9 @@
       <c r="Z213" s="2"/>
     </row>
     <row r="214" spans="1:26" ht="15.75">
-      <c r="A214" s="2"/>
+      <c r="A214" s="2">
+        <v>214</v>
+      </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -10240,12 +11688,24 @@
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
-      <c r="J214" s="2"/>
-      <c r="K214" s="2"/>
-      <c r="L214" s="2"/>
-      <c r="M214" s="2"/>
-      <c r="N214" s="2"/>
-      <c r="O214" s="2"/>
+      <c r="J214" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K214" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L214" s="2">
+        <v>4</v>
+      </c>
+      <c r="M214" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N214" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O214" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="P214" s="2"/>
       <c r="Q214" s="2"/>
       <c r="R214" s="2"/>
@@ -10259,7 +11719,9 @@
       <c r="Z214" s="2"/>
     </row>
     <row r="215" spans="1:26" ht="15.75">
-      <c r="A215" s="2"/>
+      <c r="A215" s="2">
+        <v>215</v>
+      </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -10268,12 +11730,24 @@
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
-      <c r="J215" s="2"/>
-      <c r="K215" s="2"/>
-      <c r="L215" s="2"/>
-      <c r="M215" s="2"/>
-      <c r="N215" s="2"/>
-      <c r="O215" s="2"/>
+      <c r="J215" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K215" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L215" s="2">
+        <v>5</v>
+      </c>
+      <c r="M215" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N215" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O215" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="P215" s="2"/>
       <c r="Q215" s="2"/>
       <c r="R215" s="2"/>
@@ -10287,7 +11761,9 @@
       <c r="Z215" s="2"/>
     </row>
     <row r="216" spans="1:26" ht="15.75">
-      <c r="A216" s="2"/>
+      <c r="A216" s="2">
+        <v>216</v>
+      </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -10296,12 +11772,24 @@
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
-      <c r="J216" s="2"/>
-      <c r="K216" s="2"/>
-      <c r="L216" s="2"/>
-      <c r="M216" s="2"/>
-      <c r="N216" s="2"/>
-      <c r="O216" s="2"/>
+      <c r="J216" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K216" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L216" s="2">
+        <v>6</v>
+      </c>
+      <c r="M216" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N216" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O216" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="P216" s="2"/>
       <c r="Q216" s="2"/>
       <c r="R216" s="2"/>
@@ -10315,7 +11803,9 @@
       <c r="Z216" s="2"/>
     </row>
     <row r="217" spans="1:26" ht="15.75">
-      <c r="A217" s="2"/>
+      <c r="A217" s="2">
+        <v>217</v>
+      </c>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -10324,12 +11814,24 @@
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
-      <c r="K217" s="2"/>
-      <c r="L217" s="2"/>
-      <c r="M217" s="2"/>
-      <c r="N217" s="2"/>
-      <c r="O217" s="2"/>
+      <c r="J217" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K217" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L217" s="2">
+        <v>7</v>
+      </c>
+      <c r="M217" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N217" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O217" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="P217" s="2"/>
       <c r="Q217" s="2"/>
       <c r="R217" s="2"/>
@@ -10343,7 +11845,9 @@
       <c r="Z217" s="2"/>
     </row>
     <row r="218" spans="1:26" ht="15.75">
-      <c r="A218" s="2"/>
+      <c r="A218" s="2">
+        <v>218</v>
+      </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -10352,12 +11856,24 @@
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
-      <c r="J218" s="2"/>
-      <c r="K218" s="2"/>
-      <c r="L218" s="2"/>
-      <c r="M218" s="2"/>
-      <c r="N218" s="2"/>
-      <c r="O218" s="2"/>
+      <c r="J218" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K218" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L218" s="2">
+        <v>8</v>
+      </c>
+      <c r="M218" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N218" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O218" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="P218" s="2"/>
       <c r="Q218" s="2"/>
       <c r="R218" s="2"/>
@@ -10371,7 +11887,9 @@
       <c r="Z218" s="2"/>
     </row>
     <row r="219" spans="1:26" ht="15.75">
-      <c r="A219" s="2"/>
+      <c r="A219" s="2">
+        <v>219</v>
+      </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -10380,12 +11898,24 @@
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
-      <c r="J219" s="2"/>
-      <c r="K219" s="2"/>
-      <c r="L219" s="2"/>
-      <c r="M219" s="2"/>
-      <c r="N219" s="2"/>
-      <c r="O219" s="2"/>
+      <c r="J219" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K219" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L219" s="2">
+        <v>9</v>
+      </c>
+      <c r="M219" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N219" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O219" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="P219" s="2"/>
       <c r="Q219" s="2"/>
       <c r="R219" s="2"/>
@@ -10399,7 +11929,9 @@
       <c r="Z219" s="2"/>
     </row>
     <row r="220" spans="1:26" ht="15.75">
-      <c r="A220" s="2"/>
+      <c r="A220" s="2">
+        <v>220</v>
+      </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -10408,12 +11940,24 @@
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
-      <c r="J220" s="2"/>
-      <c r="K220" s="2"/>
-      <c r="L220" s="2"/>
-      <c r="M220" s="2"/>
-      <c r="N220" s="2"/>
-      <c r="O220" s="2"/>
+      <c r="J220" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K220" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L220" s="2">
+        <v>10</v>
+      </c>
+      <c r="M220" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N220" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O220" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="P220" s="2"/>
       <c r="Q220" s="2"/>
       <c r="R220" s="2"/>
@@ -10427,7 +11971,9 @@
       <c r="Z220" s="2"/>
     </row>
     <row r="221" spans="1:26" ht="15.75">
-      <c r="A221" s="2"/>
+      <c r="A221" s="2">
+        <v>221</v>
+      </c>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -10436,12 +11982,24 @@
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
-      <c r="J221" s="2"/>
-      <c r="K221" s="2"/>
-      <c r="L221" s="2"/>
-      <c r="M221" s="2"/>
-      <c r="N221" s="2"/>
-      <c r="O221" s="2"/>
+      <c r="J221" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K221" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L221" s="2">
+        <v>11</v>
+      </c>
+      <c r="M221" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N221" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O221" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="P221" s="2"/>
       <c r="Q221" s="2"/>
       <c r="R221" s="2"/>
@@ -10455,7 +12013,9 @@
       <c r="Z221" s="2"/>
     </row>
     <row r="222" spans="1:26" ht="15.75">
-      <c r="A222" s="2"/>
+      <c r="A222" s="2">
+        <v>222</v>
+      </c>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -10464,12 +12024,24 @@
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
-      <c r="J222" s="2"/>
-      <c r="K222" s="2"/>
-      <c r="L222" s="2"/>
-      <c r="M222" s="2"/>
-      <c r="N222" s="2"/>
-      <c r="O222" s="2"/>
+      <c r="J222" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K222" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L222" s="2">
+        <v>12</v>
+      </c>
+      <c r="M222" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N222" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O222" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="P222" s="2"/>
       <c r="Q222" s="2"/>
       <c r="R222" s="2"/>
@@ -10483,7 +12055,9 @@
       <c r="Z222" s="2"/>
     </row>
     <row r="223" spans="1:26" ht="15.75">
-      <c r="A223" s="2"/>
+      <c r="A223" s="2">
+        <v>223</v>
+      </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -10492,12 +12066,24 @@
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
-      <c r="J223" s="2"/>
-      <c r="K223" s="2"/>
-      <c r="L223" s="2"/>
-      <c r="M223" s="2"/>
-      <c r="N223" s="2"/>
-      <c r="O223" s="2"/>
+      <c r="J223" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K223" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L223" s="2">
+        <v>13</v>
+      </c>
+      <c r="M223" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N223" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O223" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="P223" s="2"/>
       <c r="Q223" s="2"/>
       <c r="R223" s="2"/>
@@ -10511,7 +12097,9 @@
       <c r="Z223" s="2"/>
     </row>
     <row r="224" spans="1:26" ht="15.75">
-      <c r="A224" s="2"/>
+      <c r="A224" s="2">
+        <v>224</v>
+      </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -10520,12 +12108,24 @@
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
-      <c r="J224" s="2"/>
-      <c r="K224" s="2"/>
-      <c r="L224" s="2"/>
-      <c r="M224" s="2"/>
-      <c r="N224" s="2"/>
-      <c r="O224" s="2"/>
+      <c r="J224" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K224" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L224" s="2">
+        <v>14</v>
+      </c>
+      <c r="M224" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N224" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O224" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="P224" s="2"/>
       <c r="Q224" s="2"/>
       <c r="R224" s="2"/>
@@ -10539,7 +12139,9 @@
       <c r="Z224" s="2"/>
     </row>
     <row r="225" spans="1:26" ht="15.75">
-      <c r="A225" s="2"/>
+      <c r="A225" s="2">
+        <v>225</v>
+      </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -10548,12 +12150,24 @@
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
-      <c r="J225" s="2"/>
-      <c r="K225" s="2"/>
-      <c r="L225" s="2"/>
-      <c r="M225" s="2"/>
-      <c r="N225" s="2"/>
-      <c r="O225" s="2"/>
+      <c r="J225" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K225" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L225" s="2">
+        <v>15</v>
+      </c>
+      <c r="M225" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N225" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O225" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="P225" s="2"/>
       <c r="Q225" s="2"/>
       <c r="R225" s="2"/>
@@ -10567,7 +12181,9 @@
       <c r="Z225" s="2"/>
     </row>
     <row r="226" spans="1:26" ht="15.75">
-      <c r="A226" s="2"/>
+      <c r="A226" s="2">
+        <v>226</v>
+      </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -10576,12 +12192,24 @@
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
-      <c r="J226" s="2"/>
-      <c r="K226" s="2"/>
-      <c r="L226" s="2"/>
-      <c r="M226" s="2"/>
-      <c r="N226" s="2"/>
-      <c r="O226" s="2"/>
+      <c r="J226" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K226" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L226" s="2">
+        <v>16</v>
+      </c>
+      <c r="M226" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N226" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O226" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="P226" s="2"/>
       <c r="Q226" s="2"/>
       <c r="R226" s="2"/>
@@ -10595,7 +12223,9 @@
       <c r="Z226" s="2"/>
     </row>
     <row r="227" spans="1:26" ht="15.75">
-      <c r="A227" s="2"/>
+      <c r="A227" s="2">
+        <v>227</v>
+      </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -10604,12 +12234,24 @@
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="2"/>
-      <c r="M227" s="2"/>
-      <c r="N227" s="2"/>
-      <c r="O227" s="2"/>
+      <c r="J227" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K227" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L227" s="2">
+        <v>17</v>
+      </c>
+      <c r="M227" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N227" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O227" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="P227" s="2"/>
       <c r="Q227" s="2"/>
       <c r="R227" s="2"/>
@@ -10623,7 +12265,9 @@
       <c r="Z227" s="2"/>
     </row>
     <row r="228" spans="1:26" ht="15.75">
-      <c r="A228" s="2"/>
+      <c r="A228" s="2">
+        <v>228</v>
+      </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -10632,12 +12276,24 @@
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
-      <c r="J228" s="2"/>
-      <c r="K228" s="2"/>
-      <c r="L228" s="2"/>
-      <c r="M228" s="2"/>
-      <c r="N228" s="2"/>
-      <c r="O228" s="2"/>
+      <c r="J228" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K228" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L228" s="2">
+        <v>18</v>
+      </c>
+      <c r="M228" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N228" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O228" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="P228" s="2"/>
       <c r="Q228" s="2"/>
       <c r="R228" s="2"/>
@@ -10651,7 +12307,9 @@
       <c r="Z228" s="2"/>
     </row>
     <row r="229" spans="1:26" ht="15.75">
-      <c r="A229" s="2"/>
+      <c r="A229" s="2">
+        <v>229</v>
+      </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -10660,12 +12318,24 @@
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
-      <c r="J229" s="2"/>
-      <c r="K229" s="2"/>
-      <c r="L229" s="2"/>
-      <c r="M229" s="2"/>
-      <c r="N229" s="2"/>
-      <c r="O229" s="2"/>
+      <c r="J229" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K229" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L229" s="2">
+        <v>19</v>
+      </c>
+      <c r="M229" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N229" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O229" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="P229" s="2"/>
       <c r="Q229" s="2"/>
       <c r="R229" s="2"/>
@@ -10679,7 +12349,9 @@
       <c r="Z229" s="2"/>
     </row>
     <row r="230" spans="1:26" ht="15.75">
-      <c r="A230" s="2"/>
+      <c r="A230" s="2">
+        <v>230</v>
+      </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -10688,12 +12360,24 @@
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="2"/>
-      <c r="M230" s="2"/>
-      <c r="N230" s="2"/>
-      <c r="O230" s="2"/>
+      <c r="J230" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K230" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L230" s="2">
+        <v>20</v>
+      </c>
+      <c r="M230" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N230" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O230" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="P230" s="2"/>
       <c r="Q230" s="2"/>
       <c r="R230" s="2"/>
@@ -10707,7 +12391,9 @@
       <c r="Z230" s="2"/>
     </row>
     <row r="231" spans="1:26" ht="15.75">
-      <c r="A231" s="2"/>
+      <c r="A231" s="2">
+        <v>231</v>
+      </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -10716,12 +12402,24 @@
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
-      <c r="J231" s="2"/>
-      <c r="K231" s="2"/>
-      <c r="L231" s="2"/>
-      <c r="M231" s="2"/>
-      <c r="N231" s="2"/>
-      <c r="O231" s="2"/>
+      <c r="J231" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K231" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L231" s="2">
+        <v>21</v>
+      </c>
+      <c r="M231" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N231" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O231" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="P231" s="2"/>
       <c r="Q231" s="2"/>
       <c r="R231" s="2"/>
@@ -32267,7 +33965,7 @@
       <c r="Z1000" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
@@ -32282,9 +33980,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A211" sqref="A211:N231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -47203,20 +48901,62 @@
       <c r="AA210" s="2"/>
     </row>
     <row r="211" spans="1:27" ht="15.75">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="2"/>
-      <c r="J211" s="2"/>
-      <c r="K211" s="2"/>
-      <c r="L211" s="2"/>
-      <c r="M211" s="2"/>
-      <c r="N211" s="2"/>
+      <c r="A211" s="2" t="str">
+        <f>""""&amp;book_list!B211&amp;""""</f>
+        <v>"173 mẫu ngữ pháp Tiếng Nhật"</v>
+      </c>
+      <c r="B211" s="2" t="str">
+        <f>""""&amp;book_list!C211&amp;""""</f>
+        <v>"Tổng hợp 173 mẫu ngữ pháp Tiếng Nhật trình độ 2級"</v>
+      </c>
+      <c r="C211" s="2" t="str">
+        <f>""""&amp;book_list!D211&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="D211" s="2" t="str">
+        <f>""""&amp;book_list!E211&amp;""""</f>
+        <v>"N2"</v>
+      </c>
+      <c r="E211" s="2" t="str">
+        <f>""""&amp;book_list!F211&amp;""""</f>
+        <v>"21"</v>
+      </c>
+      <c r="F211" s="2" t="str">
+        <f>""""&amp;book_list!G211&amp;""""</f>
+        <v>"40"</v>
+      </c>
+      <c r="G211" s="2" t="str">
+        <f>""""&amp;book_list!H211&amp;""""</f>
+        <v>"1"</v>
+      </c>
+      <c r="H211" s="2" t="str">
+        <f>""""&amp;book_list!I211&amp;""""</f>
+        <v>"1"</v>
+      </c>
+      <c r="I211" s="2" t="str">
+        <f>""""&amp;book_list!J211&amp;""""</f>
+        <v>"Bài 1"</v>
+      </c>
+      <c r="J211" s="2" t="str">
+        <f>""""&amp;book_list!K211&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K211" s="2" t="str">
+        <f>""""&amp;book_list!L211&amp;""""</f>
+        <v>"1"</v>
+      </c>
+      <c r="L211" s="2" t="str">
+        <f>""""&amp;book_list!M211&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M211" s="2" t="str">
+        <f>""""&amp;book_list!N211&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N211" s="2" t="str">
+        <f>""""&amp;book_list!O211&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson1,'}}"</v>
+      </c>
       <c r="O211" s="2"/>
       <c r="P211" s="2"/>
       <c r="Q211" s="2"/>
@@ -47232,20 +48972,62 @@
       <c r="AA211" s="2"/>
     </row>
     <row r="212" spans="1:27" ht="15.75">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="2"/>
-      <c r="J212" s="2"/>
-      <c r="K212" s="2"/>
-      <c r="L212" s="2"/>
-      <c r="M212" s="2"/>
-      <c r="N212" s="2"/>
+      <c r="A212" s="2" t="str">
+        <f>""""&amp;book_list!B212&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B212" s="2" t="str">
+        <f>""""&amp;book_list!C212&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C212" s="2" t="str">
+        <f>""""&amp;book_list!D212&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D212" s="2" t="str">
+        <f>""""&amp;book_list!E212&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E212" s="2" t="str">
+        <f>""""&amp;book_list!F212&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F212" s="2" t="str">
+        <f>""""&amp;book_list!G212&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G212" s="2" t="str">
+        <f>""""&amp;book_list!H212&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H212" s="2" t="str">
+        <f>""""&amp;book_list!I212&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I212" s="2" t="str">
+        <f>""""&amp;book_list!J212&amp;""""</f>
+        <v>"Bài 2"</v>
+      </c>
+      <c r="J212" s="2" t="str">
+        <f>""""&amp;book_list!K212&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K212" s="2" t="str">
+        <f>""""&amp;book_list!L212&amp;""""</f>
+        <v>"2"</v>
+      </c>
+      <c r="L212" s="2" t="str">
+        <f>""""&amp;book_list!M212&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M212" s="2" t="str">
+        <f>""""&amp;book_list!N212&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N212" s="2" t="str">
+        <f>""""&amp;book_list!O212&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson2,'}}"</v>
+      </c>
       <c r="O212" s="2"/>
       <c r="P212" s="2"/>
       <c r="Q212" s="2"/>
@@ -47261,20 +49043,62 @@
       <c r="AA212" s="2"/>
     </row>
     <row r="213" spans="1:27" ht="15.75">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
-      <c r="J213" s="2"/>
-      <c r="K213" s="2"/>
-      <c r="L213" s="2"/>
-      <c r="M213" s="2"/>
-      <c r="N213" s="2"/>
+      <c r="A213" s="2" t="str">
+        <f>""""&amp;book_list!B213&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B213" s="2" t="str">
+        <f>""""&amp;book_list!C213&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C213" s="2" t="str">
+        <f>""""&amp;book_list!D213&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D213" s="2" t="str">
+        <f>""""&amp;book_list!E213&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E213" s="2" t="str">
+        <f>""""&amp;book_list!F213&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F213" s="2" t="str">
+        <f>""""&amp;book_list!G213&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G213" s="2" t="str">
+        <f>""""&amp;book_list!H213&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H213" s="2" t="str">
+        <f>""""&amp;book_list!I213&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I213" s="2" t="str">
+        <f>""""&amp;book_list!J213&amp;""""</f>
+        <v>"Bài 3"</v>
+      </c>
+      <c r="J213" s="2" t="str">
+        <f>""""&amp;book_list!K213&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K213" s="2" t="str">
+        <f>""""&amp;book_list!L213&amp;""""</f>
+        <v>"3"</v>
+      </c>
+      <c r="L213" s="2" t="str">
+        <f>""""&amp;book_list!M213&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M213" s="2" t="str">
+        <f>""""&amp;book_list!N213&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N213" s="2" t="str">
+        <f>""""&amp;book_list!O213&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson3,'}}"</v>
+      </c>
       <c r="O213" s="2"/>
       <c r="P213" s="2"/>
       <c r="Q213" s="2"/>
@@ -47290,20 +49114,62 @@
       <c r="AA213" s="2"/>
     </row>
     <row r="214" spans="1:27" ht="15.75">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="2"/>
-      <c r="J214" s="2"/>
-      <c r="K214" s="2"/>
-      <c r="L214" s="2"/>
-      <c r="M214" s="2"/>
-      <c r="N214" s="2"/>
+      <c r="A214" s="2" t="str">
+        <f>""""&amp;book_list!B214&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B214" s="2" t="str">
+        <f>""""&amp;book_list!C214&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C214" s="2" t="str">
+        <f>""""&amp;book_list!D214&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D214" s="2" t="str">
+        <f>""""&amp;book_list!E214&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E214" s="2" t="str">
+        <f>""""&amp;book_list!F214&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F214" s="2" t="str">
+        <f>""""&amp;book_list!G214&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G214" s="2" t="str">
+        <f>""""&amp;book_list!H214&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H214" s="2" t="str">
+        <f>""""&amp;book_list!I214&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I214" s="2" t="str">
+        <f>""""&amp;book_list!J214&amp;""""</f>
+        <v>"Bài 4"</v>
+      </c>
+      <c r="J214" s="2" t="str">
+        <f>""""&amp;book_list!K214&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K214" s="2" t="str">
+        <f>""""&amp;book_list!L214&amp;""""</f>
+        <v>"4"</v>
+      </c>
+      <c r="L214" s="2" t="str">
+        <f>""""&amp;book_list!M214&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M214" s="2" t="str">
+        <f>""""&amp;book_list!N214&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N214" s="2" t="str">
+        <f>""""&amp;book_list!O214&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson4,'}}"</v>
+      </c>
       <c r="O214" s="2"/>
       <c r="P214" s="2"/>
       <c r="Q214" s="2"/>
@@ -47319,20 +49185,62 @@
       <c r="AA214" s="2"/>
     </row>
     <row r="215" spans="1:27" ht="15.75">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
-      <c r="I215" s="2"/>
-      <c r="J215" s="2"/>
-      <c r="K215" s="2"/>
-      <c r="L215" s="2"/>
-      <c r="M215" s="2"/>
-      <c r="N215" s="2"/>
+      <c r="A215" s="2" t="str">
+        <f>""""&amp;book_list!B215&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B215" s="2" t="str">
+        <f>""""&amp;book_list!C215&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C215" s="2" t="str">
+        <f>""""&amp;book_list!D215&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D215" s="2" t="str">
+        <f>""""&amp;book_list!E215&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E215" s="2" t="str">
+        <f>""""&amp;book_list!F215&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F215" s="2" t="str">
+        <f>""""&amp;book_list!G215&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G215" s="2" t="str">
+        <f>""""&amp;book_list!H215&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H215" s="2" t="str">
+        <f>""""&amp;book_list!I215&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I215" s="2" t="str">
+        <f>""""&amp;book_list!J215&amp;""""</f>
+        <v>"Bài 5"</v>
+      </c>
+      <c r="J215" s="2" t="str">
+        <f>""""&amp;book_list!K215&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K215" s="2" t="str">
+        <f>""""&amp;book_list!L215&amp;""""</f>
+        <v>"5"</v>
+      </c>
+      <c r="L215" s="2" t="str">
+        <f>""""&amp;book_list!M215&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M215" s="2" t="str">
+        <f>""""&amp;book_list!N215&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N215" s="2" t="str">
+        <f>""""&amp;book_list!O215&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson5,'}}"</v>
+      </c>
       <c r="O215" s="2"/>
       <c r="P215" s="2"/>
       <c r="Q215" s="2"/>
@@ -47348,20 +49256,62 @@
       <c r="AA215" s="2"/>
     </row>
     <row r="216" spans="1:27" ht="15.75">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="2"/>
-      <c r="J216" s="2"/>
-      <c r="K216" s="2"/>
-      <c r="L216" s="2"/>
-      <c r="M216" s="2"/>
-      <c r="N216" s="2"/>
+      <c r="A216" s="2" t="str">
+        <f>""""&amp;book_list!B216&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B216" s="2" t="str">
+        <f>""""&amp;book_list!C216&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C216" s="2" t="str">
+        <f>""""&amp;book_list!D216&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D216" s="2" t="str">
+        <f>""""&amp;book_list!E216&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E216" s="2" t="str">
+        <f>""""&amp;book_list!F216&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F216" s="2" t="str">
+        <f>""""&amp;book_list!G216&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G216" s="2" t="str">
+        <f>""""&amp;book_list!H216&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H216" s="2" t="str">
+        <f>""""&amp;book_list!I216&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I216" s="2" t="str">
+        <f>""""&amp;book_list!J216&amp;""""</f>
+        <v>"Bài 6"</v>
+      </c>
+      <c r="J216" s="2" t="str">
+        <f>""""&amp;book_list!K216&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K216" s="2" t="str">
+        <f>""""&amp;book_list!L216&amp;""""</f>
+        <v>"6"</v>
+      </c>
+      <c r="L216" s="2" t="str">
+        <f>""""&amp;book_list!M216&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M216" s="2" t="str">
+        <f>""""&amp;book_list!N216&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N216" s="2" t="str">
+        <f>""""&amp;book_list!O216&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson6,'}}"</v>
+      </c>
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
       <c r="Q216" s="2"/>
@@ -47377,20 +49327,62 @@
       <c r="AA216" s="2"/>
     </row>
     <row r="217" spans="1:27" ht="15.75">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
-      <c r="K217" s="2"/>
-      <c r="L217" s="2"/>
-      <c r="M217" s="2"/>
-      <c r="N217" s="2"/>
+      <c r="A217" s="2" t="str">
+        <f>""""&amp;book_list!B217&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B217" s="2" t="str">
+        <f>""""&amp;book_list!C217&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C217" s="2" t="str">
+        <f>""""&amp;book_list!D217&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D217" s="2" t="str">
+        <f>""""&amp;book_list!E217&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E217" s="2" t="str">
+        <f>""""&amp;book_list!F217&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F217" s="2" t="str">
+        <f>""""&amp;book_list!G217&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G217" s="2" t="str">
+        <f>""""&amp;book_list!H217&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H217" s="2" t="str">
+        <f>""""&amp;book_list!I217&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I217" s="2" t="str">
+        <f>""""&amp;book_list!J217&amp;""""</f>
+        <v>"Bài 7"</v>
+      </c>
+      <c r="J217" s="2" t="str">
+        <f>""""&amp;book_list!K217&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K217" s="2" t="str">
+        <f>""""&amp;book_list!L217&amp;""""</f>
+        <v>"7"</v>
+      </c>
+      <c r="L217" s="2" t="str">
+        <f>""""&amp;book_list!M217&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M217" s="2" t="str">
+        <f>""""&amp;book_list!N217&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N217" s="2" t="str">
+        <f>""""&amp;book_list!O217&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson7,'}}"</v>
+      </c>
       <c r="O217" s="2"/>
       <c r="P217" s="2"/>
       <c r="Q217" s="2"/>
@@ -47406,20 +49398,62 @@
       <c r="AA217" s="2"/>
     </row>
     <row r="218" spans="1:27" ht="15.75">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="2"/>
-      <c r="J218" s="2"/>
-      <c r="K218" s="2"/>
-      <c r="L218" s="2"/>
-      <c r="M218" s="2"/>
-      <c r="N218" s="2"/>
+      <c r="A218" s="2" t="str">
+        <f>""""&amp;book_list!B218&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B218" s="2" t="str">
+        <f>""""&amp;book_list!C218&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C218" s="2" t="str">
+        <f>""""&amp;book_list!D218&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D218" s="2" t="str">
+        <f>""""&amp;book_list!E218&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E218" s="2" t="str">
+        <f>""""&amp;book_list!F218&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F218" s="2" t="str">
+        <f>""""&amp;book_list!G218&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G218" s="2" t="str">
+        <f>""""&amp;book_list!H218&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H218" s="2" t="str">
+        <f>""""&amp;book_list!I218&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I218" s="2" t="str">
+        <f>""""&amp;book_list!J218&amp;""""</f>
+        <v>"Bài 8"</v>
+      </c>
+      <c r="J218" s="2" t="str">
+        <f>""""&amp;book_list!K218&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K218" s="2" t="str">
+        <f>""""&amp;book_list!L218&amp;""""</f>
+        <v>"8"</v>
+      </c>
+      <c r="L218" s="2" t="str">
+        <f>""""&amp;book_list!M218&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M218" s="2" t="str">
+        <f>""""&amp;book_list!N218&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N218" s="2" t="str">
+        <f>""""&amp;book_list!O218&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson8,'}}"</v>
+      </c>
       <c r="O218" s="2"/>
       <c r="P218" s="2"/>
       <c r="Q218" s="2"/>
@@ -47435,20 +49469,62 @@
       <c r="AA218" s="2"/>
     </row>
     <row r="219" spans="1:27" ht="15.75">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
-      <c r="I219" s="2"/>
-      <c r="J219" s="2"/>
-      <c r="K219" s="2"/>
-      <c r="L219" s="2"/>
-      <c r="M219" s="2"/>
-      <c r="N219" s="2"/>
+      <c r="A219" s="2" t="str">
+        <f>""""&amp;book_list!B219&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B219" s="2" t="str">
+        <f>""""&amp;book_list!C219&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C219" s="2" t="str">
+        <f>""""&amp;book_list!D219&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D219" s="2" t="str">
+        <f>""""&amp;book_list!E219&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E219" s="2" t="str">
+        <f>""""&amp;book_list!F219&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F219" s="2" t="str">
+        <f>""""&amp;book_list!G219&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G219" s="2" t="str">
+        <f>""""&amp;book_list!H219&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H219" s="2" t="str">
+        <f>""""&amp;book_list!I219&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I219" s="2" t="str">
+        <f>""""&amp;book_list!J219&amp;""""</f>
+        <v>"Bài 9"</v>
+      </c>
+      <c r="J219" s="2" t="str">
+        <f>""""&amp;book_list!K219&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K219" s="2" t="str">
+        <f>""""&amp;book_list!L219&amp;""""</f>
+        <v>"9"</v>
+      </c>
+      <c r="L219" s="2" t="str">
+        <f>""""&amp;book_list!M219&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M219" s="2" t="str">
+        <f>""""&amp;book_list!N219&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N219" s="2" t="str">
+        <f>""""&amp;book_list!O219&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson9,'}}"</v>
+      </c>
       <c r="O219" s="2"/>
       <c r="P219" s="2"/>
       <c r="Q219" s="2"/>
@@ -47464,20 +49540,62 @@
       <c r="AA219" s="2"/>
     </row>
     <row r="220" spans="1:27" ht="15.75">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
-      <c r="J220" s="2"/>
-      <c r="K220" s="2"/>
-      <c r="L220" s="2"/>
-      <c r="M220" s="2"/>
-      <c r="N220" s="2"/>
+      <c r="A220" s="2" t="str">
+        <f>""""&amp;book_list!B220&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B220" s="2" t="str">
+        <f>""""&amp;book_list!C220&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C220" s="2" t="str">
+        <f>""""&amp;book_list!D220&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D220" s="2" t="str">
+        <f>""""&amp;book_list!E220&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E220" s="2" t="str">
+        <f>""""&amp;book_list!F220&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F220" s="2" t="str">
+        <f>""""&amp;book_list!G220&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G220" s="2" t="str">
+        <f>""""&amp;book_list!H220&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H220" s="2" t="str">
+        <f>""""&amp;book_list!I220&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I220" s="2" t="str">
+        <f>""""&amp;book_list!J220&amp;""""</f>
+        <v>"Bài 10"</v>
+      </c>
+      <c r="J220" s="2" t="str">
+        <f>""""&amp;book_list!K220&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K220" s="2" t="str">
+        <f>""""&amp;book_list!L220&amp;""""</f>
+        <v>"10"</v>
+      </c>
+      <c r="L220" s="2" t="str">
+        <f>""""&amp;book_list!M220&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M220" s="2" t="str">
+        <f>""""&amp;book_list!N220&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N220" s="2" t="str">
+        <f>""""&amp;book_list!O220&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson10,'}}"</v>
+      </c>
       <c r="O220" s="2"/>
       <c r="P220" s="2"/>
       <c r="Q220" s="2"/>
@@ -47493,20 +49611,62 @@
       <c r="AA220" s="2"/>
     </row>
     <row r="221" spans="1:27" ht="15.75">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2"/>
-      <c r="I221" s="2"/>
-      <c r="J221" s="2"/>
-      <c r="K221" s="2"/>
-      <c r="L221" s="2"/>
-      <c r="M221" s="2"/>
-      <c r="N221" s="2"/>
+      <c r="A221" s="2" t="str">
+        <f>""""&amp;book_list!B221&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B221" s="2" t="str">
+        <f>""""&amp;book_list!C221&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C221" s="2" t="str">
+        <f>""""&amp;book_list!D221&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D221" s="2" t="str">
+        <f>""""&amp;book_list!E221&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E221" s="2" t="str">
+        <f>""""&amp;book_list!F221&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F221" s="2" t="str">
+        <f>""""&amp;book_list!G221&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G221" s="2" t="str">
+        <f>""""&amp;book_list!H221&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H221" s="2" t="str">
+        <f>""""&amp;book_list!I221&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I221" s="2" t="str">
+        <f>""""&amp;book_list!J221&amp;""""</f>
+        <v>"Bài 11"</v>
+      </c>
+      <c r="J221" s="2" t="str">
+        <f>""""&amp;book_list!K221&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K221" s="2" t="str">
+        <f>""""&amp;book_list!L221&amp;""""</f>
+        <v>"11"</v>
+      </c>
+      <c r="L221" s="2" t="str">
+        <f>""""&amp;book_list!M221&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M221" s="2" t="str">
+        <f>""""&amp;book_list!N221&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N221" s="2" t="str">
+        <f>""""&amp;book_list!O221&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson11,'}}"</v>
+      </c>
       <c r="O221" s="2"/>
       <c r="P221" s="2"/>
       <c r="Q221" s="2"/>
@@ -47522,20 +49682,62 @@
       <c r="AA221" s="2"/>
     </row>
     <row r="222" spans="1:27" ht="15.75">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
-      <c r="I222" s="2"/>
-      <c r="J222" s="2"/>
-      <c r="K222" s="2"/>
-      <c r="L222" s="2"/>
-      <c r="M222" s="2"/>
-      <c r="N222" s="2"/>
+      <c r="A222" s="2" t="str">
+        <f>""""&amp;book_list!B222&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B222" s="2" t="str">
+        <f>""""&amp;book_list!C222&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C222" s="2" t="str">
+        <f>""""&amp;book_list!D222&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D222" s="2" t="str">
+        <f>""""&amp;book_list!E222&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E222" s="2" t="str">
+        <f>""""&amp;book_list!F222&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F222" s="2" t="str">
+        <f>""""&amp;book_list!G222&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G222" s="2" t="str">
+        <f>""""&amp;book_list!H222&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H222" s="2" t="str">
+        <f>""""&amp;book_list!I222&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I222" s="2" t="str">
+        <f>""""&amp;book_list!J222&amp;""""</f>
+        <v>"Bài 12"</v>
+      </c>
+      <c r="J222" s="2" t="str">
+        <f>""""&amp;book_list!K222&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K222" s="2" t="str">
+        <f>""""&amp;book_list!L222&amp;""""</f>
+        <v>"12"</v>
+      </c>
+      <c r="L222" s="2" t="str">
+        <f>""""&amp;book_list!M222&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M222" s="2" t="str">
+        <f>""""&amp;book_list!N222&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N222" s="2" t="str">
+        <f>""""&amp;book_list!O222&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson12,'}}"</v>
+      </c>
       <c r="O222" s="2"/>
       <c r="P222" s="2"/>
       <c r="Q222" s="2"/>
@@ -47551,20 +49753,62 @@
       <c r="AA222" s="2"/>
     </row>
     <row r="223" spans="1:27" ht="15.75">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="2"/>
-      <c r="J223" s="2"/>
-      <c r="K223" s="2"/>
-      <c r="L223" s="2"/>
-      <c r="M223" s="2"/>
-      <c r="N223" s="2"/>
+      <c r="A223" s="2" t="str">
+        <f>""""&amp;book_list!B223&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B223" s="2" t="str">
+        <f>""""&amp;book_list!C223&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C223" s="2" t="str">
+        <f>""""&amp;book_list!D223&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D223" s="2" t="str">
+        <f>""""&amp;book_list!E223&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E223" s="2" t="str">
+        <f>""""&amp;book_list!F223&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F223" s="2" t="str">
+        <f>""""&amp;book_list!G223&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G223" s="2" t="str">
+        <f>""""&amp;book_list!H223&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H223" s="2" t="str">
+        <f>""""&amp;book_list!I223&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I223" s="2" t="str">
+        <f>""""&amp;book_list!J223&amp;""""</f>
+        <v>"Bài 13"</v>
+      </c>
+      <c r="J223" s="2" t="str">
+        <f>""""&amp;book_list!K223&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K223" s="2" t="str">
+        <f>""""&amp;book_list!L223&amp;""""</f>
+        <v>"13"</v>
+      </c>
+      <c r="L223" s="2" t="str">
+        <f>""""&amp;book_list!M223&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M223" s="2" t="str">
+        <f>""""&amp;book_list!N223&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N223" s="2" t="str">
+        <f>""""&amp;book_list!O223&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson13,'}}"</v>
+      </c>
       <c r="O223" s="2"/>
       <c r="P223" s="2"/>
       <c r="Q223" s="2"/>
@@ -47580,20 +49824,62 @@
       <c r="AA223" s="2"/>
     </row>
     <row r="224" spans="1:27" ht="15.75">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="2"/>
-      <c r="J224" s="2"/>
-      <c r="K224" s="2"/>
-      <c r="L224" s="2"/>
-      <c r="M224" s="2"/>
-      <c r="N224" s="2"/>
+      <c r="A224" s="2" t="str">
+        <f>""""&amp;book_list!B224&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B224" s="2" t="str">
+        <f>""""&amp;book_list!C224&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C224" s="2" t="str">
+        <f>""""&amp;book_list!D224&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D224" s="2" t="str">
+        <f>""""&amp;book_list!E224&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E224" s="2" t="str">
+        <f>""""&amp;book_list!F224&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F224" s="2" t="str">
+        <f>""""&amp;book_list!G224&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G224" s="2" t="str">
+        <f>""""&amp;book_list!H224&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H224" s="2" t="str">
+        <f>""""&amp;book_list!I224&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I224" s="2" t="str">
+        <f>""""&amp;book_list!J224&amp;""""</f>
+        <v>"Bài 14"</v>
+      </c>
+      <c r="J224" s="2" t="str">
+        <f>""""&amp;book_list!K224&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K224" s="2" t="str">
+        <f>""""&amp;book_list!L224&amp;""""</f>
+        <v>"14"</v>
+      </c>
+      <c r="L224" s="2" t="str">
+        <f>""""&amp;book_list!M224&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M224" s="2" t="str">
+        <f>""""&amp;book_list!N224&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N224" s="2" t="str">
+        <f>""""&amp;book_list!O224&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson14,'}}"</v>
+      </c>
       <c r="O224" s="2"/>
       <c r="P224" s="2"/>
       <c r="Q224" s="2"/>
@@ -47609,20 +49895,62 @@
       <c r="AA224" s="2"/>
     </row>
     <row r="225" spans="1:27" ht="15.75">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="2"/>
-      <c r="K225" s="2"/>
-      <c r="L225" s="2"/>
-      <c r="M225" s="2"/>
-      <c r="N225" s="2"/>
+      <c r="A225" s="2" t="str">
+        <f>""""&amp;book_list!B225&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B225" s="2" t="str">
+        <f>""""&amp;book_list!C225&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C225" s="2" t="str">
+        <f>""""&amp;book_list!D225&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D225" s="2" t="str">
+        <f>""""&amp;book_list!E225&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E225" s="2" t="str">
+        <f>""""&amp;book_list!F225&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F225" s="2" t="str">
+        <f>""""&amp;book_list!G225&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G225" s="2" t="str">
+        <f>""""&amp;book_list!H225&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H225" s="2" t="str">
+        <f>""""&amp;book_list!I225&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I225" s="2" t="str">
+        <f>""""&amp;book_list!J225&amp;""""</f>
+        <v>"Bài 15"</v>
+      </c>
+      <c r="J225" s="2" t="str">
+        <f>""""&amp;book_list!K225&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K225" s="2" t="str">
+        <f>""""&amp;book_list!L225&amp;""""</f>
+        <v>"15"</v>
+      </c>
+      <c r="L225" s="2" t="str">
+        <f>""""&amp;book_list!M225&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M225" s="2" t="str">
+        <f>""""&amp;book_list!N225&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N225" s="2" t="str">
+        <f>""""&amp;book_list!O225&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson15,'}}"</v>
+      </c>
       <c r="O225" s="2"/>
       <c r="P225" s="2"/>
       <c r="Q225" s="2"/>
@@ -47638,20 +49966,62 @@
       <c r="AA225" s="2"/>
     </row>
     <row r="226" spans="1:27" ht="15.75">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="2"/>
-      <c r="K226" s="2"/>
-      <c r="L226" s="2"/>
-      <c r="M226" s="2"/>
-      <c r="N226" s="2"/>
+      <c r="A226" s="2" t="str">
+        <f>""""&amp;book_list!B226&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B226" s="2" t="str">
+        <f>""""&amp;book_list!C226&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C226" s="2" t="str">
+        <f>""""&amp;book_list!D226&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D226" s="2" t="str">
+        <f>""""&amp;book_list!E226&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E226" s="2" t="str">
+        <f>""""&amp;book_list!F226&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F226" s="2" t="str">
+        <f>""""&amp;book_list!G226&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G226" s="2" t="str">
+        <f>""""&amp;book_list!H226&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H226" s="2" t="str">
+        <f>""""&amp;book_list!I226&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I226" s="2" t="str">
+        <f>""""&amp;book_list!J226&amp;""""</f>
+        <v>"Bài 16"</v>
+      </c>
+      <c r="J226" s="2" t="str">
+        <f>""""&amp;book_list!K226&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K226" s="2" t="str">
+        <f>""""&amp;book_list!L226&amp;""""</f>
+        <v>"16"</v>
+      </c>
+      <c r="L226" s="2" t="str">
+        <f>""""&amp;book_list!M226&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M226" s="2" t="str">
+        <f>""""&amp;book_list!N226&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N226" s="2" t="str">
+        <f>""""&amp;book_list!O226&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson16,'}}"</v>
+      </c>
       <c r="O226" s="2"/>
       <c r="P226" s="2"/>
       <c r="Q226" s="2"/>
@@ -47667,20 +50037,62 @@
       <c r="AA226" s="2"/>
     </row>
     <row r="227" spans="1:27" ht="15.75">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="2"/>
-      <c r="M227" s="2"/>
-      <c r="N227" s="2"/>
+      <c r="A227" s="2" t="str">
+        <f>""""&amp;book_list!B227&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B227" s="2" t="str">
+        <f>""""&amp;book_list!C227&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C227" s="2" t="str">
+        <f>""""&amp;book_list!D227&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D227" s="2" t="str">
+        <f>""""&amp;book_list!E227&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E227" s="2" t="str">
+        <f>""""&amp;book_list!F227&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F227" s="2" t="str">
+        <f>""""&amp;book_list!G227&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G227" s="2" t="str">
+        <f>""""&amp;book_list!H227&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H227" s="2" t="str">
+        <f>""""&amp;book_list!I227&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I227" s="2" t="str">
+        <f>""""&amp;book_list!J227&amp;""""</f>
+        <v>"Bài 17"</v>
+      </c>
+      <c r="J227" s="2" t="str">
+        <f>""""&amp;book_list!K227&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K227" s="2" t="str">
+        <f>""""&amp;book_list!L227&amp;""""</f>
+        <v>"17"</v>
+      </c>
+      <c r="L227" s="2" t="str">
+        <f>""""&amp;book_list!M227&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M227" s="2" t="str">
+        <f>""""&amp;book_list!N227&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N227" s="2" t="str">
+        <f>""""&amp;book_list!O227&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson17,'}}"</v>
+      </c>
       <c r="O227" s="2"/>
       <c r="P227" s="2"/>
       <c r="Q227" s="2"/>
@@ -47696,20 +50108,62 @@
       <c r="AA227" s="2"/>
     </row>
     <row r="228" spans="1:27" ht="15.75">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="2"/>
-      <c r="J228" s="2"/>
-      <c r="K228" s="2"/>
-      <c r="L228" s="2"/>
-      <c r="M228" s="2"/>
-      <c r="N228" s="2"/>
+      <c r="A228" s="2" t="str">
+        <f>""""&amp;book_list!B228&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B228" s="2" t="str">
+        <f>""""&amp;book_list!C228&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C228" s="2" t="str">
+        <f>""""&amp;book_list!D228&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D228" s="2" t="str">
+        <f>""""&amp;book_list!E228&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E228" s="2" t="str">
+        <f>""""&amp;book_list!F228&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F228" s="2" t="str">
+        <f>""""&amp;book_list!G228&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G228" s="2" t="str">
+        <f>""""&amp;book_list!H228&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H228" s="2" t="str">
+        <f>""""&amp;book_list!I228&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I228" s="2" t="str">
+        <f>""""&amp;book_list!J228&amp;""""</f>
+        <v>"Bài 18"</v>
+      </c>
+      <c r="J228" s="2" t="str">
+        <f>""""&amp;book_list!K228&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K228" s="2" t="str">
+        <f>""""&amp;book_list!L228&amp;""""</f>
+        <v>"18"</v>
+      </c>
+      <c r="L228" s="2" t="str">
+        <f>""""&amp;book_list!M228&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M228" s="2" t="str">
+        <f>""""&amp;book_list!N228&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N228" s="2" t="str">
+        <f>""""&amp;book_list!O228&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson18,'}}"</v>
+      </c>
       <c r="O228" s="2"/>
       <c r="P228" s="2"/>
       <c r="Q228" s="2"/>
@@ -47725,20 +50179,62 @@
       <c r="AA228" s="2"/>
     </row>
     <row r="229" spans="1:27" ht="15.75">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="2"/>
-      <c r="J229" s="2"/>
-      <c r="K229" s="2"/>
-      <c r="L229" s="2"/>
-      <c r="M229" s="2"/>
-      <c r="N229" s="2"/>
+      <c r="A229" s="2" t="str">
+        <f>""""&amp;book_list!B229&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B229" s="2" t="str">
+        <f>""""&amp;book_list!C229&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C229" s="2" t="str">
+        <f>""""&amp;book_list!D229&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D229" s="2" t="str">
+        <f>""""&amp;book_list!E229&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E229" s="2" t="str">
+        <f>""""&amp;book_list!F229&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F229" s="2" t="str">
+        <f>""""&amp;book_list!G229&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G229" s="2" t="str">
+        <f>""""&amp;book_list!H229&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H229" s="2" t="str">
+        <f>""""&amp;book_list!I229&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I229" s="2" t="str">
+        <f>""""&amp;book_list!J229&amp;""""</f>
+        <v>"Bài 19"</v>
+      </c>
+      <c r="J229" s="2" t="str">
+        <f>""""&amp;book_list!K229&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K229" s="2" t="str">
+        <f>""""&amp;book_list!L229&amp;""""</f>
+        <v>"19"</v>
+      </c>
+      <c r="L229" s="2" t="str">
+        <f>""""&amp;book_list!M229&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M229" s="2" t="str">
+        <f>""""&amp;book_list!N229&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N229" s="2" t="str">
+        <f>""""&amp;book_list!O229&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson19,'}}"</v>
+      </c>
       <c r="O229" s="2"/>
       <c r="P229" s="2"/>
       <c r="Q229" s="2"/>
@@ -47754,20 +50250,62 @@
       <c r="AA229" s="2"/>
     </row>
     <row r="230" spans="1:27" ht="15.75">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="2"/>
-      <c r="M230" s="2"/>
-      <c r="N230" s="2"/>
+      <c r="A230" s="2" t="str">
+        <f>""""&amp;book_list!B230&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B230" s="2" t="str">
+        <f>""""&amp;book_list!C230&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C230" s="2" t="str">
+        <f>""""&amp;book_list!D230&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D230" s="2" t="str">
+        <f>""""&amp;book_list!E230&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E230" s="2" t="str">
+        <f>""""&amp;book_list!F230&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F230" s="2" t="str">
+        <f>""""&amp;book_list!G230&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G230" s="2" t="str">
+        <f>""""&amp;book_list!H230&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H230" s="2" t="str">
+        <f>""""&amp;book_list!I230&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I230" s="2" t="str">
+        <f>""""&amp;book_list!J230&amp;""""</f>
+        <v>"Bài 20"</v>
+      </c>
+      <c r="J230" s="2" t="str">
+        <f>""""&amp;book_list!K230&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K230" s="2" t="str">
+        <f>""""&amp;book_list!L230&amp;""""</f>
+        <v>"20"</v>
+      </c>
+      <c r="L230" s="2" t="str">
+        <f>""""&amp;book_list!M230&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M230" s="2" t="str">
+        <f>""""&amp;book_list!N230&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N230" s="2" t="str">
+        <f>""""&amp;book_list!O230&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson20,'}}"</v>
+      </c>
       <c r="O230" s="2"/>
       <c r="P230" s="2"/>
       <c r="Q230" s="2"/>
@@ -47783,20 +50321,62 @@
       <c r="AA230" s="2"/>
     </row>
     <row r="231" spans="1:27" ht="15.75">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="2"/>
-      <c r="J231" s="2"/>
-      <c r="K231" s="2"/>
-      <c r="L231" s="2"/>
-      <c r="M231" s="2"/>
-      <c r="N231" s="2"/>
+      <c r="A231" s="2" t="str">
+        <f>""""&amp;book_list!B231&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B231" s="2" t="str">
+        <f>""""&amp;book_list!C231&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C231" s="2" t="str">
+        <f>""""&amp;book_list!D231&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D231" s="2" t="str">
+        <f>""""&amp;book_list!E231&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E231" s="2" t="str">
+        <f>""""&amp;book_list!F231&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F231" s="2" t="str">
+        <f>""""&amp;book_list!G231&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G231" s="2" t="str">
+        <f>""""&amp;book_list!H231&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H231" s="2" t="str">
+        <f>""""&amp;book_list!I231&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I231" s="2" t="str">
+        <f>""""&amp;book_list!J231&amp;""""</f>
+        <v>"Bài 21"</v>
+      </c>
+      <c r="J231" s="2" t="str">
+        <f>""""&amp;book_list!K231&amp;""""</f>
+        <v>"Ngữ pháp"</v>
+      </c>
+      <c r="K231" s="2" t="str">
+        <f>""""&amp;book_list!L231&amp;""""</f>
+        <v>"21"</v>
+      </c>
+      <c r="L231" s="2" t="str">
+        <f>""""&amp;book_list!M231&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="M231" s="2" t="str">
+        <f>""""&amp;book_list!N231&amp;""""</f>
+        <v>"grammar"</v>
+      </c>
+      <c r="N231" s="2" t="str">
+        <f>""""&amp;book_list!O231&amp;""""</f>
+        <v>"{'level': 'N2', 'tag' : {'contains':',173nguphapn2,lesson21,'}}"</v>
+      </c>
       <c r="O231" s="2"/>
       <c r="P231" s="2"/>
       <c r="Q231" s="2"/>
@@ -70113,7 +72693,7 @@
       <c r="AA1000" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/work/Book_list.xlsx
+++ b/work/Book_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="12120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="12120" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="book_list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="239">
   <si>
     <t>No</t>
   </si>
@@ -237,6 +237,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>est</t>
     </r>
@@ -480,6 +481,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -497,6 +499,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,'}}</t>
     </r>
@@ -520,6 +523,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -537,6 +541,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -559,6 +564,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -576,6 +582,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -598,6 +605,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -615,6 +623,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -637,6 +646,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -654,6 +664,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -676,6 +687,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -693,6 +705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -715,6 +728,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -732,6 +746,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -754,6 +769,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -771,6 +787,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -793,6 +810,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -810,6 +828,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -832,6 +851,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -849,6 +869,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -871,6 +892,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -888,6 +910,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -910,6 +933,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -927,6 +951,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -949,6 +974,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -966,6 +992,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -988,6 +1015,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -1005,6 +1033,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -1027,6 +1056,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -1044,6 +1074,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -1066,6 +1097,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -1083,6 +1115,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -1105,6 +1138,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -1122,6 +1156,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -1144,6 +1179,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -1161,6 +1197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -1183,6 +1220,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -1200,6 +1238,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -1222,6 +1261,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -1239,6 +1279,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -1261,6 +1302,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>,lesson</t>
     </r>
@@ -1278,6 +1320,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t/>
     </r>
@@ -1761,6 +1804,1530 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>Kanji N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>Kanji N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dựa theo chuẩn của JLPT</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson1,'}}</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson2,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson3,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson4,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson5,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson6,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson7,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson8,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson9,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson10,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson11,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson12,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson13,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson14,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson15,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson16,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson17,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson18,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson19,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson20,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson21,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson22,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson23,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson24,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson25,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson26,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson27,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson28,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson29,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson30,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Kanji N5</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>Kanji N5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dựa theo chuẩn của JLPT</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>N5</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson1,'}}</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson2,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson3,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson4,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson5,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson6,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson7,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson8,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson9,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson10,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson11,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson12,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson13,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson14,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson15,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson16,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'level': 'N5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'tag' : {'contains':',jlptkanji,lesson17,'}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Kanji N3</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Kanji N3 dựa theo chuẩn của JLPT</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>N3</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson1,'}}</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson2,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson3,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson4,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson5,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson6,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson7,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson8,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson9,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson10,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson11,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson12,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson13,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson14,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson15,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson16,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson17,'}}</t>
+  </si>
+  <si>
+    <t>{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson18,'}}</t>
   </si>
 </sst>
 </file>
@@ -2301,11 +3868,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B270" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="G290" sqref="G290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -10243,7 +11810,7 @@
         <v>12</v>
       </c>
       <c r="O181" s="2" t="str">
-        <f t="shared" ref="O181:O211" si="8">"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L181&amp;",'}}"</f>
+        <f t="shared" ref="O181:O210" si="8">"{'level': 'N3', 'tag' : {'contains':',tap3,lesson"&amp;L181&amp;",'}}"</f>
         <v>{'level': 'N3', 'tag' : {'contains':',tap3,lesson1,'}}</v>
       </c>
       <c r="P181" s="2"/>
@@ -12433,21 +14000,47 @@
       <c r="Z231" s="2"/>
     </row>
     <row r="232" spans="1:26" ht="15.75">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
+      <c r="A232" s="2">
+        <v>232</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E232" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F232" s="2">
+        <v>30</v>
+      </c>
+      <c r="G232" s="2">
+        <v>30</v>
+      </c>
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
-      <c r="J232" s="2"/>
-      <c r="K232" s="2"/>
-      <c r="L232" s="2"/>
-      <c r="M232" s="2"/>
-      <c r="N232" s="2"/>
-      <c r="O232" s="2"/>
+      <c r="J232" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K232" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L232" s="2">
+        <v>1</v>
+      </c>
+      <c r="M232" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N232" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O232" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="P232" s="2"/>
       <c r="Q232" s="2"/>
       <c r="R232" s="2"/>
@@ -12461,7 +14054,9 @@
       <c r="Z232" s="2"/>
     </row>
     <row r="233" spans="1:26" ht="15.75">
-      <c r="A233" s="2"/>
+      <c r="A233" s="2">
+        <v>233</v>
+      </c>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -12470,12 +14065,24 @@
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
-      <c r="J233" s="2"/>
-      <c r="K233" s="2"/>
-      <c r="L233" s="2"/>
-      <c r="M233" s="2"/>
-      <c r="N233" s="2"/>
-      <c r="O233" s="2"/>
+      <c r="J233" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K233" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L233" s="2">
+        <v>2</v>
+      </c>
+      <c r="M233" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N233" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O233" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="P233" s="2"/>
       <c r="Q233" s="2"/>
       <c r="R233" s="2"/>
@@ -12489,7 +14096,9 @@
       <c r="Z233" s="2"/>
     </row>
     <row r="234" spans="1:26" ht="15.75">
-      <c r="A234" s="2"/>
+      <c r="A234" s="2">
+        <v>234</v>
+      </c>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -12498,12 +14107,24 @@
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
-      <c r="J234" s="2"/>
-      <c r="K234" s="2"/>
-      <c r="L234" s="2"/>
-      <c r="M234" s="2"/>
-      <c r="N234" s="2"/>
-      <c r="O234" s="2"/>
+      <c r="J234" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K234" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L234" s="2">
+        <v>3</v>
+      </c>
+      <c r="M234" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N234" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O234" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="P234" s="2"/>
       <c r="Q234" s="2"/>
       <c r="R234" s="2"/>
@@ -12517,7 +14138,9 @@
       <c r="Z234" s="2"/>
     </row>
     <row r="235" spans="1:26" ht="15.75">
-      <c r="A235" s="2"/>
+      <c r="A235" s="2">
+        <v>235</v>
+      </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -12526,12 +14149,24 @@
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
       <c r="I235" s="2"/>
-      <c r="J235" s="2"/>
-      <c r="K235" s="2"/>
-      <c r="L235" s="2"/>
-      <c r="M235" s="2"/>
-      <c r="N235" s="2"/>
-      <c r="O235" s="2"/>
+      <c r="J235" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K235" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L235" s="2">
+        <v>4</v>
+      </c>
+      <c r="M235" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N235" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O235" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="P235" s="2"/>
       <c r="Q235" s="2"/>
       <c r="R235" s="2"/>
@@ -12545,7 +14180,9 @@
       <c r="Z235" s="2"/>
     </row>
     <row r="236" spans="1:26" ht="15.75">
-      <c r="A236" s="2"/>
+      <c r="A236" s="2">
+        <v>236</v>
+      </c>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -12554,12 +14191,24 @@
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
-      <c r="J236" s="2"/>
-      <c r="K236" s="2"/>
-      <c r="L236" s="2"/>
-      <c r="M236" s="2"/>
-      <c r="N236" s="2"/>
-      <c r="O236" s="2"/>
+      <c r="J236" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K236" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L236" s="2">
+        <v>5</v>
+      </c>
+      <c r="M236" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N236" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O236" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="P236" s="2"/>
       <c r="Q236" s="2"/>
       <c r="R236" s="2"/>
@@ -12573,7 +14222,9 @@
       <c r="Z236" s="2"/>
     </row>
     <row r="237" spans="1:26" ht="15.75">
-      <c r="A237" s="2"/>
+      <c r="A237" s="2">
+        <v>237</v>
+      </c>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -12582,12 +14233,24 @@
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
       <c r="I237" s="2"/>
-      <c r="J237" s="2"/>
-      <c r="K237" s="2"/>
-      <c r="L237" s="2"/>
-      <c r="M237" s="2"/>
-      <c r="N237" s="2"/>
-      <c r="O237" s="2"/>
+      <c r="J237" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K237" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L237" s="2">
+        <v>6</v>
+      </c>
+      <c r="M237" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N237" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O237" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="P237" s="2"/>
       <c r="Q237" s="2"/>
       <c r="R237" s="2"/>
@@ -12601,7 +14264,9 @@
       <c r="Z237" s="2"/>
     </row>
     <row r="238" spans="1:26" ht="15.75">
-      <c r="A238" s="2"/>
+      <c r="A238" s="2">
+        <v>238</v>
+      </c>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -12610,12 +14275,24 @@
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
       <c r="I238" s="2"/>
-      <c r="J238" s="2"/>
-      <c r="K238" s="2"/>
-      <c r="L238" s="2"/>
-      <c r="M238" s="2"/>
-      <c r="N238" s="2"/>
-      <c r="O238" s="2"/>
+      <c r="J238" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K238" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L238" s="2">
+        <v>7</v>
+      </c>
+      <c r="M238" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N238" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O238" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="P238" s="2"/>
       <c r="Q238" s="2"/>
       <c r="R238" s="2"/>
@@ -12629,7 +14306,9 @@
       <c r="Z238" s="2"/>
     </row>
     <row r="239" spans="1:26" ht="15.75">
-      <c r="A239" s="2"/>
+      <c r="A239" s="2">
+        <v>239</v>
+      </c>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -12638,12 +14317,24 @@
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
-      <c r="J239" s="2"/>
-      <c r="K239" s="2"/>
-      <c r="L239" s="2"/>
-      <c r="M239" s="2"/>
-      <c r="N239" s="2"/>
-      <c r="O239" s="2"/>
+      <c r="J239" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K239" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L239" s="2">
+        <v>8</v>
+      </c>
+      <c r="M239" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N239" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O239" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="P239" s="2"/>
       <c r="Q239" s="2"/>
       <c r="R239" s="2"/>
@@ -12657,7 +14348,9 @@
       <c r="Z239" s="2"/>
     </row>
     <row r="240" spans="1:26" ht="15.75">
-      <c r="A240" s="2"/>
+      <c r="A240" s="2">
+        <v>240</v>
+      </c>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -12666,12 +14359,24 @@
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
-      <c r="J240" s="2"/>
-      <c r="K240" s="2"/>
-      <c r="L240" s="2"/>
-      <c r="M240" s="2"/>
-      <c r="N240" s="2"/>
-      <c r="O240" s="2"/>
+      <c r="J240" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K240" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L240" s="2">
+        <v>9</v>
+      </c>
+      <c r="M240" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N240" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O240" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="P240" s="2"/>
       <c r="Q240" s="2"/>
       <c r="R240" s="2"/>
@@ -12685,7 +14390,9 @@
       <c r="Z240" s="2"/>
     </row>
     <row r="241" spans="1:26" ht="15.75">
-      <c r="A241" s="2"/>
+      <c r="A241" s="2">
+        <v>241</v>
+      </c>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -12694,12 +14401,24 @@
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
       <c r="I241" s="2"/>
-      <c r="J241" s="2"/>
-      <c r="K241" s="2"/>
-      <c r="L241" s="2"/>
-      <c r="M241" s="2"/>
-      <c r="N241" s="2"/>
-      <c r="O241" s="2"/>
+      <c r="J241" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K241" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L241" s="2">
+        <v>10</v>
+      </c>
+      <c r="M241" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N241" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O241" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="P241" s="2"/>
       <c r="Q241" s="2"/>
       <c r="R241" s="2"/>
@@ -12713,7 +14432,9 @@
       <c r="Z241" s="2"/>
     </row>
     <row r="242" spans="1:26" ht="15.75">
-      <c r="A242" s="2"/>
+      <c r="A242" s="2">
+        <v>242</v>
+      </c>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -12722,12 +14443,24 @@
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
       <c r="I242" s="2"/>
-      <c r="J242" s="2"/>
-      <c r="K242" s="2"/>
-      <c r="L242" s="2"/>
-      <c r="M242" s="2"/>
-      <c r="N242" s="2"/>
-      <c r="O242" s="2"/>
+      <c r="J242" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K242" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L242" s="2">
+        <v>11</v>
+      </c>
+      <c r="M242" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N242" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O242" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="P242" s="2"/>
       <c r="Q242" s="2"/>
       <c r="R242" s="2"/>
@@ -12741,7 +14474,9 @@
       <c r="Z242" s="2"/>
     </row>
     <row r="243" spans="1:26" ht="15.75">
-      <c r="A243" s="2"/>
+      <c r="A243" s="2">
+        <v>243</v>
+      </c>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -12750,12 +14485,24 @@
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
       <c r="I243" s="2"/>
-      <c r="J243" s="2"/>
-      <c r="K243" s="2"/>
-      <c r="L243" s="2"/>
-      <c r="M243" s="2"/>
-      <c r="N243" s="2"/>
-      <c r="O243" s="2"/>
+      <c r="J243" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K243" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L243" s="2">
+        <v>12</v>
+      </c>
+      <c r="M243" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N243" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O243" s="7" t="s">
+        <v>179</v>
+      </c>
       <c r="P243" s="2"/>
       <c r="Q243" s="2"/>
       <c r="R243" s="2"/>
@@ -12769,7 +14516,9 @@
       <c r="Z243" s="2"/>
     </row>
     <row r="244" spans="1:26" ht="15.75">
-      <c r="A244" s="2"/>
+      <c r="A244" s="2">
+        <v>244</v>
+      </c>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -12778,12 +14527,24 @@
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
       <c r="I244" s="2"/>
-      <c r="J244" s="2"/>
-      <c r="K244" s="2"/>
-      <c r="L244" s="2"/>
-      <c r="M244" s="2"/>
-      <c r="N244" s="2"/>
-      <c r="O244" s="2"/>
+      <c r="J244" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K244" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L244" s="2">
+        <v>13</v>
+      </c>
+      <c r="M244" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N244" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O244" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="P244" s="2"/>
       <c r="Q244" s="2"/>
       <c r="R244" s="2"/>
@@ -12797,7 +14558,9 @@
       <c r="Z244" s="2"/>
     </row>
     <row r="245" spans="1:26" ht="15.75">
-      <c r="A245" s="2"/>
+      <c r="A245" s="2">
+        <v>245</v>
+      </c>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -12806,12 +14569,24 @@
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
       <c r="I245" s="2"/>
-      <c r="J245" s="2"/>
-      <c r="K245" s="2"/>
-      <c r="L245" s="2"/>
-      <c r="M245" s="2"/>
-      <c r="N245" s="2"/>
-      <c r="O245" s="2"/>
+      <c r="J245" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K245" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L245" s="2">
+        <v>14</v>
+      </c>
+      <c r="M245" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N245" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O245" s="7" t="s">
+        <v>181</v>
+      </c>
       <c r="P245" s="2"/>
       <c r="Q245" s="2"/>
       <c r="R245" s="2"/>
@@ -12825,7 +14600,9 @@
       <c r="Z245" s="2"/>
     </row>
     <row r="246" spans="1:26" ht="15.75">
-      <c r="A246" s="2"/>
+      <c r="A246" s="2">
+        <v>246</v>
+      </c>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -12834,12 +14611,24 @@
       <c r="G246" s="2"/>
       <c r="H246" s="2"/>
       <c r="I246" s="2"/>
-      <c r="J246" s="2"/>
-      <c r="K246" s="2"/>
-      <c r="L246" s="2"/>
-      <c r="M246" s="2"/>
-      <c r="N246" s="2"/>
-      <c r="O246" s="2"/>
+      <c r="J246" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K246" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L246" s="2">
+        <v>15</v>
+      </c>
+      <c r="M246" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N246" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O246" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="P246" s="2"/>
       <c r="Q246" s="2"/>
       <c r="R246" s="2"/>
@@ -12853,7 +14642,9 @@
       <c r="Z246" s="2"/>
     </row>
     <row r="247" spans="1:26" ht="15.75">
-      <c r="A247" s="2"/>
+      <c r="A247" s="2">
+        <v>247</v>
+      </c>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -12862,12 +14653,24 @@
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
       <c r="I247" s="2"/>
-      <c r="J247" s="2"/>
-      <c r="K247" s="2"/>
-      <c r="L247" s="2"/>
-      <c r="M247" s="2"/>
-      <c r="N247" s="2"/>
-      <c r="O247" s="2"/>
+      <c r="J247" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K247" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L247" s="2">
+        <v>16</v>
+      </c>
+      <c r="M247" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N247" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O247" s="7" t="s">
+        <v>183</v>
+      </c>
       <c r="P247" s="2"/>
       <c r="Q247" s="2"/>
       <c r="R247" s="2"/>
@@ -12881,7 +14684,9 @@
       <c r="Z247" s="2"/>
     </row>
     <row r="248" spans="1:26" ht="15.75">
-      <c r="A248" s="2"/>
+      <c r="A248" s="2">
+        <v>248</v>
+      </c>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -12890,12 +14695,24 @@
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
       <c r="I248" s="2"/>
-      <c r="J248" s="2"/>
-      <c r="K248" s="2"/>
-      <c r="L248" s="2"/>
-      <c r="M248" s="2"/>
-      <c r="N248" s="2"/>
-      <c r="O248" s="2"/>
+      <c r="J248" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K248" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L248" s="2">
+        <v>17</v>
+      </c>
+      <c r="M248" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N248" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O248" s="7" t="s">
+        <v>184</v>
+      </c>
       <c r="P248" s="2"/>
       <c r="Q248" s="2"/>
       <c r="R248" s="2"/>
@@ -12909,7 +14726,9 @@
       <c r="Z248" s="2"/>
     </row>
     <row r="249" spans="1:26" ht="15.75">
-      <c r="A249" s="2"/>
+      <c r="A249" s="2">
+        <v>249</v>
+      </c>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -12918,12 +14737,24 @@
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
       <c r="I249" s="2"/>
-      <c r="J249" s="2"/>
-      <c r="K249" s="2"/>
-      <c r="L249" s="2"/>
-      <c r="M249" s="2"/>
-      <c r="N249" s="2"/>
-      <c r="O249" s="2"/>
+      <c r="J249" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K249" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L249" s="2">
+        <v>18</v>
+      </c>
+      <c r="M249" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N249" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O249" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="P249" s="2"/>
       <c r="Q249" s="2"/>
       <c r="R249" s="2"/>
@@ -12937,7 +14768,9 @@
       <c r="Z249" s="2"/>
     </row>
     <row r="250" spans="1:26" ht="15.75">
-      <c r="A250" s="2"/>
+      <c r="A250" s="2">
+        <v>250</v>
+      </c>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
@@ -12946,12 +14779,24 @@
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
       <c r="I250" s="2"/>
-      <c r="J250" s="2"/>
-      <c r="K250" s="2"/>
-      <c r="L250" s="2"/>
-      <c r="M250" s="2"/>
-      <c r="N250" s="2"/>
-      <c r="O250" s="2"/>
+      <c r="J250" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K250" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L250" s="2">
+        <v>19</v>
+      </c>
+      <c r="M250" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N250" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O250" s="7" t="s">
+        <v>186</v>
+      </c>
       <c r="P250" s="2"/>
       <c r="Q250" s="2"/>
       <c r="R250" s="2"/>
@@ -12965,7 +14810,9 @@
       <c r="Z250" s="2"/>
     </row>
     <row r="251" spans="1:26" ht="15.75">
-      <c r="A251" s="2"/>
+      <c r="A251" s="2">
+        <v>251</v>
+      </c>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
@@ -12974,12 +14821,24 @@
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
       <c r="I251" s="2"/>
-      <c r="J251" s="2"/>
-      <c r="K251" s="2"/>
-      <c r="L251" s="2"/>
-      <c r="M251" s="2"/>
-      <c r="N251" s="2"/>
-      <c r="O251" s="2"/>
+      <c r="J251" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K251" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L251" s="2">
+        <v>20</v>
+      </c>
+      <c r="M251" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N251" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O251" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="P251" s="2"/>
       <c r="Q251" s="2"/>
       <c r="R251" s="2"/>
@@ -12993,7 +14852,9 @@
       <c r="Z251" s="2"/>
     </row>
     <row r="252" spans="1:26" ht="15.75">
-      <c r="A252" s="2"/>
+      <c r="A252" s="2">
+        <v>252</v>
+      </c>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -13002,12 +14863,24 @@
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
       <c r="I252" s="2"/>
-      <c r="J252" s="2"/>
-      <c r="K252" s="2"/>
-      <c r="L252" s="2"/>
-      <c r="M252" s="2"/>
-      <c r="N252" s="2"/>
-      <c r="O252" s="2"/>
+      <c r="J252" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K252" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L252" s="2">
+        <v>21</v>
+      </c>
+      <c r="M252" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N252" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O252" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="P252" s="2"/>
       <c r="Q252" s="2"/>
       <c r="R252" s="2"/>
@@ -13021,7 +14894,9 @@
       <c r="Z252" s="2"/>
     </row>
     <row r="253" spans="1:26" ht="15.75">
-      <c r="A253" s="2"/>
+      <c r="A253" s="2">
+        <v>253</v>
+      </c>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
@@ -13030,12 +14905,24 @@
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
       <c r="I253" s="2"/>
-      <c r="J253" s="2"/>
-      <c r="K253" s="2"/>
-      <c r="L253" s="2"/>
-      <c r="M253" s="2"/>
-      <c r="N253" s="2"/>
-      <c r="O253" s="2"/>
+      <c r="J253" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K253" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L253" s="2">
+        <v>22</v>
+      </c>
+      <c r="M253" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N253" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O253" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="P253" s="2"/>
       <c r="Q253" s="2"/>
       <c r="R253" s="2"/>
@@ -13049,7 +14936,9 @@
       <c r="Z253" s="2"/>
     </row>
     <row r="254" spans="1:26" ht="15.75">
-      <c r="A254" s="2"/>
+      <c r="A254" s="2">
+        <v>254</v>
+      </c>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
@@ -13058,12 +14947,24 @@
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
       <c r="I254" s="2"/>
-      <c r="J254" s="2"/>
-      <c r="K254" s="2"/>
-      <c r="L254" s="2"/>
-      <c r="M254" s="2"/>
-      <c r="N254" s="2"/>
-      <c r="O254" s="2"/>
+      <c r="J254" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K254" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L254" s="2">
+        <v>23</v>
+      </c>
+      <c r="M254" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N254" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O254" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="P254" s="2"/>
       <c r="Q254" s="2"/>
       <c r="R254" s="2"/>
@@ -13077,7 +14978,9 @@
       <c r="Z254" s="2"/>
     </row>
     <row r="255" spans="1:26" ht="15.75">
-      <c r="A255" s="2"/>
+      <c r="A255" s="2">
+        <v>255</v>
+      </c>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
@@ -13086,12 +14989,24 @@
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
       <c r="I255" s="2"/>
-      <c r="J255" s="2"/>
-      <c r="K255" s="2"/>
-      <c r="L255" s="2"/>
-      <c r="M255" s="2"/>
-      <c r="N255" s="2"/>
-      <c r="O255" s="2"/>
+      <c r="J255" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K255" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L255" s="2">
+        <v>24</v>
+      </c>
+      <c r="M255" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N255" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O255" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="P255" s="2"/>
       <c r="Q255" s="2"/>
       <c r="R255" s="2"/>
@@ -13105,7 +15020,9 @@
       <c r="Z255" s="2"/>
     </row>
     <row r="256" spans="1:26" ht="15.75">
-      <c r="A256" s="2"/>
+      <c r="A256" s="2">
+        <v>256</v>
+      </c>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -13114,12 +15031,24 @@
       <c r="G256" s="2"/>
       <c r="H256" s="2"/>
       <c r="I256" s="2"/>
-      <c r="J256" s="2"/>
-      <c r="K256" s="2"/>
-      <c r="L256" s="2"/>
-      <c r="M256" s="2"/>
-      <c r="N256" s="2"/>
-      <c r="O256" s="2"/>
+      <c r="J256" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K256" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L256" s="2">
+        <v>25</v>
+      </c>
+      <c r="M256" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N256" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O256" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="P256" s="2"/>
       <c r="Q256" s="2"/>
       <c r="R256" s="2"/>
@@ -13133,7 +15062,9 @@
       <c r="Z256" s="2"/>
     </row>
     <row r="257" spans="1:26" ht="15.75">
-      <c r="A257" s="2"/>
+      <c r="A257" s="2">
+        <v>257</v>
+      </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
@@ -13142,12 +15073,24 @@
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
       <c r="I257" s="2"/>
-      <c r="J257" s="2"/>
-      <c r="K257" s="2"/>
-      <c r="L257" s="2"/>
-      <c r="M257" s="2"/>
-      <c r="N257" s="2"/>
-      <c r="O257" s="2"/>
+      <c r="J257" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K257" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L257" s="2">
+        <v>26</v>
+      </c>
+      <c r="M257" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N257" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O257" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="P257" s="2"/>
       <c r="Q257" s="2"/>
       <c r="R257" s="2"/>
@@ -13161,7 +15104,9 @@
       <c r="Z257" s="2"/>
     </row>
     <row r="258" spans="1:26" ht="15.75">
-      <c r="A258" s="2"/>
+      <c r="A258" s="2">
+        <v>258</v>
+      </c>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -13170,12 +15115,24 @@
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
       <c r="I258" s="2"/>
-      <c r="J258" s="2"/>
-      <c r="K258" s="2"/>
-      <c r="L258" s="2"/>
-      <c r="M258" s="2"/>
-      <c r="N258" s="2"/>
-      <c r="O258" s="2"/>
+      <c r="J258" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K258" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L258" s="2">
+        <v>27</v>
+      </c>
+      <c r="M258" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N258" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O258" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="P258" s="2"/>
       <c r="Q258" s="2"/>
       <c r="R258" s="2"/>
@@ -13189,7 +15146,9 @@
       <c r="Z258" s="2"/>
     </row>
     <row r="259" spans="1:26" ht="15.75">
-      <c r="A259" s="2"/>
+      <c r="A259" s="2">
+        <v>259</v>
+      </c>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -13198,12 +15157,24 @@
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="I259" s="2"/>
-      <c r="J259" s="2"/>
-      <c r="K259" s="2"/>
-      <c r="L259" s="2"/>
-      <c r="M259" s="2"/>
-      <c r="N259" s="2"/>
-      <c r="O259" s="2"/>
+      <c r="J259" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K259" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L259" s="2">
+        <v>28</v>
+      </c>
+      <c r="M259" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N259" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O259" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="P259" s="2"/>
       <c r="Q259" s="2"/>
       <c r="R259" s="2"/>
@@ -13217,7 +15188,9 @@
       <c r="Z259" s="2"/>
     </row>
     <row r="260" spans="1:26" ht="15.75">
-      <c r="A260" s="2"/>
+      <c r="A260" s="2">
+        <v>260</v>
+      </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -13226,12 +15199,24 @@
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
       <c r="I260" s="2"/>
-      <c r="J260" s="2"/>
-      <c r="K260" s="2"/>
-      <c r="L260" s="2"/>
-      <c r="M260" s="2"/>
-      <c r="N260" s="2"/>
-      <c r="O260" s="2"/>
+      <c r="J260" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K260" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L260" s="2">
+        <v>29</v>
+      </c>
+      <c r="M260" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N260" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O260" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
       <c r="R260" s="2"/>
@@ -13245,7 +15230,9 @@
       <c r="Z260" s="2"/>
     </row>
     <row r="261" spans="1:26" ht="15.75">
-      <c r="A261" s="2"/>
+      <c r="A261" s="2">
+        <v>261</v>
+      </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
@@ -13254,12 +15241,24 @@
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
       <c r="I261" s="2"/>
-      <c r="J261" s="2"/>
-      <c r="K261" s="2"/>
-      <c r="L261" s="2"/>
-      <c r="M261" s="2"/>
-      <c r="N261" s="2"/>
-      <c r="O261" s="2"/>
+      <c r="J261" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K261" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L261" s="2">
+        <v>30</v>
+      </c>
+      <c r="M261" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N261" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O261" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
       <c r="R261" s="2"/>
@@ -13273,21 +15272,47 @@
       <c r="Z261" s="2"/>
     </row>
     <row r="262" spans="1:26" ht="15.75">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
-      <c r="G262" s="2"/>
+      <c r="A262" s="2">
+        <v>262</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E262" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F262" s="2">
+        <v>17</v>
+      </c>
+      <c r="G262" s="2">
+        <v>17</v>
+      </c>
       <c r="H262" s="2"/>
       <c r="I262" s="2"/>
-      <c r="J262" s="2"/>
-      <c r="K262" s="2"/>
-      <c r="L262" s="2"/>
-      <c r="M262" s="2"/>
-      <c r="N262" s="2"/>
-      <c r="O262" s="2"/>
+      <c r="J262" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K262" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L262" s="2">
+        <v>1</v>
+      </c>
+      <c r="M262" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N262" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O262" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
       <c r="R262" s="2"/>
@@ -13301,7 +15326,9 @@
       <c r="Z262" s="2"/>
     </row>
     <row r="263" spans="1:26" ht="15.75">
-      <c r="A263" s="2"/>
+      <c r="A263" s="2">
+        <v>263</v>
+      </c>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
@@ -13310,12 +15337,24 @@
       <c r="G263" s="2"/>
       <c r="H263" s="2"/>
       <c r="I263" s="2"/>
-      <c r="J263" s="2"/>
-      <c r="K263" s="2"/>
-      <c r="L263" s="2"/>
-      <c r="M263" s="2"/>
-      <c r="N263" s="2"/>
-      <c r="O263" s="2"/>
+      <c r="J263" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K263" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L263" s="2">
+        <v>2</v>
+      </c>
+      <c r="M263" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N263" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O263" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
       <c r="R263" s="2"/>
@@ -13329,7 +15368,9 @@
       <c r="Z263" s="2"/>
     </row>
     <row r="264" spans="1:26" ht="15.75">
-      <c r="A264" s="2"/>
+      <c r="A264" s="2">
+        <v>264</v>
+      </c>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
@@ -13338,12 +15379,24 @@
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
       <c r="I264" s="2"/>
-      <c r="J264" s="2"/>
-      <c r="K264" s="2"/>
-      <c r="L264" s="2"/>
-      <c r="M264" s="2"/>
-      <c r="N264" s="2"/>
-      <c r="O264" s="2"/>
+      <c r="J264" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K264" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L264" s="2">
+        <v>3</v>
+      </c>
+      <c r="M264" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N264" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O264" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
       <c r="R264" s="2"/>
@@ -13357,7 +15410,9 @@
       <c r="Z264" s="2"/>
     </row>
     <row r="265" spans="1:26" ht="15.75">
-      <c r="A265" s="2"/>
+      <c r="A265" s="2">
+        <v>265</v>
+      </c>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
@@ -13366,12 +15421,24 @@
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
       <c r="I265" s="2"/>
-      <c r="J265" s="2"/>
-      <c r="K265" s="2"/>
-      <c r="L265" s="2"/>
-      <c r="M265" s="2"/>
-      <c r="N265" s="2"/>
-      <c r="O265" s="2"/>
+      <c r="J265" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K265" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L265" s="2">
+        <v>4</v>
+      </c>
+      <c r="M265" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N265" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O265" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
       <c r="R265" s="2"/>
@@ -13385,7 +15452,9 @@
       <c r="Z265" s="2"/>
     </row>
     <row r="266" spans="1:26" ht="15.75">
-      <c r="A266" s="2"/>
+      <c r="A266" s="2">
+        <v>266</v>
+      </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
@@ -13394,12 +15463,24 @@
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
       <c r="I266" s="2"/>
-      <c r="J266" s="2"/>
-      <c r="K266" s="2"/>
-      <c r="L266" s="2"/>
-      <c r="M266" s="2"/>
-      <c r="N266" s="2"/>
-      <c r="O266" s="2"/>
+      <c r="J266" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K266" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L266" s="2">
+        <v>5</v>
+      </c>
+      <c r="M266" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N266" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O266" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
       <c r="R266" s="2"/>
@@ -13413,7 +15494,9 @@
       <c r="Z266" s="2"/>
     </row>
     <row r="267" spans="1:26" ht="15.75">
-      <c r="A267" s="2"/>
+      <c r="A267" s="2">
+        <v>267</v>
+      </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
@@ -13422,12 +15505,24 @@
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
       <c r="I267" s="2"/>
-      <c r="J267" s="2"/>
-      <c r="K267" s="2"/>
-      <c r="L267" s="2"/>
-      <c r="M267" s="2"/>
-      <c r="N267" s="2"/>
-      <c r="O267" s="2"/>
+      <c r="J267" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K267" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L267" s="2">
+        <v>6</v>
+      </c>
+      <c r="M267" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N267" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O267" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
       <c r="R267" s="2"/>
@@ -13441,7 +15536,9 @@
       <c r="Z267" s="2"/>
     </row>
     <row r="268" spans="1:26" ht="15.75">
-      <c r="A268" s="2"/>
+      <c r="A268" s="2">
+        <v>268</v>
+      </c>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
@@ -13450,12 +15547,24 @@
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
       <c r="I268" s="2"/>
-      <c r="J268" s="2"/>
-      <c r="K268" s="2"/>
-      <c r="L268" s="2"/>
-      <c r="M268" s="2"/>
-      <c r="N268" s="2"/>
-      <c r="O268" s="2"/>
+      <c r="J268" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K268" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L268" s="2">
+        <v>7</v>
+      </c>
+      <c r="M268" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N268" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O268" s="7" t="s">
+        <v>207</v>
+      </c>
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
       <c r="R268" s="2"/>
@@ -13469,7 +15578,9 @@
       <c r="Z268" s="2"/>
     </row>
     <row r="269" spans="1:26" ht="15.75">
-      <c r="A269" s="2"/>
+      <c r="A269" s="2">
+        <v>269</v>
+      </c>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
@@ -13478,12 +15589,24 @@
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
       <c r="I269" s="2"/>
-      <c r="J269" s="2"/>
-      <c r="K269" s="2"/>
-      <c r="L269" s="2"/>
-      <c r="M269" s="2"/>
-      <c r="N269" s="2"/>
-      <c r="O269" s="2"/>
+      <c r="J269" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K269" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L269" s="2">
+        <v>8</v>
+      </c>
+      <c r="M269" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N269" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O269" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
       <c r="R269" s="2"/>
@@ -13497,7 +15620,9 @@
       <c r="Z269" s="2"/>
     </row>
     <row r="270" spans="1:26" ht="15.75">
-      <c r="A270" s="2"/>
+      <c r="A270" s="2">
+        <v>270</v>
+      </c>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -13506,12 +15631,24 @@
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
       <c r="I270" s="2"/>
-      <c r="J270" s="2"/>
-      <c r="K270" s="2"/>
-      <c r="L270" s="2"/>
-      <c r="M270" s="2"/>
-      <c r="N270" s="2"/>
-      <c r="O270" s="2"/>
+      <c r="J270" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K270" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L270" s="2">
+        <v>9</v>
+      </c>
+      <c r="M270" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N270" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O270" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
       <c r="R270" s="2"/>
@@ -13525,7 +15662,9 @@
       <c r="Z270" s="2"/>
     </row>
     <row r="271" spans="1:26" ht="15.75">
-      <c r="A271" s="2"/>
+      <c r="A271" s="2">
+        <v>271</v>
+      </c>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
@@ -13534,12 +15673,24 @@
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
       <c r="I271" s="2"/>
-      <c r="J271" s="2"/>
-      <c r="K271" s="2"/>
-      <c r="L271" s="2"/>
-      <c r="M271" s="2"/>
-      <c r="N271" s="2"/>
-      <c r="O271" s="2"/>
+      <c r="J271" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K271" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L271" s="2">
+        <v>10</v>
+      </c>
+      <c r="M271" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N271" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O271" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
       <c r="R271" s="2"/>
@@ -13553,7 +15704,9 @@
       <c r="Z271" s="2"/>
     </row>
     <row r="272" spans="1:26" ht="15.75">
-      <c r="A272" s="2"/>
+      <c r="A272" s="2">
+        <v>272</v>
+      </c>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
@@ -13562,12 +15715,24 @@
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
       <c r="I272" s="2"/>
-      <c r="J272" s="2"/>
-      <c r="K272" s="2"/>
-      <c r="L272" s="2"/>
-      <c r="M272" s="2"/>
-      <c r="N272" s="2"/>
-      <c r="O272" s="2"/>
+      <c r="J272" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K272" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L272" s="2">
+        <v>11</v>
+      </c>
+      <c r="M272" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N272" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O272" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>
       <c r="R272" s="2"/>
@@ -13581,7 +15746,9 @@
       <c r="Z272" s="2"/>
     </row>
     <row r="273" spans="1:26" ht="15.75">
-      <c r="A273" s="2"/>
+      <c r="A273" s="2">
+        <v>273</v>
+      </c>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
@@ -13590,12 +15757,24 @@
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
       <c r="I273" s="2"/>
-      <c r="J273" s="2"/>
-      <c r="K273" s="2"/>
-      <c r="L273" s="2"/>
-      <c r="M273" s="2"/>
-      <c r="N273" s="2"/>
-      <c r="O273" s="2"/>
+      <c r="J273" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K273" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L273" s="2">
+        <v>12</v>
+      </c>
+      <c r="M273" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N273" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O273" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="P273" s="2"/>
       <c r="Q273" s="2"/>
       <c r="R273" s="2"/>
@@ -13609,7 +15788,9 @@
       <c r="Z273" s="2"/>
     </row>
     <row r="274" spans="1:26" ht="15.75">
-      <c r="A274" s="2"/>
+      <c r="A274" s="2">
+        <v>274</v>
+      </c>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
@@ -13618,12 +15799,24 @@
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
       <c r="I274" s="2"/>
-      <c r="J274" s="2"/>
-      <c r="K274" s="2"/>
-      <c r="L274" s="2"/>
-      <c r="M274" s="2"/>
-      <c r="N274" s="2"/>
-      <c r="O274" s="2"/>
+      <c r="J274" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K274" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L274" s="2">
+        <v>13</v>
+      </c>
+      <c r="M274" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N274" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O274" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="P274" s="2"/>
       <c r="Q274" s="2"/>
       <c r="R274" s="2"/>
@@ -13637,7 +15830,9 @@
       <c r="Z274" s="2"/>
     </row>
     <row r="275" spans="1:26" ht="15.75">
-      <c r="A275" s="2"/>
+      <c r="A275" s="2">
+        <v>275</v>
+      </c>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
@@ -13646,12 +15841,24 @@
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
       <c r="I275" s="2"/>
-      <c r="J275" s="2"/>
-      <c r="K275" s="2"/>
-      <c r="L275" s="2"/>
-      <c r="M275" s="2"/>
-      <c r="N275" s="2"/>
-      <c r="O275" s="2"/>
+      <c r="J275" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K275" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L275" s="2">
+        <v>14</v>
+      </c>
+      <c r="M275" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N275" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O275" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="P275" s="2"/>
       <c r="Q275" s="2"/>
       <c r="R275" s="2"/>
@@ -13665,7 +15872,9 @@
       <c r="Z275" s="2"/>
     </row>
     <row r="276" spans="1:26" ht="15.75">
-      <c r="A276" s="2"/>
+      <c r="A276" s="2">
+        <v>276</v>
+      </c>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
@@ -13674,12 +15883,24 @@
       <c r="G276" s="2"/>
       <c r="H276" s="2"/>
       <c r="I276" s="2"/>
-      <c r="J276" s="2"/>
-      <c r="K276" s="2"/>
-      <c r="L276" s="2"/>
-      <c r="M276" s="2"/>
-      <c r="N276" s="2"/>
-      <c r="O276" s="2"/>
+      <c r="J276" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K276" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L276" s="2">
+        <v>15</v>
+      </c>
+      <c r="M276" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N276" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O276" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="P276" s="2"/>
       <c r="Q276" s="2"/>
       <c r="R276" s="2"/>
@@ -13693,7 +15914,9 @@
       <c r="Z276" s="2"/>
     </row>
     <row r="277" spans="1:26" ht="15.75">
-      <c r="A277" s="2"/>
+      <c r="A277" s="2">
+        <v>277</v>
+      </c>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -13702,12 +15925,24 @@
       <c r="G277" s="2"/>
       <c r="H277" s="2"/>
       <c r="I277" s="2"/>
-      <c r="J277" s="2"/>
-      <c r="K277" s="2"/>
-      <c r="L277" s="2"/>
-      <c r="M277" s="2"/>
-      <c r="N277" s="2"/>
-      <c r="O277" s="2"/>
+      <c r="J277" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K277" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L277" s="2">
+        <v>16</v>
+      </c>
+      <c r="M277" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N277" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O277" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="P277" s="2"/>
       <c r="Q277" s="2"/>
       <c r="R277" s="2"/>
@@ -13721,7 +15956,9 @@
       <c r="Z277" s="2"/>
     </row>
     <row r="278" spans="1:26" ht="15.75">
-      <c r="A278" s="2"/>
+      <c r="A278" s="2">
+        <v>278</v>
+      </c>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
@@ -13730,12 +15967,24 @@
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
       <c r="I278" s="2"/>
-      <c r="J278" s="2"/>
-      <c r="K278" s="2"/>
-      <c r="L278" s="2"/>
-      <c r="M278" s="2"/>
-      <c r="N278" s="2"/>
-      <c r="O278" s="2"/>
+      <c r="J278" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K278" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L278" s="2">
+        <v>17</v>
+      </c>
+      <c r="M278" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N278" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O278" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="P278" s="2"/>
       <c r="Q278" s="2"/>
       <c r="R278" s="2"/>
@@ -13749,21 +15998,47 @@
       <c r="Z278" s="2"/>
     </row>
     <row r="279" spans="1:26" ht="15.75">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
-      <c r="D279" s="2"/>
-      <c r="E279" s="2"/>
-      <c r="F279" s="2"/>
-      <c r="G279" s="2"/>
+      <c r="A279" s="2">
+        <v>279</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E279" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F279" s="2">
+        <v>18</v>
+      </c>
+      <c r="G279" s="2">
+        <v>36</v>
+      </c>
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
-      <c r="J279" s="2"/>
-      <c r="K279" s="2"/>
-      <c r="L279" s="2"/>
-      <c r="M279" s="2"/>
-      <c r="N279" s="2"/>
-      <c r="O279" s="2"/>
+      <c r="J279" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K279" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L279" s="2">
+        <v>1</v>
+      </c>
+      <c r="M279" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N279" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O279" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="P279" s="2"/>
       <c r="Q279" s="2"/>
       <c r="R279" s="2"/>
@@ -13777,7 +16052,9 @@
       <c r="Z279" s="2"/>
     </row>
     <row r="280" spans="1:26" ht="15.75">
-      <c r="A280" s="2"/>
+      <c r="A280" s="2">
+        <v>280</v>
+      </c>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
@@ -13786,12 +16063,24 @@
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
       <c r="I280" s="2"/>
-      <c r="J280" s="2"/>
-      <c r="K280" s="2"/>
-      <c r="L280" s="2"/>
-      <c r="M280" s="2"/>
-      <c r="N280" s="2"/>
-      <c r="O280" s="2"/>
+      <c r="J280" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K280" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L280" s="2">
+        <v>2</v>
+      </c>
+      <c r="M280" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N280" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O280" s="7" t="s">
+        <v>222</v>
+      </c>
       <c r="P280" s="2"/>
       <c r="Q280" s="2"/>
       <c r="R280" s="2"/>
@@ -13805,7 +16094,9 @@
       <c r="Z280" s="2"/>
     </row>
     <row r="281" spans="1:26" ht="15.75">
-      <c r="A281" s="2"/>
+      <c r="A281" s="2">
+        <v>281</v>
+      </c>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -13814,12 +16105,24 @@
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
       <c r="I281" s="2"/>
-      <c r="J281" s="2"/>
-      <c r="K281" s="2"/>
-      <c r="L281" s="2"/>
-      <c r="M281" s="2"/>
-      <c r="N281" s="2"/>
-      <c r="O281" s="2"/>
+      <c r="J281" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K281" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L281" s="2">
+        <v>3</v>
+      </c>
+      <c r="M281" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N281" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O281" s="7" t="s">
+        <v>223</v>
+      </c>
       <c r="P281" s="2"/>
       <c r="Q281" s="2"/>
       <c r="R281" s="2"/>
@@ -13833,7 +16136,9 @@
       <c r="Z281" s="2"/>
     </row>
     <row r="282" spans="1:26" ht="15.75">
-      <c r="A282" s="2"/>
+      <c r="A282" s="2">
+        <v>282</v>
+      </c>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
@@ -13842,12 +16147,24 @@
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
       <c r="I282" s="2"/>
-      <c r="J282" s="2"/>
-      <c r="K282" s="2"/>
-      <c r="L282" s="2"/>
-      <c r="M282" s="2"/>
-      <c r="N282" s="2"/>
-      <c r="O282" s="2"/>
+      <c r="J282" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K282" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L282" s="2">
+        <v>4</v>
+      </c>
+      <c r="M282" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N282" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O282" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="P282" s="2"/>
       <c r="Q282" s="2"/>
       <c r="R282" s="2"/>
@@ -13861,7 +16178,9 @@
       <c r="Z282" s="2"/>
     </row>
     <row r="283" spans="1:26" ht="15.75">
-      <c r="A283" s="2"/>
+      <c r="A283" s="2">
+        <v>283</v>
+      </c>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
@@ -13870,12 +16189,24 @@
       <c r="G283" s="2"/>
       <c r="H283" s="2"/>
       <c r="I283" s="2"/>
-      <c r="J283" s="2"/>
-      <c r="K283" s="2"/>
-      <c r="L283" s="2"/>
-      <c r="M283" s="2"/>
-      <c r="N283" s="2"/>
-      <c r="O283" s="2"/>
+      <c r="J283" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K283" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L283" s="2">
+        <v>5</v>
+      </c>
+      <c r="M283" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N283" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O283" s="7" t="s">
+        <v>225</v>
+      </c>
       <c r="P283" s="2"/>
       <c r="Q283" s="2"/>
       <c r="R283" s="2"/>
@@ -13889,7 +16220,9 @@
       <c r="Z283" s="2"/>
     </row>
     <row r="284" spans="1:26" ht="15.75">
-      <c r="A284" s="2"/>
+      <c r="A284" s="2">
+        <v>284</v>
+      </c>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
@@ -13898,12 +16231,24 @@
       <c r="G284" s="2"/>
       <c r="H284" s="2"/>
       <c r="I284" s="2"/>
-      <c r="J284" s="2"/>
-      <c r="K284" s="2"/>
-      <c r="L284" s="2"/>
-      <c r="M284" s="2"/>
-      <c r="N284" s="2"/>
-      <c r="O284" s="2"/>
+      <c r="J284" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K284" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L284" s="2">
+        <v>6</v>
+      </c>
+      <c r="M284" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N284" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O284" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="P284" s="2"/>
       <c r="Q284" s="2"/>
       <c r="R284" s="2"/>
@@ -13917,7 +16262,9 @@
       <c r="Z284" s="2"/>
     </row>
     <row r="285" spans="1:26" ht="15.75">
-      <c r="A285" s="2"/>
+      <c r="A285" s="2">
+        <v>285</v>
+      </c>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
@@ -13926,12 +16273,24 @@
       <c r="G285" s="2"/>
       <c r="H285" s="2"/>
       <c r="I285" s="2"/>
-      <c r="J285" s="2"/>
-      <c r="K285" s="2"/>
-      <c r="L285" s="2"/>
-      <c r="M285" s="2"/>
-      <c r="N285" s="2"/>
-      <c r="O285" s="2"/>
+      <c r="J285" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K285" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L285" s="2">
+        <v>7</v>
+      </c>
+      <c r="M285" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N285" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O285" s="7" t="s">
+        <v>227</v>
+      </c>
       <c r="P285" s="2"/>
       <c r="Q285" s="2"/>
       <c r="R285" s="2"/>
@@ -13945,7 +16304,9 @@
       <c r="Z285" s="2"/>
     </row>
     <row r="286" spans="1:26" ht="15.75">
-      <c r="A286" s="2"/>
+      <c r="A286" s="2">
+        <v>286</v>
+      </c>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
@@ -13954,12 +16315,24 @@
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
       <c r="I286" s="2"/>
-      <c r="J286" s="2"/>
-      <c r="K286" s="2"/>
-      <c r="L286" s="2"/>
-      <c r="M286" s="2"/>
-      <c r="N286" s="2"/>
-      <c r="O286" s="2"/>
+      <c r="J286" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K286" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L286" s="2">
+        <v>8</v>
+      </c>
+      <c r="M286" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N286" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O286" s="7" t="s">
+        <v>228</v>
+      </c>
       <c r="P286" s="2"/>
       <c r="Q286" s="2"/>
       <c r="R286" s="2"/>
@@ -13973,7 +16346,9 @@
       <c r="Z286" s="2"/>
     </row>
     <row r="287" spans="1:26" ht="15.75">
-      <c r="A287" s="2"/>
+      <c r="A287" s="2">
+        <v>287</v>
+      </c>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -13982,12 +16357,24 @@
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
       <c r="I287" s="2"/>
-      <c r="J287" s="2"/>
-      <c r="K287" s="2"/>
-      <c r="L287" s="2"/>
-      <c r="M287" s="2"/>
-      <c r="N287" s="2"/>
-      <c r="O287" s="2"/>
+      <c r="J287" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K287" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L287" s="2">
+        <v>9</v>
+      </c>
+      <c r="M287" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N287" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O287" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="P287" s="2"/>
       <c r="Q287" s="2"/>
       <c r="R287" s="2"/>
@@ -14001,7 +16388,9 @@
       <c r="Z287" s="2"/>
     </row>
     <row r="288" spans="1:26" ht="15.75">
-      <c r="A288" s="2"/>
+      <c r="A288" s="2">
+        <v>288</v>
+      </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -14010,12 +16399,24 @@
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
       <c r="I288" s="2"/>
-      <c r="J288" s="2"/>
-      <c r="K288" s="2"/>
-      <c r="L288" s="2"/>
-      <c r="M288" s="2"/>
-      <c r="N288" s="2"/>
-      <c r="O288" s="2"/>
+      <c r="J288" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K288" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L288" s="2">
+        <v>10</v>
+      </c>
+      <c r="M288" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N288" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O288" s="7" t="s">
+        <v>230</v>
+      </c>
       <c r="P288" s="2"/>
       <c r="Q288" s="2"/>
       <c r="R288" s="2"/>
@@ -14029,7 +16430,9 @@
       <c r="Z288" s="2"/>
     </row>
     <row r="289" spans="1:26" ht="15.75">
-      <c r="A289" s="2"/>
+      <c r="A289" s="2">
+        <v>289</v>
+      </c>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -14038,12 +16441,24 @@
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
       <c r="I289" s="2"/>
-      <c r="J289" s="2"/>
-      <c r="K289" s="2"/>
-      <c r="L289" s="2"/>
-      <c r="M289" s="2"/>
-      <c r="N289" s="2"/>
-      <c r="O289" s="2"/>
+      <c r="J289" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K289" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L289" s="2">
+        <v>11</v>
+      </c>
+      <c r="M289" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N289" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O289" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="P289" s="2"/>
       <c r="Q289" s="2"/>
       <c r="R289" s="2"/>
@@ -14057,7 +16472,9 @@
       <c r="Z289" s="2"/>
     </row>
     <row r="290" spans="1:26" ht="15.75">
-      <c r="A290" s="2"/>
+      <c r="A290" s="2">
+        <v>290</v>
+      </c>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -14066,12 +16483,24 @@
       <c r="G290" s="2"/>
       <c r="H290" s="2"/>
       <c r="I290" s="2"/>
-      <c r="J290" s="2"/>
-      <c r="K290" s="2"/>
-      <c r="L290" s="2"/>
-      <c r="M290" s="2"/>
-      <c r="N290" s="2"/>
-      <c r="O290" s="2"/>
+      <c r="J290" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K290" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L290" s="2">
+        <v>12</v>
+      </c>
+      <c r="M290" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N290" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O290" s="7" t="s">
+        <v>232</v>
+      </c>
       <c r="P290" s="2"/>
       <c r="Q290" s="2"/>
       <c r="R290" s="2"/>
@@ -14085,7 +16514,9 @@
       <c r="Z290" s="2"/>
     </row>
     <row r="291" spans="1:26" ht="15.75">
-      <c r="A291" s="2"/>
+      <c r="A291" s="2">
+        <v>291</v>
+      </c>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -14094,12 +16525,24 @@
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
       <c r="I291" s="2"/>
-      <c r="J291" s="2"/>
-      <c r="K291" s="2"/>
-      <c r="L291" s="2"/>
-      <c r="M291" s="2"/>
-      <c r="N291" s="2"/>
-      <c r="O291" s="2"/>
+      <c r="J291" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K291" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L291" s="2">
+        <v>13</v>
+      </c>
+      <c r="M291" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N291" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O291" s="7" t="s">
+        <v>233</v>
+      </c>
       <c r="P291" s="2"/>
       <c r="Q291" s="2"/>
       <c r="R291" s="2"/>
@@ -14113,7 +16556,9 @@
       <c r="Z291" s="2"/>
     </row>
     <row r="292" spans="1:26" ht="15.75">
-      <c r="A292" s="2"/>
+      <c r="A292" s="2">
+        <v>292</v>
+      </c>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -14122,12 +16567,24 @@
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
       <c r="I292" s="2"/>
-      <c r="J292" s="2"/>
-      <c r="K292" s="2"/>
-      <c r="L292" s="2"/>
-      <c r="M292" s="2"/>
-      <c r="N292" s="2"/>
-      <c r="O292" s="2"/>
+      <c r="J292" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K292" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L292" s="2">
+        <v>14</v>
+      </c>
+      <c r="M292" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N292" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O292" s="7" t="s">
+        <v>234</v>
+      </c>
       <c r="P292" s="2"/>
       <c r="Q292" s="2"/>
       <c r="R292" s="2"/>
@@ -14141,7 +16598,9 @@
       <c r="Z292" s="2"/>
     </row>
     <row r="293" spans="1:26" ht="15.75">
-      <c r="A293" s="2"/>
+      <c r="A293" s="2">
+        <v>293</v>
+      </c>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
@@ -14150,12 +16609,24 @@
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
       <c r="I293" s="2"/>
-      <c r="J293" s="2"/>
-      <c r="K293" s="2"/>
-      <c r="L293" s="2"/>
-      <c r="M293" s="2"/>
-      <c r="N293" s="2"/>
-      <c r="O293" s="2"/>
+      <c r="J293" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K293" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L293" s="2">
+        <v>15</v>
+      </c>
+      <c r="M293" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N293" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O293" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="P293" s="2"/>
       <c r="Q293" s="2"/>
       <c r="R293" s="2"/>
@@ -14169,7 +16640,9 @@
       <c r="Z293" s="2"/>
     </row>
     <row r="294" spans="1:26" ht="15.75">
-      <c r="A294" s="2"/>
+      <c r="A294" s="2">
+        <v>294</v>
+      </c>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
@@ -14178,12 +16651,24 @@
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
       <c r="I294" s="2"/>
-      <c r="J294" s="2"/>
-      <c r="K294" s="2"/>
-      <c r="L294" s="2"/>
-      <c r="M294" s="2"/>
-      <c r="N294" s="2"/>
-      <c r="O294" s="2"/>
+      <c r="J294" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K294" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L294" s="2">
+        <v>16</v>
+      </c>
+      <c r="M294" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N294" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O294" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="P294" s="2"/>
       <c r="Q294" s="2"/>
       <c r="R294" s="2"/>
@@ -14197,7 +16682,9 @@
       <c r="Z294" s="2"/>
     </row>
     <row r="295" spans="1:26" ht="15.75">
-      <c r="A295" s="2"/>
+      <c r="A295" s="2">
+        <v>295</v>
+      </c>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -14206,12 +16693,24 @@
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
       <c r="I295" s="2"/>
-      <c r="J295" s="2"/>
-      <c r="K295" s="2"/>
-      <c r="L295" s="2"/>
-      <c r="M295" s="2"/>
-      <c r="N295" s="2"/>
-      <c r="O295" s="2"/>
+      <c r="J295" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K295" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L295" s="2">
+        <v>17</v>
+      </c>
+      <c r="M295" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N295" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O295" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="P295" s="2"/>
       <c r="Q295" s="2"/>
       <c r="R295" s="2"/>
@@ -14225,7 +16724,9 @@
       <c r="Z295" s="2"/>
     </row>
     <row r="296" spans="1:26" ht="15.75">
-      <c r="A296" s="2"/>
+      <c r="A296" s="2">
+        <v>296</v>
+      </c>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -14234,12 +16735,24 @@
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
       <c r="I296" s="2"/>
-      <c r="J296" s="2"/>
-      <c r="K296" s="2"/>
-      <c r="L296" s="2"/>
-      <c r="M296" s="2"/>
-      <c r="N296" s="2"/>
-      <c r="O296" s="2"/>
+      <c r="J296" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K296" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L296" s="2">
+        <v>18</v>
+      </c>
+      <c r="M296" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N296" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O296" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="P296" s="2"/>
       <c r="Q296" s="2"/>
       <c r="R296" s="2"/>
@@ -33980,9 +36493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A211" sqref="A211:N231"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A279" sqref="A279:N296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -50392,20 +52905,62 @@
       <c r="AA231" s="2"/>
     </row>
     <row r="232" spans="1:27" ht="15.75">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="2"/>
-      <c r="J232" s="2"/>
-      <c r="K232" s="2"/>
-      <c r="L232" s="2"/>
-      <c r="M232" s="2"/>
-      <c r="N232" s="2"/>
+      <c r="A232" s="2" t="str">
+        <f>""""&amp;book_list!B232&amp;""""</f>
+        <v>"Kanji N4"</v>
+      </c>
+      <c r="B232" s="2" t="str">
+        <f>""""&amp;book_list!C232&amp;""""</f>
+        <v>"Kanji N4 dựa theo chuẩn của JLPT"</v>
+      </c>
+      <c r="C232" s="2" t="str">
+        <f>""""&amp;book_list!D232&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="D232" s="2" t="str">
+        <f>""""&amp;book_list!E232&amp;""""</f>
+        <v>"N4"</v>
+      </c>
+      <c r="E232" s="2" t="str">
+        <f>""""&amp;book_list!F232&amp;""""</f>
+        <v>"30"</v>
+      </c>
+      <c r="F232" s="2" t="str">
+        <f>""""&amp;book_list!G232&amp;""""</f>
+        <v>"30"</v>
+      </c>
+      <c r="G232" s="2" t="str">
+        <f>""""&amp;book_list!H232&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H232" s="2" t="str">
+        <f>""""&amp;book_list!I232&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I232" s="2" t="str">
+        <f>""""&amp;book_list!J232&amp;""""</f>
+        <v>"Bài 1"</v>
+      </c>
+      <c r="J232" s="2" t="str">
+        <f>""""&amp;book_list!K232&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K232" s="2" t="str">
+        <f>""""&amp;book_list!L232&amp;""""</f>
+        <v>"1"</v>
+      </c>
+      <c r="L232" s="2" t="str">
+        <f>""""&amp;book_list!M232&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M232" s="2" t="str">
+        <f>""""&amp;book_list!N232&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N232" s="2" t="str">
+        <f>""""&amp;book_list!O232&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson1,'}}"</v>
+      </c>
       <c r="O232" s="2"/>
       <c r="P232" s="2"/>
       <c r="Q232" s="2"/>
@@ -50421,20 +52976,62 @@
       <c r="AA232" s="2"/>
     </row>
     <row r="233" spans="1:27" ht="15.75">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="2"/>
-      <c r="J233" s="2"/>
-      <c r="K233" s="2"/>
-      <c r="L233" s="2"/>
-      <c r="M233" s="2"/>
-      <c r="N233" s="2"/>
+      <c r="A233" s="2" t="str">
+        <f>""""&amp;book_list!B233&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B233" s="2" t="str">
+        <f>""""&amp;book_list!C233&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C233" s="2" t="str">
+        <f>""""&amp;book_list!D233&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D233" s="2" t="str">
+        <f>""""&amp;book_list!E233&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E233" s="2" t="str">
+        <f>""""&amp;book_list!F233&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F233" s="2" t="str">
+        <f>""""&amp;book_list!G233&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G233" s="2" t="str">
+        <f>""""&amp;book_list!H233&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H233" s="2" t="str">
+        <f>""""&amp;book_list!I233&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I233" s="2" t="str">
+        <f>""""&amp;book_list!J233&amp;""""</f>
+        <v>"Bài 2"</v>
+      </c>
+      <c r="J233" s="2" t="str">
+        <f>""""&amp;book_list!K233&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K233" s="2" t="str">
+        <f>""""&amp;book_list!L233&amp;""""</f>
+        <v>"2"</v>
+      </c>
+      <c r="L233" s="2" t="str">
+        <f>""""&amp;book_list!M233&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M233" s="2" t="str">
+        <f>""""&amp;book_list!N233&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N233" s="2" t="str">
+        <f>""""&amp;book_list!O233&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson2,'}}"</v>
+      </c>
       <c r="O233" s="2"/>
       <c r="P233" s="2"/>
       <c r="Q233" s="2"/>
@@ -50450,20 +53047,62 @@
       <c r="AA233" s="2"/>
     </row>
     <row r="234" spans="1:27" ht="15.75">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
-      <c r="I234" s="2"/>
-      <c r="J234" s="2"/>
-      <c r="K234" s="2"/>
-      <c r="L234" s="2"/>
-      <c r="M234" s="2"/>
-      <c r="N234" s="2"/>
+      <c r="A234" s="2" t="str">
+        <f>""""&amp;book_list!B234&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B234" s="2" t="str">
+        <f>""""&amp;book_list!C234&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C234" s="2" t="str">
+        <f>""""&amp;book_list!D234&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D234" s="2" t="str">
+        <f>""""&amp;book_list!E234&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E234" s="2" t="str">
+        <f>""""&amp;book_list!F234&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F234" s="2" t="str">
+        <f>""""&amp;book_list!G234&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G234" s="2" t="str">
+        <f>""""&amp;book_list!H234&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H234" s="2" t="str">
+        <f>""""&amp;book_list!I234&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I234" s="2" t="str">
+        <f>""""&amp;book_list!J234&amp;""""</f>
+        <v>"Bài 3"</v>
+      </c>
+      <c r="J234" s="2" t="str">
+        <f>""""&amp;book_list!K234&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K234" s="2" t="str">
+        <f>""""&amp;book_list!L234&amp;""""</f>
+        <v>"3"</v>
+      </c>
+      <c r="L234" s="2" t="str">
+        <f>""""&amp;book_list!M234&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M234" s="2" t="str">
+        <f>""""&amp;book_list!N234&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N234" s="2" t="str">
+        <f>""""&amp;book_list!O234&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson3,'}}"</v>
+      </c>
       <c r="O234" s="2"/>
       <c r="P234" s="2"/>
       <c r="Q234" s="2"/>
@@ -50479,20 +53118,62 @@
       <c r="AA234" s="2"/>
     </row>
     <row r="235" spans="1:27" ht="15.75">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="2"/>
-      <c r="J235" s="2"/>
-      <c r="K235" s="2"/>
-      <c r="L235" s="2"/>
-      <c r="M235" s="2"/>
-      <c r="N235" s="2"/>
+      <c r="A235" s="2" t="str">
+        <f>""""&amp;book_list!B235&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B235" s="2" t="str">
+        <f>""""&amp;book_list!C235&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C235" s="2" t="str">
+        <f>""""&amp;book_list!D235&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D235" s="2" t="str">
+        <f>""""&amp;book_list!E235&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E235" s="2" t="str">
+        <f>""""&amp;book_list!F235&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F235" s="2" t="str">
+        <f>""""&amp;book_list!G235&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G235" s="2" t="str">
+        <f>""""&amp;book_list!H235&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H235" s="2" t="str">
+        <f>""""&amp;book_list!I235&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I235" s="2" t="str">
+        <f>""""&amp;book_list!J235&amp;""""</f>
+        <v>"Bài 4"</v>
+      </c>
+      <c r="J235" s="2" t="str">
+        <f>""""&amp;book_list!K235&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K235" s="2" t="str">
+        <f>""""&amp;book_list!L235&amp;""""</f>
+        <v>"4"</v>
+      </c>
+      <c r="L235" s="2" t="str">
+        <f>""""&amp;book_list!M235&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M235" s="2" t="str">
+        <f>""""&amp;book_list!N235&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N235" s="2" t="str">
+        <f>""""&amp;book_list!O235&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson4,'}}"</v>
+      </c>
       <c r="O235" s="2"/>
       <c r="P235" s="2"/>
       <c r="Q235" s="2"/>
@@ -50508,20 +53189,62 @@
       <c r="AA235" s="2"/>
     </row>
     <row r="236" spans="1:27" ht="15.75">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
-      <c r="H236" s="2"/>
-      <c r="I236" s="2"/>
-      <c r="J236" s="2"/>
-      <c r="K236" s="2"/>
-      <c r="L236" s="2"/>
-      <c r="M236" s="2"/>
-      <c r="N236" s="2"/>
+      <c r="A236" s="2" t="str">
+        <f>""""&amp;book_list!B236&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B236" s="2" t="str">
+        <f>""""&amp;book_list!C236&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C236" s="2" t="str">
+        <f>""""&amp;book_list!D236&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D236" s="2" t="str">
+        <f>""""&amp;book_list!E236&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E236" s="2" t="str">
+        <f>""""&amp;book_list!F236&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F236" s="2" t="str">
+        <f>""""&amp;book_list!G236&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G236" s="2" t="str">
+        <f>""""&amp;book_list!H236&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H236" s="2" t="str">
+        <f>""""&amp;book_list!I236&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I236" s="2" t="str">
+        <f>""""&amp;book_list!J236&amp;""""</f>
+        <v>"Bài 5"</v>
+      </c>
+      <c r="J236" s="2" t="str">
+        <f>""""&amp;book_list!K236&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K236" s="2" t="str">
+        <f>""""&amp;book_list!L236&amp;""""</f>
+        <v>"5"</v>
+      </c>
+      <c r="L236" s="2" t="str">
+        <f>""""&amp;book_list!M236&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M236" s="2" t="str">
+        <f>""""&amp;book_list!N236&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N236" s="2" t="str">
+        <f>""""&amp;book_list!O236&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson5,'}}"</v>
+      </c>
       <c r="O236" s="2"/>
       <c r="P236" s="2"/>
       <c r="Q236" s="2"/>
@@ -50537,20 +53260,62 @@
       <c r="AA236" s="2"/>
     </row>
     <row r="237" spans="1:27" ht="15.75">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
-      <c r="H237" s="2"/>
-      <c r="I237" s="2"/>
-      <c r="J237" s="2"/>
-      <c r="K237" s="2"/>
-      <c r="L237" s="2"/>
-      <c r="M237" s="2"/>
-      <c r="N237" s="2"/>
+      <c r="A237" s="2" t="str">
+        <f>""""&amp;book_list!B237&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B237" s="2" t="str">
+        <f>""""&amp;book_list!C237&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C237" s="2" t="str">
+        <f>""""&amp;book_list!D237&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D237" s="2" t="str">
+        <f>""""&amp;book_list!E237&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E237" s="2" t="str">
+        <f>""""&amp;book_list!F237&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F237" s="2" t="str">
+        <f>""""&amp;book_list!G237&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G237" s="2" t="str">
+        <f>""""&amp;book_list!H237&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H237" s="2" t="str">
+        <f>""""&amp;book_list!I237&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I237" s="2" t="str">
+        <f>""""&amp;book_list!J237&amp;""""</f>
+        <v>"Bài 6"</v>
+      </c>
+      <c r="J237" s="2" t="str">
+        <f>""""&amp;book_list!K237&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K237" s="2" t="str">
+        <f>""""&amp;book_list!L237&amp;""""</f>
+        <v>"6"</v>
+      </c>
+      <c r="L237" s="2" t="str">
+        <f>""""&amp;book_list!M237&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M237" s="2" t="str">
+        <f>""""&amp;book_list!N237&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N237" s="2" t="str">
+        <f>""""&amp;book_list!O237&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson6,'}}"</v>
+      </c>
       <c r="O237" s="2"/>
       <c r="P237" s="2"/>
       <c r="Q237" s="2"/>
@@ -50566,20 +53331,62 @@
       <c r="AA237" s="2"/>
     </row>
     <row r="238" spans="1:27" ht="15.75">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
-      <c r="H238" s="2"/>
-      <c r="I238" s="2"/>
-      <c r="J238" s="2"/>
-      <c r="K238" s="2"/>
-      <c r="L238" s="2"/>
-      <c r="M238" s="2"/>
-      <c r="N238" s="2"/>
+      <c r="A238" s="2" t="str">
+        <f>""""&amp;book_list!B238&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B238" s="2" t="str">
+        <f>""""&amp;book_list!C238&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C238" s="2" t="str">
+        <f>""""&amp;book_list!D238&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D238" s="2" t="str">
+        <f>""""&amp;book_list!E238&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E238" s="2" t="str">
+        <f>""""&amp;book_list!F238&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F238" s="2" t="str">
+        <f>""""&amp;book_list!G238&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G238" s="2" t="str">
+        <f>""""&amp;book_list!H238&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H238" s="2" t="str">
+        <f>""""&amp;book_list!I238&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I238" s="2" t="str">
+        <f>""""&amp;book_list!J238&amp;""""</f>
+        <v>"Bài 7"</v>
+      </c>
+      <c r="J238" s="2" t="str">
+        <f>""""&amp;book_list!K238&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K238" s="2" t="str">
+        <f>""""&amp;book_list!L238&amp;""""</f>
+        <v>"7"</v>
+      </c>
+      <c r="L238" s="2" t="str">
+        <f>""""&amp;book_list!M238&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M238" s="2" t="str">
+        <f>""""&amp;book_list!N238&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N238" s="2" t="str">
+        <f>""""&amp;book_list!O238&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson7,'}}"</v>
+      </c>
       <c r="O238" s="2"/>
       <c r="P238" s="2"/>
       <c r="Q238" s="2"/>
@@ -50595,20 +53402,62 @@
       <c r="AA238" s="2"/>
     </row>
     <row r="239" spans="1:27" ht="15.75">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="2"/>
-      <c r="J239" s="2"/>
-      <c r="K239" s="2"/>
-      <c r="L239" s="2"/>
-      <c r="M239" s="2"/>
-      <c r="N239" s="2"/>
+      <c r="A239" s="2" t="str">
+        <f>""""&amp;book_list!B239&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B239" s="2" t="str">
+        <f>""""&amp;book_list!C239&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C239" s="2" t="str">
+        <f>""""&amp;book_list!D239&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D239" s="2" t="str">
+        <f>""""&amp;book_list!E239&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E239" s="2" t="str">
+        <f>""""&amp;book_list!F239&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F239" s="2" t="str">
+        <f>""""&amp;book_list!G239&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G239" s="2" t="str">
+        <f>""""&amp;book_list!H239&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H239" s="2" t="str">
+        <f>""""&amp;book_list!I239&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I239" s="2" t="str">
+        <f>""""&amp;book_list!J239&amp;""""</f>
+        <v>"Bài 8"</v>
+      </c>
+      <c r="J239" s="2" t="str">
+        <f>""""&amp;book_list!K239&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K239" s="2" t="str">
+        <f>""""&amp;book_list!L239&amp;""""</f>
+        <v>"8"</v>
+      </c>
+      <c r="L239" s="2" t="str">
+        <f>""""&amp;book_list!M239&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M239" s="2" t="str">
+        <f>""""&amp;book_list!N239&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N239" s="2" t="str">
+        <f>""""&amp;book_list!O239&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson8,'}}"</v>
+      </c>
       <c r="O239" s="2"/>
       <c r="P239" s="2"/>
       <c r="Q239" s="2"/>
@@ -50624,20 +53473,62 @@
       <c r="AA239" s="2"/>
     </row>
     <row r="240" spans="1:27" ht="15.75">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
-      <c r="I240" s="2"/>
-      <c r="J240" s="2"/>
-      <c r="K240" s="2"/>
-      <c r="L240" s="2"/>
-      <c r="M240" s="2"/>
-      <c r="N240" s="2"/>
+      <c r="A240" s="2" t="str">
+        <f>""""&amp;book_list!B240&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B240" s="2" t="str">
+        <f>""""&amp;book_list!C240&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C240" s="2" t="str">
+        <f>""""&amp;book_list!D240&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D240" s="2" t="str">
+        <f>""""&amp;book_list!E240&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E240" s="2" t="str">
+        <f>""""&amp;book_list!F240&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F240" s="2" t="str">
+        <f>""""&amp;book_list!G240&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G240" s="2" t="str">
+        <f>""""&amp;book_list!H240&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H240" s="2" t="str">
+        <f>""""&amp;book_list!I240&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I240" s="2" t="str">
+        <f>""""&amp;book_list!J240&amp;""""</f>
+        <v>"Bài 9"</v>
+      </c>
+      <c r="J240" s="2" t="str">
+        <f>""""&amp;book_list!K240&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K240" s="2" t="str">
+        <f>""""&amp;book_list!L240&amp;""""</f>
+        <v>"9"</v>
+      </c>
+      <c r="L240" s="2" t="str">
+        <f>""""&amp;book_list!M240&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M240" s="2" t="str">
+        <f>""""&amp;book_list!N240&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N240" s="2" t="str">
+        <f>""""&amp;book_list!O240&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson9,'}}"</v>
+      </c>
       <c r="O240" s="2"/>
       <c r="P240" s="2"/>
       <c r="Q240" s="2"/>
@@ -50653,20 +53544,62 @@
       <c r="AA240" s="2"/>
     </row>
     <row r="241" spans="1:27" ht="15.75">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
-      <c r="F241" s="2"/>
-      <c r="G241" s="2"/>
-      <c r="H241" s="2"/>
-      <c r="I241" s="2"/>
-      <c r="J241" s="2"/>
-      <c r="K241" s="2"/>
-      <c r="L241" s="2"/>
-      <c r="M241" s="2"/>
-      <c r="N241" s="2"/>
+      <c r="A241" s="2" t="str">
+        <f>""""&amp;book_list!B241&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B241" s="2" t="str">
+        <f>""""&amp;book_list!C241&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C241" s="2" t="str">
+        <f>""""&amp;book_list!D241&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D241" s="2" t="str">
+        <f>""""&amp;book_list!E241&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E241" s="2" t="str">
+        <f>""""&amp;book_list!F241&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F241" s="2" t="str">
+        <f>""""&amp;book_list!G241&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G241" s="2" t="str">
+        <f>""""&amp;book_list!H241&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H241" s="2" t="str">
+        <f>""""&amp;book_list!I241&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I241" s="2" t="str">
+        <f>""""&amp;book_list!J241&amp;""""</f>
+        <v>"Bài 10"</v>
+      </c>
+      <c r="J241" s="2" t="str">
+        <f>""""&amp;book_list!K241&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K241" s="2" t="str">
+        <f>""""&amp;book_list!L241&amp;""""</f>
+        <v>"10"</v>
+      </c>
+      <c r="L241" s="2" t="str">
+        <f>""""&amp;book_list!M241&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M241" s="2" t="str">
+        <f>""""&amp;book_list!N241&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N241" s="2" t="str">
+        <f>""""&amp;book_list!O241&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson10,'}}"</v>
+      </c>
       <c r="O241" s="2"/>
       <c r="P241" s="2"/>
       <c r="Q241" s="2"/>
@@ -50682,20 +53615,62 @@
       <c r="AA241" s="2"/>
     </row>
     <row r="242" spans="1:27" ht="15.75">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
-      <c r="G242" s="2"/>
-      <c r="H242" s="2"/>
-      <c r="I242" s="2"/>
-      <c r="J242" s="2"/>
-      <c r="K242" s="2"/>
-      <c r="L242" s="2"/>
-      <c r="M242" s="2"/>
-      <c r="N242" s="2"/>
+      <c r="A242" s="2" t="str">
+        <f>""""&amp;book_list!B242&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B242" s="2" t="str">
+        <f>""""&amp;book_list!C242&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C242" s="2" t="str">
+        <f>""""&amp;book_list!D242&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D242" s="2" t="str">
+        <f>""""&amp;book_list!E242&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E242" s="2" t="str">
+        <f>""""&amp;book_list!F242&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F242" s="2" t="str">
+        <f>""""&amp;book_list!G242&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G242" s="2" t="str">
+        <f>""""&amp;book_list!H242&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H242" s="2" t="str">
+        <f>""""&amp;book_list!I242&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I242" s="2" t="str">
+        <f>""""&amp;book_list!J242&amp;""""</f>
+        <v>"Bài 11"</v>
+      </c>
+      <c r="J242" s="2" t="str">
+        <f>""""&amp;book_list!K242&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K242" s="2" t="str">
+        <f>""""&amp;book_list!L242&amp;""""</f>
+        <v>"11"</v>
+      </c>
+      <c r="L242" s="2" t="str">
+        <f>""""&amp;book_list!M242&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M242" s="2" t="str">
+        <f>""""&amp;book_list!N242&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N242" s="2" t="str">
+        <f>""""&amp;book_list!O242&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson11,'}}"</v>
+      </c>
       <c r="O242" s="2"/>
       <c r="P242" s="2"/>
       <c r="Q242" s="2"/>
@@ -50711,20 +53686,62 @@
       <c r="AA242" s="2"/>
     </row>
     <row r="243" spans="1:27" ht="15.75">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
-      <c r="G243" s="2"/>
-      <c r="H243" s="2"/>
-      <c r="I243" s="2"/>
-      <c r="J243" s="2"/>
-      <c r="K243" s="2"/>
-      <c r="L243" s="2"/>
-      <c r="M243" s="2"/>
-      <c r="N243" s="2"/>
+      <c r="A243" s="2" t="str">
+        <f>""""&amp;book_list!B243&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B243" s="2" t="str">
+        <f>""""&amp;book_list!C243&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C243" s="2" t="str">
+        <f>""""&amp;book_list!D243&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D243" s="2" t="str">
+        <f>""""&amp;book_list!E243&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E243" s="2" t="str">
+        <f>""""&amp;book_list!F243&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F243" s="2" t="str">
+        <f>""""&amp;book_list!G243&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G243" s="2" t="str">
+        <f>""""&amp;book_list!H243&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H243" s="2" t="str">
+        <f>""""&amp;book_list!I243&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I243" s="2" t="str">
+        <f>""""&amp;book_list!J243&amp;""""</f>
+        <v>"Bài 12"</v>
+      </c>
+      <c r="J243" s="2" t="str">
+        <f>""""&amp;book_list!K243&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K243" s="2" t="str">
+        <f>""""&amp;book_list!L243&amp;""""</f>
+        <v>"12"</v>
+      </c>
+      <c r="L243" s="2" t="str">
+        <f>""""&amp;book_list!M243&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M243" s="2" t="str">
+        <f>""""&amp;book_list!N243&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N243" s="2" t="str">
+        <f>""""&amp;book_list!O243&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson12,'}}"</v>
+      </c>
       <c r="O243" s="2"/>
       <c r="P243" s="2"/>
       <c r="Q243" s="2"/>
@@ -50740,20 +53757,62 @@
       <c r="AA243" s="2"/>
     </row>
     <row r="244" spans="1:27" ht="15.75">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
-      <c r="G244" s="2"/>
-      <c r="H244" s="2"/>
-      <c r="I244" s="2"/>
-      <c r="J244" s="2"/>
-      <c r="K244" s="2"/>
-      <c r="L244" s="2"/>
-      <c r="M244" s="2"/>
-      <c r="N244" s="2"/>
+      <c r="A244" s="2" t="str">
+        <f>""""&amp;book_list!B244&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B244" s="2" t="str">
+        <f>""""&amp;book_list!C244&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C244" s="2" t="str">
+        <f>""""&amp;book_list!D244&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D244" s="2" t="str">
+        <f>""""&amp;book_list!E244&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E244" s="2" t="str">
+        <f>""""&amp;book_list!F244&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F244" s="2" t="str">
+        <f>""""&amp;book_list!G244&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G244" s="2" t="str">
+        <f>""""&amp;book_list!H244&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H244" s="2" t="str">
+        <f>""""&amp;book_list!I244&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I244" s="2" t="str">
+        <f>""""&amp;book_list!J244&amp;""""</f>
+        <v>"Bài 13"</v>
+      </c>
+      <c r="J244" s="2" t="str">
+        <f>""""&amp;book_list!K244&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K244" s="2" t="str">
+        <f>""""&amp;book_list!L244&amp;""""</f>
+        <v>"13"</v>
+      </c>
+      <c r="L244" s="2" t="str">
+        <f>""""&amp;book_list!M244&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M244" s="2" t="str">
+        <f>""""&amp;book_list!N244&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N244" s="2" t="str">
+        <f>""""&amp;book_list!O244&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson13,'}}"</v>
+      </c>
       <c r="O244" s="2"/>
       <c r="P244" s="2"/>
       <c r="Q244" s="2"/>
@@ -50769,20 +53828,62 @@
       <c r="AA244" s="2"/>
     </row>
     <row r="245" spans="1:27" ht="15.75">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
-      <c r="G245" s="2"/>
-      <c r="H245" s="2"/>
-      <c r="I245" s="2"/>
-      <c r="J245" s="2"/>
-      <c r="K245" s="2"/>
-      <c r="L245" s="2"/>
-      <c r="M245" s="2"/>
-      <c r="N245" s="2"/>
+      <c r="A245" s="2" t="str">
+        <f>""""&amp;book_list!B245&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B245" s="2" t="str">
+        <f>""""&amp;book_list!C245&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C245" s="2" t="str">
+        <f>""""&amp;book_list!D245&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D245" s="2" t="str">
+        <f>""""&amp;book_list!E245&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E245" s="2" t="str">
+        <f>""""&amp;book_list!F245&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F245" s="2" t="str">
+        <f>""""&amp;book_list!G245&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G245" s="2" t="str">
+        <f>""""&amp;book_list!H245&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H245" s="2" t="str">
+        <f>""""&amp;book_list!I245&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I245" s="2" t="str">
+        <f>""""&amp;book_list!J245&amp;""""</f>
+        <v>"Bài 14"</v>
+      </c>
+      <c r="J245" s="2" t="str">
+        <f>""""&amp;book_list!K245&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K245" s="2" t="str">
+        <f>""""&amp;book_list!L245&amp;""""</f>
+        <v>"14"</v>
+      </c>
+      <c r="L245" s="2" t="str">
+        <f>""""&amp;book_list!M245&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M245" s="2" t="str">
+        <f>""""&amp;book_list!N245&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N245" s="2" t="str">
+        <f>""""&amp;book_list!O245&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson14,'}}"</v>
+      </c>
       <c r="O245" s="2"/>
       <c r="P245" s="2"/>
       <c r="Q245" s="2"/>
@@ -50798,20 +53899,62 @@
       <c r="AA245" s="2"/>
     </row>
     <row r="246" spans="1:27" ht="15.75">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
-      <c r="G246" s="2"/>
-      <c r="H246" s="2"/>
-      <c r="I246" s="2"/>
-      <c r="J246" s="2"/>
-      <c r="K246" s="2"/>
-      <c r="L246" s="2"/>
-      <c r="M246" s="2"/>
-      <c r="N246" s="2"/>
+      <c r="A246" s="2" t="str">
+        <f>""""&amp;book_list!B246&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B246" s="2" t="str">
+        <f>""""&amp;book_list!C246&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C246" s="2" t="str">
+        <f>""""&amp;book_list!D246&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D246" s="2" t="str">
+        <f>""""&amp;book_list!E246&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E246" s="2" t="str">
+        <f>""""&amp;book_list!F246&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F246" s="2" t="str">
+        <f>""""&amp;book_list!G246&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G246" s="2" t="str">
+        <f>""""&amp;book_list!H246&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H246" s="2" t="str">
+        <f>""""&amp;book_list!I246&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I246" s="2" t="str">
+        <f>""""&amp;book_list!J246&amp;""""</f>
+        <v>"Bài 15"</v>
+      </c>
+      <c r="J246" s="2" t="str">
+        <f>""""&amp;book_list!K246&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K246" s="2" t="str">
+        <f>""""&amp;book_list!L246&amp;""""</f>
+        <v>"15"</v>
+      </c>
+      <c r="L246" s="2" t="str">
+        <f>""""&amp;book_list!M246&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M246" s="2" t="str">
+        <f>""""&amp;book_list!N246&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N246" s="2" t="str">
+        <f>""""&amp;book_list!O246&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson15,'}}"</v>
+      </c>
       <c r="O246" s="2"/>
       <c r="P246" s="2"/>
       <c r="Q246" s="2"/>
@@ -50827,20 +53970,62 @@
       <c r="AA246" s="2"/>
     </row>
     <row r="247" spans="1:27" ht="15.75">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
-      <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
-      <c r="G247" s="2"/>
-      <c r="H247" s="2"/>
-      <c r="I247" s="2"/>
-      <c r="J247" s="2"/>
-      <c r="K247" s="2"/>
-      <c r="L247" s="2"/>
-      <c r="M247" s="2"/>
-      <c r="N247" s="2"/>
+      <c r="A247" s="2" t="str">
+        <f>""""&amp;book_list!B247&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B247" s="2" t="str">
+        <f>""""&amp;book_list!C247&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C247" s="2" t="str">
+        <f>""""&amp;book_list!D247&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D247" s="2" t="str">
+        <f>""""&amp;book_list!E247&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E247" s="2" t="str">
+        <f>""""&amp;book_list!F247&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F247" s="2" t="str">
+        <f>""""&amp;book_list!G247&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G247" s="2" t="str">
+        <f>""""&amp;book_list!H247&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H247" s="2" t="str">
+        <f>""""&amp;book_list!I247&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I247" s="2" t="str">
+        <f>""""&amp;book_list!J247&amp;""""</f>
+        <v>"Bài 16"</v>
+      </c>
+      <c r="J247" s="2" t="str">
+        <f>""""&amp;book_list!K247&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K247" s="2" t="str">
+        <f>""""&amp;book_list!L247&amp;""""</f>
+        <v>"16"</v>
+      </c>
+      <c r="L247" s="2" t="str">
+        <f>""""&amp;book_list!M247&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M247" s="2" t="str">
+        <f>""""&amp;book_list!N247&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N247" s="2" t="str">
+        <f>""""&amp;book_list!O247&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson16,'}}"</v>
+      </c>
       <c r="O247" s="2"/>
       <c r="P247" s="2"/>
       <c r="Q247" s="2"/>
@@ -50856,20 +54041,62 @@
       <c r="AA247" s="2"/>
     </row>
     <row r="248" spans="1:27" ht="15.75">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="2"/>
-      <c r="E248" s="2"/>
-      <c r="F248" s="2"/>
-      <c r="G248" s="2"/>
-      <c r="H248" s="2"/>
-      <c r="I248" s="2"/>
-      <c r="J248" s="2"/>
-      <c r="K248" s="2"/>
-      <c r="L248" s="2"/>
-      <c r="M248" s="2"/>
-      <c r="N248" s="2"/>
+      <c r="A248" s="2" t="str">
+        <f>""""&amp;book_list!B248&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B248" s="2" t="str">
+        <f>""""&amp;book_list!C248&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C248" s="2" t="str">
+        <f>""""&amp;book_list!D248&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D248" s="2" t="str">
+        <f>""""&amp;book_list!E248&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E248" s="2" t="str">
+        <f>""""&amp;book_list!F248&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F248" s="2" t="str">
+        <f>""""&amp;book_list!G248&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G248" s="2" t="str">
+        <f>""""&amp;book_list!H248&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H248" s="2" t="str">
+        <f>""""&amp;book_list!I248&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I248" s="2" t="str">
+        <f>""""&amp;book_list!J248&amp;""""</f>
+        <v>"Bài 17"</v>
+      </c>
+      <c r="J248" s="2" t="str">
+        <f>""""&amp;book_list!K248&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K248" s="2" t="str">
+        <f>""""&amp;book_list!L248&amp;""""</f>
+        <v>"17"</v>
+      </c>
+      <c r="L248" s="2" t="str">
+        <f>""""&amp;book_list!M248&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M248" s="2" t="str">
+        <f>""""&amp;book_list!N248&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N248" s="2" t="str">
+        <f>""""&amp;book_list!O248&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson17,'}}"</v>
+      </c>
       <c r="O248" s="2"/>
       <c r="P248" s="2"/>
       <c r="Q248" s="2"/>
@@ -50885,20 +54112,62 @@
       <c r="AA248" s="2"/>
     </row>
     <row r="249" spans="1:27" ht="15.75">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
-      <c r="G249" s="2"/>
-      <c r="H249" s="2"/>
-      <c r="I249" s="2"/>
-      <c r="J249" s="2"/>
-      <c r="K249" s="2"/>
-      <c r="L249" s="2"/>
-      <c r="M249" s="2"/>
-      <c r="N249" s="2"/>
+      <c r="A249" s="2" t="str">
+        <f>""""&amp;book_list!B249&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B249" s="2" t="str">
+        <f>""""&amp;book_list!C249&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C249" s="2" t="str">
+        <f>""""&amp;book_list!D249&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D249" s="2" t="str">
+        <f>""""&amp;book_list!E249&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E249" s="2" t="str">
+        <f>""""&amp;book_list!F249&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F249" s="2" t="str">
+        <f>""""&amp;book_list!G249&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G249" s="2" t="str">
+        <f>""""&amp;book_list!H249&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H249" s="2" t="str">
+        <f>""""&amp;book_list!I249&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I249" s="2" t="str">
+        <f>""""&amp;book_list!J249&amp;""""</f>
+        <v>"Bài 18"</v>
+      </c>
+      <c r="J249" s="2" t="str">
+        <f>""""&amp;book_list!K249&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K249" s="2" t="str">
+        <f>""""&amp;book_list!L249&amp;""""</f>
+        <v>"18"</v>
+      </c>
+      <c r="L249" s="2" t="str">
+        <f>""""&amp;book_list!M249&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M249" s="2" t="str">
+        <f>""""&amp;book_list!N249&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N249" s="2" t="str">
+        <f>""""&amp;book_list!O249&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson18,'}}"</v>
+      </c>
       <c r="O249" s="2"/>
       <c r="P249" s="2"/>
       <c r="Q249" s="2"/>
@@ -50914,20 +54183,62 @@
       <c r="AA249" s="2"/>
     </row>
     <row r="250" spans="1:27" ht="15.75">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
-      <c r="D250" s="2"/>
-      <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
-      <c r="G250" s="2"/>
-      <c r="H250" s="2"/>
-      <c r="I250" s="2"/>
-      <c r="J250" s="2"/>
-      <c r="K250" s="2"/>
-      <c r="L250" s="2"/>
-      <c r="M250" s="2"/>
-      <c r="N250" s="2"/>
+      <c r="A250" s="2" t="str">
+        <f>""""&amp;book_list!B250&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B250" s="2" t="str">
+        <f>""""&amp;book_list!C250&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C250" s="2" t="str">
+        <f>""""&amp;book_list!D250&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D250" s="2" t="str">
+        <f>""""&amp;book_list!E250&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E250" s="2" t="str">
+        <f>""""&amp;book_list!F250&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F250" s="2" t="str">
+        <f>""""&amp;book_list!G250&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G250" s="2" t="str">
+        <f>""""&amp;book_list!H250&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H250" s="2" t="str">
+        <f>""""&amp;book_list!I250&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I250" s="2" t="str">
+        <f>""""&amp;book_list!J250&amp;""""</f>
+        <v>"Bài 19"</v>
+      </c>
+      <c r="J250" s="2" t="str">
+        <f>""""&amp;book_list!K250&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K250" s="2" t="str">
+        <f>""""&amp;book_list!L250&amp;""""</f>
+        <v>"19"</v>
+      </c>
+      <c r="L250" s="2" t="str">
+        <f>""""&amp;book_list!M250&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M250" s="2" t="str">
+        <f>""""&amp;book_list!N250&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N250" s="2" t="str">
+        <f>""""&amp;book_list!O250&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson19,'}}"</v>
+      </c>
       <c r="O250" s="2"/>
       <c r="P250" s="2"/>
       <c r="Q250" s="2"/>
@@ -50943,20 +54254,62 @@
       <c r="AA250" s="2"/>
     </row>
     <row r="251" spans="1:27" ht="15.75">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="2"/>
-      <c r="J251" s="2"/>
-      <c r="K251" s="2"/>
-      <c r="L251" s="2"/>
-      <c r="M251" s="2"/>
-      <c r="N251" s="2"/>
+      <c r="A251" s="2" t="str">
+        <f>""""&amp;book_list!B251&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B251" s="2" t="str">
+        <f>""""&amp;book_list!C251&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C251" s="2" t="str">
+        <f>""""&amp;book_list!D251&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D251" s="2" t="str">
+        <f>""""&amp;book_list!E251&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E251" s="2" t="str">
+        <f>""""&amp;book_list!F251&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F251" s="2" t="str">
+        <f>""""&amp;book_list!G251&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G251" s="2" t="str">
+        <f>""""&amp;book_list!H251&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H251" s="2" t="str">
+        <f>""""&amp;book_list!I251&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I251" s="2" t="str">
+        <f>""""&amp;book_list!J251&amp;""""</f>
+        <v>"Bài 20"</v>
+      </c>
+      <c r="J251" s="2" t="str">
+        <f>""""&amp;book_list!K251&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K251" s="2" t="str">
+        <f>""""&amp;book_list!L251&amp;""""</f>
+        <v>"20"</v>
+      </c>
+      <c r="L251" s="2" t="str">
+        <f>""""&amp;book_list!M251&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M251" s="2" t="str">
+        <f>""""&amp;book_list!N251&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N251" s="2" t="str">
+        <f>""""&amp;book_list!O251&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson20,'}}"</v>
+      </c>
       <c r="O251" s="2"/>
       <c r="P251" s="2"/>
       <c r="Q251" s="2"/>
@@ -50972,20 +54325,62 @@
       <c r="AA251" s="2"/>
     </row>
     <row r="252" spans="1:27" ht="15.75">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
-      <c r="E252" s="2"/>
-      <c r="F252" s="2"/>
-      <c r="G252" s="2"/>
-      <c r="H252" s="2"/>
-      <c r="I252" s="2"/>
-      <c r="J252" s="2"/>
-      <c r="K252" s="2"/>
-      <c r="L252" s="2"/>
-      <c r="M252" s="2"/>
-      <c r="N252" s="2"/>
+      <c r="A252" s="2" t="str">
+        <f>""""&amp;book_list!B252&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B252" s="2" t="str">
+        <f>""""&amp;book_list!C252&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C252" s="2" t="str">
+        <f>""""&amp;book_list!D252&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D252" s="2" t="str">
+        <f>""""&amp;book_list!E252&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E252" s="2" t="str">
+        <f>""""&amp;book_list!F252&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F252" s="2" t="str">
+        <f>""""&amp;book_list!G252&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G252" s="2" t="str">
+        <f>""""&amp;book_list!H252&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H252" s="2" t="str">
+        <f>""""&amp;book_list!I252&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I252" s="2" t="str">
+        <f>""""&amp;book_list!J252&amp;""""</f>
+        <v>"Bài 21"</v>
+      </c>
+      <c r="J252" s="2" t="str">
+        <f>""""&amp;book_list!K252&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K252" s="2" t="str">
+        <f>""""&amp;book_list!L252&amp;""""</f>
+        <v>"21"</v>
+      </c>
+      <c r="L252" s="2" t="str">
+        <f>""""&amp;book_list!M252&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M252" s="2" t="str">
+        <f>""""&amp;book_list!N252&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N252" s="2" t="str">
+        <f>""""&amp;book_list!O252&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson21,'}}"</v>
+      </c>
       <c r="O252" s="2"/>
       <c r="P252" s="2"/>
       <c r="Q252" s="2"/>
@@ -51001,20 +54396,62 @@
       <c r="AA252" s="2"/>
     </row>
     <row r="253" spans="1:27" ht="15.75">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
-      <c r="G253" s="2"/>
-      <c r="H253" s="2"/>
-      <c r="I253" s="2"/>
-      <c r="J253" s="2"/>
-      <c r="K253" s="2"/>
-      <c r="L253" s="2"/>
-      <c r="M253" s="2"/>
-      <c r="N253" s="2"/>
+      <c r="A253" s="2" t="str">
+        <f>""""&amp;book_list!B253&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B253" s="2" t="str">
+        <f>""""&amp;book_list!C253&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C253" s="2" t="str">
+        <f>""""&amp;book_list!D253&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D253" s="2" t="str">
+        <f>""""&amp;book_list!E253&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E253" s="2" t="str">
+        <f>""""&amp;book_list!F253&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F253" s="2" t="str">
+        <f>""""&amp;book_list!G253&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G253" s="2" t="str">
+        <f>""""&amp;book_list!H253&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H253" s="2" t="str">
+        <f>""""&amp;book_list!I253&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I253" s="2" t="str">
+        <f>""""&amp;book_list!J253&amp;""""</f>
+        <v>"Bài 22"</v>
+      </c>
+      <c r="J253" s="2" t="str">
+        <f>""""&amp;book_list!K253&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K253" s="2" t="str">
+        <f>""""&amp;book_list!L253&amp;""""</f>
+        <v>"22"</v>
+      </c>
+      <c r="L253" s="2" t="str">
+        <f>""""&amp;book_list!M253&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M253" s="2" t="str">
+        <f>""""&amp;book_list!N253&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N253" s="2" t="str">
+        <f>""""&amp;book_list!O253&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson22,'}}"</v>
+      </c>
       <c r="O253" s="2"/>
       <c r="P253" s="2"/>
       <c r="Q253" s="2"/>
@@ -51030,20 +54467,62 @@
       <c r="AA253" s="2"/>
     </row>
     <row r="254" spans="1:27" ht="15.75">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
-      <c r="F254" s="2"/>
-      <c r="G254" s="2"/>
-      <c r="H254" s="2"/>
-      <c r="I254" s="2"/>
-      <c r="J254" s="2"/>
-      <c r="K254" s="2"/>
-      <c r="L254" s="2"/>
-      <c r="M254" s="2"/>
-      <c r="N254" s="2"/>
+      <c r="A254" s="2" t="str">
+        <f>""""&amp;book_list!B254&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B254" s="2" t="str">
+        <f>""""&amp;book_list!C254&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C254" s="2" t="str">
+        <f>""""&amp;book_list!D254&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D254" s="2" t="str">
+        <f>""""&amp;book_list!E254&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E254" s="2" t="str">
+        <f>""""&amp;book_list!F254&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F254" s="2" t="str">
+        <f>""""&amp;book_list!G254&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G254" s="2" t="str">
+        <f>""""&amp;book_list!H254&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H254" s="2" t="str">
+        <f>""""&amp;book_list!I254&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I254" s="2" t="str">
+        <f>""""&amp;book_list!J254&amp;""""</f>
+        <v>"Bài 23"</v>
+      </c>
+      <c r="J254" s="2" t="str">
+        <f>""""&amp;book_list!K254&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K254" s="2" t="str">
+        <f>""""&amp;book_list!L254&amp;""""</f>
+        <v>"23"</v>
+      </c>
+      <c r="L254" s="2" t="str">
+        <f>""""&amp;book_list!M254&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M254" s="2" t="str">
+        <f>""""&amp;book_list!N254&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N254" s="2" t="str">
+        <f>""""&amp;book_list!O254&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson23,'}}"</v>
+      </c>
       <c r="O254" s="2"/>
       <c r="P254" s="2"/>
       <c r="Q254" s="2"/>
@@ -51059,20 +54538,62 @@
       <c r="AA254" s="2"/>
     </row>
     <row r="255" spans="1:27" ht="15.75">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
-      <c r="F255" s="2"/>
-      <c r="G255" s="2"/>
-      <c r="H255" s="2"/>
-      <c r="I255" s="2"/>
-      <c r="J255" s="2"/>
-      <c r="K255" s="2"/>
-      <c r="L255" s="2"/>
-      <c r="M255" s="2"/>
-      <c r="N255" s="2"/>
+      <c r="A255" s="2" t="str">
+        <f>""""&amp;book_list!B255&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B255" s="2" t="str">
+        <f>""""&amp;book_list!C255&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C255" s="2" t="str">
+        <f>""""&amp;book_list!D255&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D255" s="2" t="str">
+        <f>""""&amp;book_list!E255&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E255" s="2" t="str">
+        <f>""""&amp;book_list!F255&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F255" s="2" t="str">
+        <f>""""&amp;book_list!G255&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G255" s="2" t="str">
+        <f>""""&amp;book_list!H255&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H255" s="2" t="str">
+        <f>""""&amp;book_list!I255&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I255" s="2" t="str">
+        <f>""""&amp;book_list!J255&amp;""""</f>
+        <v>"Bài 24"</v>
+      </c>
+      <c r="J255" s="2" t="str">
+        <f>""""&amp;book_list!K255&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K255" s="2" t="str">
+        <f>""""&amp;book_list!L255&amp;""""</f>
+        <v>"24"</v>
+      </c>
+      <c r="L255" s="2" t="str">
+        <f>""""&amp;book_list!M255&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M255" s="2" t="str">
+        <f>""""&amp;book_list!N255&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N255" s="2" t="str">
+        <f>""""&amp;book_list!O255&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson24,'}}"</v>
+      </c>
       <c r="O255" s="2"/>
       <c r="P255" s="2"/>
       <c r="Q255" s="2"/>
@@ -51088,20 +54609,62 @@
       <c r="AA255" s="2"/>
     </row>
     <row r="256" spans="1:27" ht="15.75">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
-      <c r="F256" s="2"/>
-      <c r="G256" s="2"/>
-      <c r="H256" s="2"/>
-      <c r="I256" s="2"/>
-      <c r="J256" s="2"/>
-      <c r="K256" s="2"/>
-      <c r="L256" s="2"/>
-      <c r="M256" s="2"/>
-      <c r="N256" s="2"/>
+      <c r="A256" s="2" t="str">
+        <f>""""&amp;book_list!B256&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B256" s="2" t="str">
+        <f>""""&amp;book_list!C256&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C256" s="2" t="str">
+        <f>""""&amp;book_list!D256&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D256" s="2" t="str">
+        <f>""""&amp;book_list!E256&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E256" s="2" t="str">
+        <f>""""&amp;book_list!F256&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F256" s="2" t="str">
+        <f>""""&amp;book_list!G256&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G256" s="2" t="str">
+        <f>""""&amp;book_list!H256&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H256" s="2" t="str">
+        <f>""""&amp;book_list!I256&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I256" s="2" t="str">
+        <f>""""&amp;book_list!J256&amp;""""</f>
+        <v>"Bài 25"</v>
+      </c>
+      <c r="J256" s="2" t="str">
+        <f>""""&amp;book_list!K256&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K256" s="2" t="str">
+        <f>""""&amp;book_list!L256&amp;""""</f>
+        <v>"25"</v>
+      </c>
+      <c r="L256" s="2" t="str">
+        <f>""""&amp;book_list!M256&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M256" s="2" t="str">
+        <f>""""&amp;book_list!N256&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N256" s="2" t="str">
+        <f>""""&amp;book_list!O256&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson25,'}}"</v>
+      </c>
       <c r="O256" s="2"/>
       <c r="P256" s="2"/>
       <c r="Q256" s="2"/>
@@ -51117,20 +54680,62 @@
       <c r="AA256" s="2"/>
     </row>
     <row r="257" spans="1:27" ht="15.75">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
-      <c r="E257" s="2"/>
-      <c r="F257" s="2"/>
-      <c r="G257" s="2"/>
-      <c r="H257" s="2"/>
-      <c r="I257" s="2"/>
-      <c r="J257" s="2"/>
-      <c r="K257" s="2"/>
-      <c r="L257" s="2"/>
-      <c r="M257" s="2"/>
-      <c r="N257" s="2"/>
+      <c r="A257" s="2" t="str">
+        <f>""""&amp;book_list!B257&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B257" s="2" t="str">
+        <f>""""&amp;book_list!C257&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C257" s="2" t="str">
+        <f>""""&amp;book_list!D257&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D257" s="2" t="str">
+        <f>""""&amp;book_list!E257&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E257" s="2" t="str">
+        <f>""""&amp;book_list!F257&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F257" s="2" t="str">
+        <f>""""&amp;book_list!G257&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G257" s="2" t="str">
+        <f>""""&amp;book_list!H257&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H257" s="2" t="str">
+        <f>""""&amp;book_list!I257&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I257" s="2" t="str">
+        <f>""""&amp;book_list!J257&amp;""""</f>
+        <v>"Bài 26"</v>
+      </c>
+      <c r="J257" s="2" t="str">
+        <f>""""&amp;book_list!K257&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K257" s="2" t="str">
+        <f>""""&amp;book_list!L257&amp;""""</f>
+        <v>"26"</v>
+      </c>
+      <c r="L257" s="2" t="str">
+        <f>""""&amp;book_list!M257&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M257" s="2" t="str">
+        <f>""""&amp;book_list!N257&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N257" s="2" t="str">
+        <f>""""&amp;book_list!O257&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson26,'}}"</v>
+      </c>
       <c r="O257" s="2"/>
       <c r="P257" s="2"/>
       <c r="Q257" s="2"/>
@@ -51146,20 +54751,62 @@
       <c r="AA257" s="2"/>
     </row>
     <row r="258" spans="1:27" ht="15.75">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
-      <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
-      <c r="F258" s="2"/>
-      <c r="G258" s="2"/>
-      <c r="H258" s="2"/>
-      <c r="I258" s="2"/>
-      <c r="J258" s="2"/>
-      <c r="K258" s="2"/>
-      <c r="L258" s="2"/>
-      <c r="M258" s="2"/>
-      <c r="N258" s="2"/>
+      <c r="A258" s="2" t="str">
+        <f>""""&amp;book_list!B258&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B258" s="2" t="str">
+        <f>""""&amp;book_list!C258&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C258" s="2" t="str">
+        <f>""""&amp;book_list!D258&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D258" s="2" t="str">
+        <f>""""&amp;book_list!E258&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E258" s="2" t="str">
+        <f>""""&amp;book_list!F258&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F258" s="2" t="str">
+        <f>""""&amp;book_list!G258&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G258" s="2" t="str">
+        <f>""""&amp;book_list!H258&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H258" s="2" t="str">
+        <f>""""&amp;book_list!I258&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I258" s="2" t="str">
+        <f>""""&amp;book_list!J258&amp;""""</f>
+        <v>"Bài 27"</v>
+      </c>
+      <c r="J258" s="2" t="str">
+        <f>""""&amp;book_list!K258&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K258" s="2" t="str">
+        <f>""""&amp;book_list!L258&amp;""""</f>
+        <v>"27"</v>
+      </c>
+      <c r="L258" s="2" t="str">
+        <f>""""&amp;book_list!M258&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M258" s="2" t="str">
+        <f>""""&amp;book_list!N258&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N258" s="2" t="str">
+        <f>""""&amp;book_list!O258&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson27,'}}"</v>
+      </c>
       <c r="O258" s="2"/>
       <c r="P258" s="2"/>
       <c r="Q258" s="2"/>
@@ -51175,20 +54822,62 @@
       <c r="AA258" s="2"/>
     </row>
     <row r="259" spans="1:27" ht="15.75">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
-      <c r="E259" s="2"/>
-      <c r="F259" s="2"/>
-      <c r="G259" s="2"/>
-      <c r="H259" s="2"/>
-      <c r="I259" s="2"/>
-      <c r="J259" s="2"/>
-      <c r="K259" s="2"/>
-      <c r="L259" s="2"/>
-      <c r="M259" s="2"/>
-      <c r="N259" s="2"/>
+      <c r="A259" s="2" t="str">
+        <f>""""&amp;book_list!B259&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B259" s="2" t="str">
+        <f>""""&amp;book_list!C259&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C259" s="2" t="str">
+        <f>""""&amp;book_list!D259&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D259" s="2" t="str">
+        <f>""""&amp;book_list!E259&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E259" s="2" t="str">
+        <f>""""&amp;book_list!F259&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F259" s="2" t="str">
+        <f>""""&amp;book_list!G259&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G259" s="2" t="str">
+        <f>""""&amp;book_list!H259&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H259" s="2" t="str">
+        <f>""""&amp;book_list!I259&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I259" s="2" t="str">
+        <f>""""&amp;book_list!J259&amp;""""</f>
+        <v>"Bài 28"</v>
+      </c>
+      <c r="J259" s="2" t="str">
+        <f>""""&amp;book_list!K259&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K259" s="2" t="str">
+        <f>""""&amp;book_list!L259&amp;""""</f>
+        <v>"28"</v>
+      </c>
+      <c r="L259" s="2" t="str">
+        <f>""""&amp;book_list!M259&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M259" s="2" t="str">
+        <f>""""&amp;book_list!N259&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N259" s="2" t="str">
+        <f>""""&amp;book_list!O259&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson28,'}}"</v>
+      </c>
       <c r="O259" s="2"/>
       <c r="P259" s="2"/>
       <c r="Q259" s="2"/>
@@ -51204,20 +54893,62 @@
       <c r="AA259" s="2"/>
     </row>
     <row r="260" spans="1:27" ht="15.75">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
-      <c r="F260" s="2"/>
-      <c r="G260" s="2"/>
-      <c r="H260" s="2"/>
-      <c r="I260" s="2"/>
-      <c r="J260" s="2"/>
-      <c r="K260" s="2"/>
-      <c r="L260" s="2"/>
-      <c r="M260" s="2"/>
-      <c r="N260" s="2"/>
+      <c r="A260" s="2" t="str">
+        <f>""""&amp;book_list!B260&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B260" s="2" t="str">
+        <f>""""&amp;book_list!C260&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C260" s="2" t="str">
+        <f>""""&amp;book_list!D260&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D260" s="2" t="str">
+        <f>""""&amp;book_list!E260&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E260" s="2" t="str">
+        <f>""""&amp;book_list!F260&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F260" s="2" t="str">
+        <f>""""&amp;book_list!G260&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G260" s="2" t="str">
+        <f>""""&amp;book_list!H260&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H260" s="2" t="str">
+        <f>""""&amp;book_list!I260&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I260" s="2" t="str">
+        <f>""""&amp;book_list!J260&amp;""""</f>
+        <v>"Bài 29"</v>
+      </c>
+      <c r="J260" s="2" t="str">
+        <f>""""&amp;book_list!K260&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K260" s="2" t="str">
+        <f>""""&amp;book_list!L260&amp;""""</f>
+        <v>"29"</v>
+      </c>
+      <c r="L260" s="2" t="str">
+        <f>""""&amp;book_list!M260&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M260" s="2" t="str">
+        <f>""""&amp;book_list!N260&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N260" s="2" t="str">
+        <f>""""&amp;book_list!O260&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson29,'}}"</v>
+      </c>
       <c r="O260" s="2"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
@@ -51233,20 +54964,62 @@
       <c r="AA260" s="2"/>
     </row>
     <row r="261" spans="1:27" ht="15.75">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
-      <c r="D261" s="2"/>
-      <c r="E261" s="2"/>
-      <c r="F261" s="2"/>
-      <c r="G261" s="2"/>
-      <c r="H261" s="2"/>
-      <c r="I261" s="2"/>
-      <c r="J261" s="2"/>
-      <c r="K261" s="2"/>
-      <c r="L261" s="2"/>
-      <c r="M261" s="2"/>
-      <c r="N261" s="2"/>
+      <c r="A261" s="2" t="str">
+        <f>""""&amp;book_list!B261&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B261" s="2" t="str">
+        <f>""""&amp;book_list!C261&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C261" s="2" t="str">
+        <f>""""&amp;book_list!D261&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D261" s="2" t="str">
+        <f>""""&amp;book_list!E261&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E261" s="2" t="str">
+        <f>""""&amp;book_list!F261&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F261" s="2" t="str">
+        <f>""""&amp;book_list!G261&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G261" s="2" t="str">
+        <f>""""&amp;book_list!H261&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H261" s="2" t="str">
+        <f>""""&amp;book_list!I261&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I261" s="2" t="str">
+        <f>""""&amp;book_list!J261&amp;""""</f>
+        <v>"Bài 30"</v>
+      </c>
+      <c r="J261" s="2" t="str">
+        <f>""""&amp;book_list!K261&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K261" s="2" t="str">
+        <f>""""&amp;book_list!L261&amp;""""</f>
+        <v>"30"</v>
+      </c>
+      <c r="L261" s="2" t="str">
+        <f>""""&amp;book_list!M261&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M261" s="2" t="str">
+        <f>""""&amp;book_list!N261&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N261" s="2" t="str">
+        <f>""""&amp;book_list!O261&amp;""""</f>
+        <v>"{'level': 'N4', 'tag' : {'contains':',jlptkanji,lesson30,'}}"</v>
+      </c>
       <c r="O261" s="2"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
@@ -51262,20 +55035,62 @@
       <c r="AA261" s="2"/>
     </row>
     <row r="262" spans="1:27" ht="15.75">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
-      <c r="G262" s="2"/>
-      <c r="H262" s="2"/>
-      <c r="I262" s="2"/>
-      <c r="J262" s="2"/>
-      <c r="K262" s="2"/>
-      <c r="L262" s="2"/>
-      <c r="M262" s="2"/>
-      <c r="N262" s="2"/>
+      <c r="A262" s="2" t="str">
+        <f>""""&amp;book_list!B262&amp;""""</f>
+        <v>"Kanji N5"</v>
+      </c>
+      <c r="B262" s="2" t="str">
+        <f>""""&amp;book_list!C262&amp;""""</f>
+        <v>"Kanji N5 dựa theo chuẩn của JLPT"</v>
+      </c>
+      <c r="C262" s="2" t="str">
+        <f>""""&amp;book_list!D262&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="D262" s="2" t="str">
+        <f>""""&amp;book_list!E262&amp;""""</f>
+        <v>"N5"</v>
+      </c>
+      <c r="E262" s="2" t="str">
+        <f>""""&amp;book_list!F262&amp;""""</f>
+        <v>"17"</v>
+      </c>
+      <c r="F262" s="2" t="str">
+        <f>""""&amp;book_list!G262&amp;""""</f>
+        <v>"17"</v>
+      </c>
+      <c r="G262" s="2" t="str">
+        <f>""""&amp;book_list!H262&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H262" s="2" t="str">
+        <f>""""&amp;book_list!I262&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I262" s="2" t="str">
+        <f>""""&amp;book_list!J262&amp;""""</f>
+        <v>"Bài 1"</v>
+      </c>
+      <c r="J262" s="2" t="str">
+        <f>""""&amp;book_list!K262&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K262" s="2" t="str">
+        <f>""""&amp;book_list!L262&amp;""""</f>
+        <v>"1"</v>
+      </c>
+      <c r="L262" s="2" t="str">
+        <f>""""&amp;book_list!M262&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M262" s="2" t="str">
+        <f>""""&amp;book_list!N262&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N262" s="2" t="str">
+        <f>""""&amp;book_list!O262&amp;""""</f>
+        <v>"{'level': 'N5', 'tag' : {'contains':',jlptkanji,lesson1,'}}"</v>
+      </c>
       <c r="O262" s="2"/>
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
@@ -51291,20 +55106,62 @@
       <c r="AA262" s="2"/>
     </row>
     <row r="263" spans="1:27" ht="15.75">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
-      <c r="J263" s="2"/>
-      <c r="K263" s="2"/>
-      <c r="L263" s="2"/>
-      <c r="M263" s="2"/>
-      <c r="N263" s="2"/>
+      <c r="A263" s="2" t="str">
+        <f>""""&amp;book_list!B263&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B263" s="2" t="str">
+        <f>""""&amp;book_list!C263&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C263" s="2" t="str">
+        <f>""""&amp;book_list!D263&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D263" s="2" t="str">
+        <f>""""&amp;book_list!E263&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E263" s="2" t="str">
+        <f>""""&amp;book_list!F263&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F263" s="2" t="str">
+        <f>""""&amp;book_list!G263&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G263" s="2" t="str">
+        <f>""""&amp;book_list!H263&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H263" s="2" t="str">
+        <f>""""&amp;book_list!I263&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I263" s="2" t="str">
+        <f>""""&amp;book_list!J263&amp;""""</f>
+        <v>"Bài 2"</v>
+      </c>
+      <c r="J263" s="2" t="str">
+        <f>""""&amp;book_list!K263&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K263" s="2" t="str">
+        <f>""""&amp;book_list!L263&amp;""""</f>
+        <v>"2"</v>
+      </c>
+      <c r="L263" s="2" t="str">
+        <f>""""&amp;book_list!M263&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M263" s="2" t="str">
+        <f>""""&amp;book_list!N263&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N263" s="2" t="str">
+        <f>""""&amp;book_list!O263&amp;""""</f>
+        <v>"{'level': 'N5', 'tag' : {'contains':',jlptkanji,lesson2,'}}"</v>
+      </c>
       <c r="O263" s="2"/>
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
@@ -51320,20 +55177,62 @@
       <c r="AA263" s="2"/>
     </row>
     <row r="264" spans="1:27" ht="15.75">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-      <c r="I264" s="2"/>
-      <c r="J264" s="2"/>
-      <c r="K264" s="2"/>
-      <c r="L264" s="2"/>
-      <c r="M264" s="2"/>
-      <c r="N264" s="2"/>
+      <c r="A264" s="2" t="str">
+        <f>""""&amp;book_list!B264&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B264" s="2" t="str">
+        <f>""""&amp;book_list!C264&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C264" s="2" t="str">
+        <f>""""&amp;book_list!D264&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D264" s="2" t="str">
+        <f>""""&amp;book_list!E264&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E264" s="2" t="str">
+        <f>""""&amp;book_list!F264&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F264" s="2" t="str">
+        <f>""""&amp;book_list!G264&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G264" s="2" t="str">
+        <f>""""&amp;book_list!H264&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H264" s="2" t="str">
+        <f>""""&amp;book_list!I264&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I264" s="2" t="str">
+        <f>""""&amp;book_list!J264&amp;""""</f>
+        <v>"Bài 3"</v>
+      </c>
+      <c r="J264" s="2" t="str">
+        <f>""""&amp;book_list!K264&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K264" s="2" t="str">
+        <f>""""&amp;book_list!L264&amp;""""</f>
+        <v>"3"</v>
+      </c>
+      <c r="L264" s="2" t="str">
+        <f>""""&amp;book_list!M264&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M264" s="2" t="str">
+        <f>""""&amp;book_list!N264&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N264" s="2" t="str">
+        <f>""""&amp;book_list!O264&amp;""""</f>
+        <v>"{'level': 'N5', 'tag' : {'contains':',jlptkanji,lesson3,'}}"</v>
+      </c>
       <c r="O264" s="2"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
@@ -51349,20 +55248,62 @@
       <c r="AA264" s="2"/>
     </row>
     <row r="265" spans="1:27" ht="15.75">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
-      <c r="E265" s="2"/>
-      <c r="F265" s="2"/>
-      <c r="G265" s="2"/>
-      <c r="H265" s="2"/>
-      <c r="I265" s="2"/>
-      <c r="J265" s="2"/>
-      <c r="K265" s="2"/>
-      <c r="L265" s="2"/>
-      <c r="M265" s="2"/>
-      <c r="N265" s="2"/>
+      <c r="A265" s="2" t="str">
+        <f>""""&amp;book_list!B265&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B265" s="2" t="str">
+        <f>""""&amp;book_list!C265&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C265" s="2" t="str">
+        <f>""""&amp;book_list!D265&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D265" s="2" t="str">
+        <f>""""&amp;book_list!E265&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E265" s="2" t="str">
+        <f>""""&amp;book_list!F265&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F265" s="2" t="str">
+        <f>""""&amp;book_list!G265&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G265" s="2" t="str">
+        <f>""""&amp;book_list!H265&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H265" s="2" t="str">
+        <f>""""&amp;book_list!I265&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I265" s="2" t="str">
+        <f>""""&amp;book_list!J265&amp;""""</f>
+        <v>"Bài 4"</v>
+      </c>
+      <c r="J265" s="2" t="str">
+        <f>""""&amp;book_list!K265&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K265" s="2" t="str">
+        <f>""""&amp;book_list!L265&amp;""""</f>
+        <v>"4"</v>
+      </c>
+      <c r="L265" s="2" t="str">
+        <f>""""&amp;book_list!M265&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M265" s="2" t="str">
+        <f>""""&amp;book_list!N265&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N265" s="2" t="str">
+        <f>""""&amp;book_list!O265&amp;""""</f>
+        <v>"{'level': 'N5', 'tag' : {'contains':',jlptkanji,lesson4,'}}"</v>
+      </c>
       <c r="O265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
@@ -51378,20 +55319,62 @@
       <c r="AA265" s="2"/>
     </row>
     <row r="266" spans="1:27" ht="15.75">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
-      <c r="E266" s="2"/>
-      <c r="F266" s="2"/>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2"/>
-      <c r="I266" s="2"/>
-      <c r="J266" s="2"/>
-      <c r="K266" s="2"/>
-      <c r="L266" s="2"/>
-      <c r="M266" s="2"/>
-      <c r="N266" s="2"/>
+      <c r="A266" s="2" t="str">
+        <f>""""&amp;book_list!B266&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B266" s="2" t="str">
+        <f>""""&amp;book_list!C266&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C266" s="2" t="str">
+        <f>""""&amp;book_list!D266&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D266" s="2" t="str">
+        <f>""""&amp;book_list!E266&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E266" s="2" t="str">
+        <f>""""&amp;book_list!F266&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F266" s="2" t="str">
+        <f>""""&amp;book_list!G266&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G266" s="2" t="str">
+        <f>""""&amp;book_list!H266&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H266" s="2" t="str">
+        <f>""""&amp;book_list!I266&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I266" s="2" t="str">
+        <f>""""&amp;book_list!J266&amp;""""</f>
+        <v>"Bài 5"</v>
+      </c>
+      <c r="J266" s="2" t="str">
+        <f>""""&amp;book_list!K266&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K266" s="2" t="str">
+        <f>""""&amp;book_list!L266&amp;""""</f>
+        <v>"5"</v>
+      </c>
+      <c r="L266" s="2" t="str">
+        <f>""""&amp;book_list!M266&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M266" s="2" t="str">
+        <f>""""&amp;book_list!N266&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N266" s="2" t="str">
+        <f>""""&amp;book_list!O266&amp;""""</f>
+        <v>"{'level': 'N5', 'tag' : {'contains':',jlptkanji,lesson5,'}}"</v>
+      </c>
       <c r="O266" s="2"/>
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
@@ -51407,20 +55390,62 @@
       <c r="AA266" s="2"/>
     </row>
     <row r="267" spans="1:27" ht="15.75">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2"/>
-      <c r="I267" s="2"/>
-      <c r="J267" s="2"/>
-      <c r="K267" s="2"/>
-      <c r="L267" s="2"/>
-      <c r="M267" s="2"/>
-      <c r="N267" s="2"/>
+      <c r="A267" s="2" t="str">
+        <f>""""&amp;book_list!B267&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B267" s="2" t="str">
+        <f>""""&amp;book_list!C267&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C267" s="2" t="str">
+        <f>""""&amp;book_list!D267&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D267" s="2" t="str">
+        <f>""""&amp;book_list!E267&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E267" s="2" t="str">
+        <f>""""&amp;book_list!F267&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F267" s="2" t="str">
+        <f>""""&amp;book_list!G267&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G267" s="2" t="str">
+        <f>""""&amp;book_list!H267&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H267" s="2" t="str">
+        <f>""""&amp;book_list!I267&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I267" s="2" t="str">
+        <f>""""&amp;book_list!J267&amp;""""</f>
+        <v>"Bài 6"</v>
+      </c>
+      <c r="J267" s="2" t="str">
+        <f>""""&amp;book_list!K267&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K267" s="2" t="str">
+        <f>""""&amp;book_list!L267&amp;""""</f>
+        <v>"6"</v>
+      </c>
+      <c r="L267" s="2" t="str">
+        <f>""""&amp;book_list!M267&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M267" s="2" t="str">
+        <f>""""&amp;book_list!N267&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N267" s="2" t="str">
+        <f>""""&amp;book_list!O267&amp;""""</f>
+        <v>"{'level': 'N5', 'tag' : {'contains':',jlptkanji,lesson6,'}}"</v>
+      </c>
       <c r="O267" s="2"/>
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
@@ -51436,20 +55461,62 @@
       <c r="AA267" s="2"/>
     </row>
     <row r="268" spans="1:27" ht="15.75">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2"/>
-      <c r="I268" s="2"/>
-      <c r="J268" s="2"/>
-      <c r="K268" s="2"/>
-      <c r="L268" s="2"/>
-      <c r="M268" s="2"/>
-      <c r="N268" s="2"/>
+      <c r="A268" s="2" t="str">
+        <f>""""&amp;book_list!B268&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B268" s="2" t="str">
+        <f>""""&amp;book_list!C268&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C268" s="2" t="str">
+        <f>""""&amp;book_list!D268&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D268" s="2" t="str">
+        <f>""""&amp;book_list!E268&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E268" s="2" t="str">
+        <f>""""&amp;book_list!F268&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F268" s="2" t="str">
+        <f>""""&amp;book_list!G268&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G268" s="2" t="str">
+        <f>""""&amp;book_list!H268&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H268" s="2" t="str">
+        <f>""""&amp;book_list!I268&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I268" s="2" t="str">
+        <f>""""&amp;book_list!J268&amp;""""</f>
+        <v>"Bài 7"</v>
+      </c>
+      <c r="J268" s="2" t="str">
+        <f>""""&amp;book_list!K268&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K268" s="2" t="str">
+        <f>""""&amp;book_list!L268&amp;""""</f>
+        <v>"7"</v>
+      </c>
+      <c r="L268" s="2" t="str">
+        <f>""""&amp;book_list!M268&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M268" s="2" t="str">
+        <f>""""&amp;book_list!N268&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N268" s="2" t="str">
+        <f>""""&amp;book_list!O268&amp;""""</f>
+        <v>"{'level': 'N5', 'tag' : {'contains':',jlptkanji,lesson7,'}}"</v>
+      </c>
       <c r="O268" s="2"/>
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
@@ -51465,20 +55532,62 @@
       <c r="AA268" s="2"/>
     </row>
     <row r="269" spans="1:27" ht="15.75">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2"/>
-      <c r="I269" s="2"/>
-      <c r="J269" s="2"/>
-      <c r="K269" s="2"/>
-      <c r="L269" s="2"/>
-      <c r="M269" s="2"/>
-      <c r="N269" s="2"/>
+      <c r="A269" s="2" t="str">
+        <f>""""&amp;book_list!B269&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B269" s="2" t="str">
+        <f>""""&amp;book_list!C269&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C269" s="2" t="str">
+        <f>""""&amp;book_list!D269&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D269" s="2" t="str">
+        <f>""""&amp;book_list!E269&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E269" s="2" t="str">
+        <f>""""&amp;book_list!F269&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F269" s="2" t="str">
+        <f>""""&amp;book_list!G269&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G269" s="2" t="str">
+        <f>""""&amp;book_list!H269&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H269" s="2" t="str">
+        <f>""""&amp;book_list!I269&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I269" s="2" t="str">
+        <f>""""&amp;book_list!J269&amp;""""</f>
+        <v>"Bài 8"</v>
+      </c>
+      <c r="J269" s="2" t="str">
+        <f>""""&amp;book_list!K269&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K269" s="2" t="str">
+        <f>""""&amp;book_list!L269&amp;""""</f>
+        <v>"8"</v>
+      </c>
+      <c r="L269" s="2" t="str">
+        <f>""""&amp;book_list!M269&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M269" s="2" t="str">
+        <f>""""&amp;book_list!N269&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N269" s="2" t="str">
+        <f>""""&amp;book_list!O269&amp;""""</f>
+        <v>"{'level': 'N5', 'tag' : {'contains':',jlptkanji,lesson8,'}}"</v>
+      </c>
       <c r="O269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
@@ -51494,20 +55603,62 @@
       <c r="AA269" s="2"/>
     </row>
     <row r="270" spans="1:27" ht="15.75">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
-      <c r="G270" s="2"/>
-      <c r="H270" s="2"/>
-      <c r="I270" s="2"/>
-      <c r="J270" s="2"/>
-      <c r="K270" s="2"/>
-      <c r="L270" s="2"/>
-      <c r="M270" s="2"/>
-      <c r="N270" s="2"/>
+      <c r="A270" s="2" t="str">
+        <f>""""&amp;book_list!B270&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B270" s="2" t="str">
+        <f>""""&amp;book_list!C270&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C270" s="2" t="str">
+        <f>""""&amp;book_list!D270&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D270" s="2" t="str">
+        <f>""""&amp;book_list!E270&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E270" s="2" t="str">
+        <f>""""&amp;book_list!F270&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F270" s="2" t="str">
+        <f>""""&amp;book_list!G270&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G270" s="2" t="str">
+        <f>""""&amp;book_list!H270&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H270" s="2" t="str">
+        <f>""""&amp;book_list!I270&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I270" s="2" t="str">
+        <f>""""&amp;book_list!J270&amp;""""</f>
+        <v>"Bài 9"</v>
+      </c>
+      <c r="J270" s="2" t="str">
+        <f>""""&amp;book_list!K270&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K270" s="2" t="str">
+        <f>""""&amp;book_list!L270&amp;""""</f>
+        <v>"9"</v>
+      </c>
+      <c r="L270" s="2" t="str">
+        <f>""""&amp;book_list!M270&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M270" s="2" t="str">
+        <f>""""&amp;book_list!N270&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N270" s="2" t="str">
+        <f>""""&amp;book_list!O270&amp;""""</f>
+        <v>"{'level': 'N5', 'tag' : {'contains':',jlptkanji,lesson9,'}}"</v>
+      </c>
       <c r="O270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
@@ -51523,20 +55674,62 @@
       <c r="AA270" s="2"/>
     </row>
     <row r="271" spans="1:27" ht="15.75">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="2"/>
-      <c r="J271" s="2"/>
-      <c r="K271" s="2"/>
-      <c r="L271" s="2"/>
-      <c r="M271" s="2"/>
-      <c r="N271" s="2"/>
+      <c r="A271" s="2" t="str">
+        <f>""""&amp;book_list!B271&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B271" s="2" t="str">
+        <f>""""&amp;book_list!C271&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C271" s="2" t="str">
+        <f>""""&amp;book_list!D271&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D271" s="2" t="str">
+        <f>""""&amp;book_list!E271&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E271" s="2" t="str">
+        <f>""""&amp;book_list!F271&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F271" s="2" t="str">
+        <f>""""&amp;book_list!G271&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G271" s="2" t="str">
+        <f>""""&amp;book_list!H271&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H271" s="2" t="str">
+        <f>""""&amp;book_list!I271&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I271" s="2" t="str">
+        <f>""""&amp;book_list!J271&amp;""""</f>
+        <v>"Bài 10"</v>
+      </c>
+      <c r="J271" s="2" t="str">
+        <f>""""&amp;book_list!K271&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K271" s="2" t="str">
+        <f>""""&amp;book_list!L271&amp;""""</f>
+        <v>"10"</v>
+      </c>
+      <c r="L271" s="2" t="str">
+        <f>""""&amp;book_list!M271&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M271" s="2" t="str">
+        <f>""""&amp;book_list!N271&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N271" s="2" t="str">
+        <f>""""&amp;book_list!O271&amp;""""</f>
+        <v>"{'level': 'N5', 'tag' : {'contains':',jlptkanji,lesson10,'}}"</v>
+      </c>
       <c r="O271" s="2"/>
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
@@ -51552,20 +55745,62 @@
       <c r="AA271" s="2"/>
     </row>
     <row r="272" spans="1:27" ht="15.75">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
-      <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
-      <c r="G272" s="2"/>
-      <c r="H272" s="2"/>
-      <c r="I272" s="2"/>
-      <c r="J272" s="2"/>
-      <c r="K272" s="2"/>
-      <c r="L272" s="2"/>
-      <c r="M272" s="2"/>
-      <c r="N272" s="2"/>
+      <c r="A272" s="2" t="str">
+        <f>""""&amp;book_list!B272&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B272" s="2" t="str">
+        <f>""""&amp;book_list!C272&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C272" s="2" t="str">
+        <f>""""&amp;book_list!D272&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D272" s="2" t="str">
+        <f>""""&amp;book_list!E272&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E272" s="2" t="str">
+        <f>""""&amp;book_list!F272&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F272" s="2" t="str">
+        <f>""""&amp;book_list!G272&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G272" s="2" t="str">
+        <f>""""&amp;book_list!H272&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H272" s="2" t="str">
+        <f>""""&amp;book_list!I272&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I272" s="2" t="str">
+        <f>""""&amp;book_list!J272&amp;""""</f>
+        <v>"Bài 11"</v>
+      </c>
+      <c r="J272" s="2" t="str">
+        <f>""""&amp;book_list!K272&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K272" s="2" t="str">
+        <f>""""&amp;book_list!L272&amp;""""</f>
+        <v>"11"</v>
+      </c>
+      <c r="L272" s="2" t="str">
+        <f>""""&amp;book_list!M272&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M272" s="2" t="str">
+        <f>""""&amp;book_list!N272&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N272" s="2" t="str">
+        <f>""""&amp;book_list!O272&amp;""""</f>
+        <v>"{'level': 'N5', 'tag' : {'contains':',jlptkanji,lesson11,'}}"</v>
+      </c>
       <c r="O272" s="2"/>
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>
@@ -51581,20 +55816,62 @@
       <c r="AA272" s="2"/>
     </row>
     <row r="273" spans="1:27" ht="15.75">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2"/>
-      <c r="F273" s="2"/>
-      <c r="G273" s="2"/>
-      <c r="H273" s="2"/>
-      <c r="I273" s="2"/>
-      <c r="J273" s="2"/>
-      <c r="K273" s="2"/>
-      <c r="L273" s="2"/>
-      <c r="M273" s="2"/>
-      <c r="N273" s="2"/>
+      <c r="A273" s="2" t="str">
+        <f>""""&amp;book_list!B273&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B273" s="2" t="str">
+        <f>""""&amp;book_list!C273&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C273" s="2" t="str">
+        <f>""""&amp;book_list!D273&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D273" s="2" t="str">
+        <f>""""&amp;book_list!E273&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E273" s="2" t="str">
+        <f>""""&amp;book_list!F273&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F273" s="2" t="str">
+        <f>""""&amp;book_list!G273&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G273" s="2" t="str">
+        <f>""""&amp;book_list!H273&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H273" s="2" t="str">
+        <f>""""&amp;book_list!I273&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I273" s="2" t="str">
+        <f>""""&amp;book_list!J273&amp;""""</f>
+        <v>"Bài 12"</v>
+      </c>
+      <c r="J273" s="2" t="str">
+        <f>""""&amp;book_list!K273&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K273" s="2" t="str">
+        <f>""""&amp;book_list!L273&amp;""""</f>
+        <v>"12"</v>
+      </c>
+      <c r="L273" s="2" t="str">
+        <f>""""&amp;book_list!M273&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M273" s="2" t="str">
+        <f>""""&amp;book_list!N273&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N273" s="2" t="str">
+        <f>""""&amp;book_list!O273&amp;""""</f>
+        <v>"{'level': 'N5', 'tag' : {'contains':',jlptkanji,lesson12,'}}"</v>
+      </c>
       <c r="O273" s="2"/>
       <c r="P273" s="2"/>
       <c r="Q273" s="2"/>
@@ -51610,20 +55887,62 @@
       <c r="AA273" s="2"/>
     </row>
     <row r="274" spans="1:27" ht="15.75">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
-      <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
-      <c r="F274" s="2"/>
-      <c r="G274" s="2"/>
-      <c r="H274" s="2"/>
-      <c r="I274" s="2"/>
-      <c r="J274" s="2"/>
-      <c r="K274" s="2"/>
-      <c r="L274" s="2"/>
-      <c r="M274" s="2"/>
-      <c r="N274" s="2"/>
+      <c r="A274" s="2" t="str">
+        <f>""""&amp;book_list!B274&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B274" s="2" t="str">
+        <f>""""&amp;book_list!C274&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C274" s="2" t="str">
+        <f>""""&amp;book_list!D274&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D274" s="2" t="str">
+        <f>""""&amp;book_list!E274&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E274" s="2" t="str">
+        <f>""""&amp;book_list!F274&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F274" s="2" t="str">
+        <f>""""&amp;book_list!G274&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G274" s="2" t="str">
+        <f>""""&amp;book_list!H274&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H274" s="2" t="str">
+        <f>""""&amp;book_list!I274&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I274" s="2" t="str">
+        <f>""""&amp;book_list!J274&amp;""""</f>
+        <v>"Bài 13"</v>
+      </c>
+      <c r="J274" s="2" t="str">
+        <f>""""&amp;book_list!K274&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K274" s="2" t="str">
+        <f>""""&amp;book_list!L274&amp;""""</f>
+        <v>"13"</v>
+      </c>
+      <c r="L274" s="2" t="str">
+        <f>""""&amp;book_list!M274&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M274" s="2" t="str">
+        <f>""""&amp;book_list!N274&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N274" s="2" t="str">
+        <f>""""&amp;book_list!O274&amp;""""</f>
+        <v>"{'level': 'N5', 'tag' : {'contains':',jlptkanji,lesson13,'}}"</v>
+      </c>
       <c r="O274" s="2"/>
       <c r="P274" s="2"/>
       <c r="Q274" s="2"/>
@@ -51639,20 +55958,62 @@
       <c r="AA274" s="2"/>
     </row>
     <row r="275" spans="1:27" ht="15.75">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2"/>
-      <c r="C275" s="2"/>
-      <c r="D275" s="2"/>
-      <c r="E275" s="2"/>
-      <c r="F275" s="2"/>
-      <c r="G275" s="2"/>
-      <c r="H275" s="2"/>
-      <c r="I275" s="2"/>
-      <c r="J275" s="2"/>
-      <c r="K275" s="2"/>
-      <c r="L275" s="2"/>
-      <c r="M275" s="2"/>
-      <c r="N275" s="2"/>
+      <c r="A275" s="2" t="str">
+        <f>""""&amp;book_list!B275&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B275" s="2" t="str">
+        <f>""""&amp;book_list!C275&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C275" s="2" t="str">
+        <f>""""&amp;book_list!D275&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D275" s="2" t="str">
+        <f>""""&amp;book_list!E275&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E275" s="2" t="str">
+        <f>""""&amp;book_list!F275&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F275" s="2" t="str">
+        <f>""""&amp;book_list!G275&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G275" s="2" t="str">
+        <f>""""&amp;book_list!H275&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H275" s="2" t="str">
+        <f>""""&amp;book_list!I275&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I275" s="2" t="str">
+        <f>""""&amp;book_list!J275&amp;""""</f>
+        <v>"Bài 14"</v>
+      </c>
+      <c r="J275" s="2" t="str">
+        <f>""""&amp;book_list!K275&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K275" s="2" t="str">
+        <f>""""&amp;book_list!L275&amp;""""</f>
+        <v>"14"</v>
+      </c>
+      <c r="L275" s="2" t="str">
+        <f>""""&amp;book_list!M275&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M275" s="2" t="str">
+        <f>""""&amp;book_list!N275&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N275" s="2" t="str">
+        <f>""""&amp;book_list!O275&amp;""""</f>
+        <v>"{'level': 'N5', 'tag' : {'contains':',jlptkanji,lesson14,'}}"</v>
+      </c>
       <c r="O275" s="2"/>
       <c r="P275" s="2"/>
       <c r="Q275" s="2"/>
@@ -51668,20 +56029,62 @@
       <c r="AA275" s="2"/>
     </row>
     <row r="276" spans="1:27" ht="15.75">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
-      <c r="D276" s="2"/>
-      <c r="E276" s="2"/>
-      <c r="F276" s="2"/>
-      <c r="G276" s="2"/>
-      <c r="H276" s="2"/>
-      <c r="I276" s="2"/>
-      <c r="J276" s="2"/>
-      <c r="K276" s="2"/>
-      <c r="L276" s="2"/>
-      <c r="M276" s="2"/>
-      <c r="N276" s="2"/>
+      <c r="A276" s="2" t="str">
+        <f>""""&amp;book_list!B276&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B276" s="2" t="str">
+        <f>""""&amp;book_list!C276&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C276" s="2" t="str">
+        <f>""""&amp;book_list!D276&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D276" s="2" t="str">
+        <f>""""&amp;book_list!E276&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E276" s="2" t="str">
+        <f>""""&amp;book_list!F276&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F276" s="2" t="str">
+        <f>""""&amp;book_list!G276&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G276" s="2" t="str">
+        <f>""""&amp;book_list!H276&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H276" s="2" t="str">
+        <f>""""&amp;book_list!I276&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I276" s="2" t="str">
+        <f>""""&amp;book_list!J276&amp;""""</f>
+        <v>"Bài 15"</v>
+      </c>
+      <c r="J276" s="2" t="str">
+        <f>""""&amp;book_list!K276&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K276" s="2" t="str">
+        <f>""""&amp;book_list!L276&amp;""""</f>
+        <v>"15"</v>
+      </c>
+      <c r="L276" s="2" t="str">
+        <f>""""&amp;book_list!M276&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M276" s="2" t="str">
+        <f>""""&amp;book_list!N276&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N276" s="2" t="str">
+        <f>""""&amp;book_list!O276&amp;""""</f>
+        <v>"{'level': 'N5', 'tag' : {'contains':',jlptkanji,lesson15,'}}"</v>
+      </c>
       <c r="O276" s="2"/>
       <c r="P276" s="2"/>
       <c r="Q276" s="2"/>
@@ -51697,20 +56100,62 @@
       <c r="AA276" s="2"/>
     </row>
     <row r="277" spans="1:27" ht="15.75">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
-      <c r="C277" s="2"/>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
-      <c r="G277" s="2"/>
-      <c r="H277" s="2"/>
-      <c r="I277" s="2"/>
-      <c r="J277" s="2"/>
-      <c r="K277" s="2"/>
-      <c r="L277" s="2"/>
-      <c r="M277" s="2"/>
-      <c r="N277" s="2"/>
+      <c r="A277" s="2" t="str">
+        <f>""""&amp;book_list!B277&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B277" s="2" t="str">
+        <f>""""&amp;book_list!C277&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C277" s="2" t="str">
+        <f>""""&amp;book_list!D277&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D277" s="2" t="str">
+        <f>""""&amp;book_list!E277&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E277" s="2" t="str">
+        <f>""""&amp;book_list!F277&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F277" s="2" t="str">
+        <f>""""&amp;book_list!G277&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G277" s="2" t="str">
+        <f>""""&amp;book_list!H277&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H277" s="2" t="str">
+        <f>""""&amp;book_list!I277&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I277" s="2" t="str">
+        <f>""""&amp;book_list!J277&amp;""""</f>
+        <v>"Bài 16"</v>
+      </c>
+      <c r="J277" s="2" t="str">
+        <f>""""&amp;book_list!K277&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K277" s="2" t="str">
+        <f>""""&amp;book_list!L277&amp;""""</f>
+        <v>"16"</v>
+      </c>
+      <c r="L277" s="2" t="str">
+        <f>""""&amp;book_list!M277&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M277" s="2" t="str">
+        <f>""""&amp;book_list!N277&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N277" s="2" t="str">
+        <f>""""&amp;book_list!O277&amp;""""</f>
+        <v>"{'level': 'N5', 'tag' : {'contains':',jlptkanji,lesson16,'}}"</v>
+      </c>
       <c r="O277" s="2"/>
       <c r="P277" s="2"/>
       <c r="Q277" s="2"/>
@@ -51726,20 +56171,62 @@
       <c r="AA277" s="2"/>
     </row>
     <row r="278" spans="1:27" ht="15.75">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
-      <c r="D278" s="2"/>
-      <c r="E278" s="2"/>
-      <c r="F278" s="2"/>
-      <c r="G278" s="2"/>
-      <c r="H278" s="2"/>
-      <c r="I278" s="2"/>
-      <c r="J278" s="2"/>
-      <c r="K278" s="2"/>
-      <c r="L278" s="2"/>
-      <c r="M278" s="2"/>
-      <c r="N278" s="2"/>
+      <c r="A278" s="2" t="str">
+        <f>""""&amp;book_list!B278&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B278" s="2" t="str">
+        <f>""""&amp;book_list!C278&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C278" s="2" t="str">
+        <f>""""&amp;book_list!D278&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D278" s="2" t="str">
+        <f>""""&amp;book_list!E278&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E278" s="2" t="str">
+        <f>""""&amp;book_list!F278&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F278" s="2" t="str">
+        <f>""""&amp;book_list!G278&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G278" s="2" t="str">
+        <f>""""&amp;book_list!H278&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H278" s="2" t="str">
+        <f>""""&amp;book_list!I278&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I278" s="2" t="str">
+        <f>""""&amp;book_list!J278&amp;""""</f>
+        <v>"Bài 17"</v>
+      </c>
+      <c r="J278" s="2" t="str">
+        <f>""""&amp;book_list!K278&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K278" s="2" t="str">
+        <f>""""&amp;book_list!L278&amp;""""</f>
+        <v>"17"</v>
+      </c>
+      <c r="L278" s="2" t="str">
+        <f>""""&amp;book_list!M278&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M278" s="2" t="str">
+        <f>""""&amp;book_list!N278&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N278" s="2" t="str">
+        <f>""""&amp;book_list!O278&amp;""""</f>
+        <v>"{'level': 'N5', 'tag' : {'contains':',jlptkanji,lesson17,'}}"</v>
+      </c>
       <c r="O278" s="2"/>
       <c r="P278" s="2"/>
       <c r="Q278" s="2"/>
@@ -51755,20 +56242,62 @@
       <c r="AA278" s="2"/>
     </row>
     <row r="279" spans="1:27" ht="15.75">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
-      <c r="D279" s="2"/>
-      <c r="E279" s="2"/>
-      <c r="F279" s="2"/>
-      <c r="G279" s="2"/>
-      <c r="H279" s="2"/>
-      <c r="I279" s="2"/>
-      <c r="J279" s="2"/>
-      <c r="K279" s="2"/>
-      <c r="L279" s="2"/>
-      <c r="M279" s="2"/>
-      <c r="N279" s="2"/>
+      <c r="A279" s="2" t="str">
+        <f>""""&amp;book_list!B279&amp;""""</f>
+        <v>"Kanji N3"</v>
+      </c>
+      <c r="B279" s="2" t="str">
+        <f>""""&amp;book_list!C279&amp;""""</f>
+        <v>"Kanji N3 dựa theo chuẩn của JLPT"</v>
+      </c>
+      <c r="C279" s="2" t="str">
+        <f>""""&amp;book_list!D279&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="D279" s="2" t="str">
+        <f>""""&amp;book_list!E279&amp;""""</f>
+        <v>"N3"</v>
+      </c>
+      <c r="E279" s="2" t="str">
+        <f>""""&amp;book_list!F279&amp;""""</f>
+        <v>"18"</v>
+      </c>
+      <c r="F279" s="2" t="str">
+        <f>""""&amp;book_list!G279&amp;""""</f>
+        <v>"36"</v>
+      </c>
+      <c r="G279" s="2" t="str">
+        <f>""""&amp;book_list!H279&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H279" s="2" t="str">
+        <f>""""&amp;book_list!I279&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I279" s="2" t="str">
+        <f>""""&amp;book_list!J279&amp;""""</f>
+        <v>"Bài 1"</v>
+      </c>
+      <c r="J279" s="2" t="str">
+        <f>""""&amp;book_list!K279&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K279" s="2" t="str">
+        <f>""""&amp;book_list!L279&amp;""""</f>
+        <v>"1"</v>
+      </c>
+      <c r="L279" s="2" t="str">
+        <f>""""&amp;book_list!M279&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M279" s="2" t="str">
+        <f>""""&amp;book_list!N279&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N279" s="2" t="str">
+        <f>""""&amp;book_list!O279&amp;""""</f>
+        <v>"{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson1,'}}"</v>
+      </c>
       <c r="O279" s="2"/>
       <c r="P279" s="2"/>
       <c r="Q279" s="2"/>
@@ -51784,20 +56313,62 @@
       <c r="AA279" s="2"/>
     </row>
     <row r="280" spans="1:27" ht="15.75">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2"/>
-      <c r="C280" s="2"/>
-      <c r="D280" s="2"/>
-      <c r="E280" s="2"/>
-      <c r="F280" s="2"/>
-      <c r="G280" s="2"/>
-      <c r="H280" s="2"/>
-      <c r="I280" s="2"/>
-      <c r="J280" s="2"/>
-      <c r="K280" s="2"/>
-      <c r="L280" s="2"/>
-      <c r="M280" s="2"/>
-      <c r="N280" s="2"/>
+      <c r="A280" s="2" t="str">
+        <f>""""&amp;book_list!B280&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B280" s="2" t="str">
+        <f>""""&amp;book_list!C280&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C280" s="2" t="str">
+        <f>""""&amp;book_list!D280&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D280" s="2" t="str">
+        <f>""""&amp;book_list!E280&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E280" s="2" t="str">
+        <f>""""&amp;book_list!F280&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F280" s="2" t="str">
+        <f>""""&amp;book_list!G280&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G280" s="2" t="str">
+        <f>""""&amp;book_list!H280&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H280" s="2" t="str">
+        <f>""""&amp;book_list!I280&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I280" s="2" t="str">
+        <f>""""&amp;book_list!J280&amp;""""</f>
+        <v>"Bài 2"</v>
+      </c>
+      <c r="J280" s="2" t="str">
+        <f>""""&amp;book_list!K280&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K280" s="2" t="str">
+        <f>""""&amp;book_list!L280&amp;""""</f>
+        <v>"2"</v>
+      </c>
+      <c r="L280" s="2" t="str">
+        <f>""""&amp;book_list!M280&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M280" s="2" t="str">
+        <f>""""&amp;book_list!N280&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N280" s="2" t="str">
+        <f>""""&amp;book_list!O280&amp;""""</f>
+        <v>"{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson2,'}}"</v>
+      </c>
       <c r="O280" s="2"/>
       <c r="P280" s="2"/>
       <c r="Q280" s="2"/>
@@ -51813,20 +56384,62 @@
       <c r="AA280" s="2"/>
     </row>
     <row r="281" spans="1:27" ht="15.75">
-      <c r="A281" s="2"/>
-      <c r="B281" s="2"/>
-      <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
-      <c r="E281" s="2"/>
-      <c r="F281" s="2"/>
-      <c r="G281" s="2"/>
-      <c r="H281" s="2"/>
-      <c r="I281" s="2"/>
-      <c r="J281" s="2"/>
-      <c r="K281" s="2"/>
-      <c r="L281" s="2"/>
-      <c r="M281" s="2"/>
-      <c r="N281" s="2"/>
+      <c r="A281" s="2" t="str">
+        <f>""""&amp;book_list!B281&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B281" s="2" t="str">
+        <f>""""&amp;book_list!C281&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C281" s="2" t="str">
+        <f>""""&amp;book_list!D281&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D281" s="2" t="str">
+        <f>""""&amp;book_list!E281&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E281" s="2" t="str">
+        <f>""""&amp;book_list!F281&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F281" s="2" t="str">
+        <f>""""&amp;book_list!G281&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G281" s="2" t="str">
+        <f>""""&amp;book_list!H281&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H281" s="2" t="str">
+        <f>""""&amp;book_list!I281&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I281" s="2" t="str">
+        <f>""""&amp;book_list!J281&amp;""""</f>
+        <v>"Bài 3"</v>
+      </c>
+      <c r="J281" s="2" t="str">
+        <f>""""&amp;book_list!K281&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K281" s="2" t="str">
+        <f>""""&amp;book_list!L281&amp;""""</f>
+        <v>"3"</v>
+      </c>
+      <c r="L281" s="2" t="str">
+        <f>""""&amp;book_list!M281&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M281" s="2" t="str">
+        <f>""""&amp;book_list!N281&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N281" s="2" t="str">
+        <f>""""&amp;book_list!O281&amp;""""</f>
+        <v>"{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson3,'}}"</v>
+      </c>
       <c r="O281" s="2"/>
       <c r="P281" s="2"/>
       <c r="Q281" s="2"/>
@@ -51842,20 +56455,62 @@
       <c r="AA281" s="2"/>
     </row>
     <row r="282" spans="1:27" ht="15.75">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2"/>
-      <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
-      <c r="F282" s="2"/>
-      <c r="G282" s="2"/>
-      <c r="H282" s="2"/>
-      <c r="I282" s="2"/>
-      <c r="J282" s="2"/>
-      <c r="K282" s="2"/>
-      <c r="L282" s="2"/>
-      <c r="M282" s="2"/>
-      <c r="N282" s="2"/>
+      <c r="A282" s="2" t="str">
+        <f>""""&amp;book_list!B282&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B282" s="2" t="str">
+        <f>""""&amp;book_list!C282&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C282" s="2" t="str">
+        <f>""""&amp;book_list!D282&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D282" s="2" t="str">
+        <f>""""&amp;book_list!E282&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E282" s="2" t="str">
+        <f>""""&amp;book_list!F282&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F282" s="2" t="str">
+        <f>""""&amp;book_list!G282&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G282" s="2" t="str">
+        <f>""""&amp;book_list!H282&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H282" s="2" t="str">
+        <f>""""&amp;book_list!I282&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I282" s="2" t="str">
+        <f>""""&amp;book_list!J282&amp;""""</f>
+        <v>"Bài 4"</v>
+      </c>
+      <c r="J282" s="2" t="str">
+        <f>""""&amp;book_list!K282&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K282" s="2" t="str">
+        <f>""""&amp;book_list!L282&amp;""""</f>
+        <v>"4"</v>
+      </c>
+      <c r="L282" s="2" t="str">
+        <f>""""&amp;book_list!M282&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M282" s="2" t="str">
+        <f>""""&amp;book_list!N282&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N282" s="2" t="str">
+        <f>""""&amp;book_list!O282&amp;""""</f>
+        <v>"{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson4,'}}"</v>
+      </c>
       <c r="O282" s="2"/>
       <c r="P282" s="2"/>
       <c r="Q282" s="2"/>
@@ -51871,20 +56526,62 @@
       <c r="AA282" s="2"/>
     </row>
     <row r="283" spans="1:27" ht="15.75">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2"/>
-      <c r="C283" s="2"/>
-      <c r="D283" s="2"/>
-      <c r="E283" s="2"/>
-      <c r="F283" s="2"/>
-      <c r="G283" s="2"/>
-      <c r="H283" s="2"/>
-      <c r="I283" s="2"/>
-      <c r="J283" s="2"/>
-      <c r="K283" s="2"/>
-      <c r="L283" s="2"/>
-      <c r="M283" s="2"/>
-      <c r="N283" s="2"/>
+      <c r="A283" s="2" t="str">
+        <f>""""&amp;book_list!B283&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B283" s="2" t="str">
+        <f>""""&amp;book_list!C283&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C283" s="2" t="str">
+        <f>""""&amp;book_list!D283&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D283" s="2" t="str">
+        <f>""""&amp;book_list!E283&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E283" s="2" t="str">
+        <f>""""&amp;book_list!F283&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F283" s="2" t="str">
+        <f>""""&amp;book_list!G283&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G283" s="2" t="str">
+        <f>""""&amp;book_list!H283&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H283" s="2" t="str">
+        <f>""""&amp;book_list!I283&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I283" s="2" t="str">
+        <f>""""&amp;book_list!J283&amp;""""</f>
+        <v>"Bài 5"</v>
+      </c>
+      <c r="J283" s="2" t="str">
+        <f>""""&amp;book_list!K283&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K283" s="2" t="str">
+        <f>""""&amp;book_list!L283&amp;""""</f>
+        <v>"5"</v>
+      </c>
+      <c r="L283" s="2" t="str">
+        <f>""""&amp;book_list!M283&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M283" s="2" t="str">
+        <f>""""&amp;book_list!N283&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N283" s="2" t="str">
+        <f>""""&amp;book_list!O283&amp;""""</f>
+        <v>"{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson5,'}}"</v>
+      </c>
       <c r="O283" s="2"/>
       <c r="P283" s="2"/>
       <c r="Q283" s="2"/>
@@ -51900,20 +56597,62 @@
       <c r="AA283" s="2"/>
     </row>
     <row r="284" spans="1:27" ht="15.75">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
-      <c r="C284" s="2"/>
-      <c r="D284" s="2"/>
-      <c r="E284" s="2"/>
-      <c r="F284" s="2"/>
-      <c r="G284" s="2"/>
-      <c r="H284" s="2"/>
-      <c r="I284" s="2"/>
-      <c r="J284" s="2"/>
-      <c r="K284" s="2"/>
-      <c r="L284" s="2"/>
-      <c r="M284" s="2"/>
-      <c r="N284" s="2"/>
+      <c r="A284" s="2" t="str">
+        <f>""""&amp;book_list!B284&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B284" s="2" t="str">
+        <f>""""&amp;book_list!C284&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C284" s="2" t="str">
+        <f>""""&amp;book_list!D284&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D284" s="2" t="str">
+        <f>""""&amp;book_list!E284&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E284" s="2" t="str">
+        <f>""""&amp;book_list!F284&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F284" s="2" t="str">
+        <f>""""&amp;book_list!G284&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G284" s="2" t="str">
+        <f>""""&amp;book_list!H284&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H284" s="2" t="str">
+        <f>""""&amp;book_list!I284&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I284" s="2" t="str">
+        <f>""""&amp;book_list!J284&amp;""""</f>
+        <v>"Bài 6"</v>
+      </c>
+      <c r="J284" s="2" t="str">
+        <f>""""&amp;book_list!K284&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K284" s="2" t="str">
+        <f>""""&amp;book_list!L284&amp;""""</f>
+        <v>"6"</v>
+      </c>
+      <c r="L284" s="2" t="str">
+        <f>""""&amp;book_list!M284&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M284" s="2" t="str">
+        <f>""""&amp;book_list!N284&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N284" s="2" t="str">
+        <f>""""&amp;book_list!O284&amp;""""</f>
+        <v>"{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson6,'}}"</v>
+      </c>
       <c r="O284" s="2"/>
       <c r="P284" s="2"/>
       <c r="Q284" s="2"/>
@@ -51929,20 +56668,62 @@
       <c r="AA284" s="2"/>
     </row>
     <row r="285" spans="1:27" ht="15.75">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
-      <c r="D285" s="2"/>
-      <c r="E285" s="2"/>
-      <c r="F285" s="2"/>
-      <c r="G285" s="2"/>
-      <c r="H285" s="2"/>
-      <c r="I285" s="2"/>
-      <c r="J285" s="2"/>
-      <c r="K285" s="2"/>
-      <c r="L285" s="2"/>
-      <c r="M285" s="2"/>
-      <c r="N285" s="2"/>
+      <c r="A285" s="2" t="str">
+        <f>""""&amp;book_list!B285&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B285" s="2" t="str">
+        <f>""""&amp;book_list!C285&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C285" s="2" t="str">
+        <f>""""&amp;book_list!D285&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D285" s="2" t="str">
+        <f>""""&amp;book_list!E285&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E285" s="2" t="str">
+        <f>""""&amp;book_list!F285&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F285" s="2" t="str">
+        <f>""""&amp;book_list!G285&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G285" s="2" t="str">
+        <f>""""&amp;book_list!H285&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H285" s="2" t="str">
+        <f>""""&amp;book_list!I285&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I285" s="2" t="str">
+        <f>""""&amp;book_list!J285&amp;""""</f>
+        <v>"Bài 7"</v>
+      </c>
+      <c r="J285" s="2" t="str">
+        <f>""""&amp;book_list!K285&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K285" s="2" t="str">
+        <f>""""&amp;book_list!L285&amp;""""</f>
+        <v>"7"</v>
+      </c>
+      <c r="L285" s="2" t="str">
+        <f>""""&amp;book_list!M285&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M285" s="2" t="str">
+        <f>""""&amp;book_list!N285&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N285" s="2" t="str">
+        <f>""""&amp;book_list!O285&amp;""""</f>
+        <v>"{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson7,'}}"</v>
+      </c>
       <c r="O285" s="2"/>
       <c r="P285" s="2"/>
       <c r="Q285" s="2"/>
@@ -51958,20 +56739,62 @@
       <c r="AA285" s="2"/>
     </row>
     <row r="286" spans="1:27" ht="15.75">
-      <c r="A286" s="2"/>
-      <c r="B286" s="2"/>
-      <c r="C286" s="2"/>
-      <c r="D286" s="2"/>
-      <c r="E286" s="2"/>
-      <c r="F286" s="2"/>
-      <c r="G286" s="2"/>
-      <c r="H286" s="2"/>
-      <c r="I286" s="2"/>
-      <c r="J286" s="2"/>
-      <c r="K286" s="2"/>
-      <c r="L286" s="2"/>
-      <c r="M286" s="2"/>
-      <c r="N286" s="2"/>
+      <c r="A286" s="2" t="str">
+        <f>""""&amp;book_list!B286&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B286" s="2" t="str">
+        <f>""""&amp;book_list!C286&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C286" s="2" t="str">
+        <f>""""&amp;book_list!D286&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D286" s="2" t="str">
+        <f>""""&amp;book_list!E286&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E286" s="2" t="str">
+        <f>""""&amp;book_list!F286&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F286" s="2" t="str">
+        <f>""""&amp;book_list!G286&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G286" s="2" t="str">
+        <f>""""&amp;book_list!H286&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H286" s="2" t="str">
+        <f>""""&amp;book_list!I286&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I286" s="2" t="str">
+        <f>""""&amp;book_list!J286&amp;""""</f>
+        <v>"Bài 8"</v>
+      </c>
+      <c r="J286" s="2" t="str">
+        <f>""""&amp;book_list!K286&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K286" s="2" t="str">
+        <f>""""&amp;book_list!L286&amp;""""</f>
+        <v>"8"</v>
+      </c>
+      <c r="L286" s="2" t="str">
+        <f>""""&amp;book_list!M286&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M286" s="2" t="str">
+        <f>""""&amp;book_list!N286&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N286" s="2" t="str">
+        <f>""""&amp;book_list!O286&amp;""""</f>
+        <v>"{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson8,'}}"</v>
+      </c>
       <c r="O286" s="2"/>
       <c r="P286" s="2"/>
       <c r="Q286" s="2"/>
@@ -51987,20 +56810,62 @@
       <c r="AA286" s="2"/>
     </row>
     <row r="287" spans="1:27" ht="15.75">
-      <c r="A287" s="2"/>
-      <c r="B287" s="2"/>
-      <c r="C287" s="2"/>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-      <c r="F287" s="2"/>
-      <c r="G287" s="2"/>
-      <c r="H287" s="2"/>
-      <c r="I287" s="2"/>
-      <c r="J287" s="2"/>
-      <c r="K287" s="2"/>
-      <c r="L287" s="2"/>
-      <c r="M287" s="2"/>
-      <c r="N287" s="2"/>
+      <c r="A287" s="2" t="str">
+        <f>""""&amp;book_list!B287&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B287" s="2" t="str">
+        <f>""""&amp;book_list!C287&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C287" s="2" t="str">
+        <f>""""&amp;book_list!D287&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D287" s="2" t="str">
+        <f>""""&amp;book_list!E287&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E287" s="2" t="str">
+        <f>""""&amp;book_list!F287&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F287" s="2" t="str">
+        <f>""""&amp;book_list!G287&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G287" s="2" t="str">
+        <f>""""&amp;book_list!H287&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H287" s="2" t="str">
+        <f>""""&amp;book_list!I287&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I287" s="2" t="str">
+        <f>""""&amp;book_list!J287&amp;""""</f>
+        <v>"Bài 9"</v>
+      </c>
+      <c r="J287" s="2" t="str">
+        <f>""""&amp;book_list!K287&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K287" s="2" t="str">
+        <f>""""&amp;book_list!L287&amp;""""</f>
+        <v>"9"</v>
+      </c>
+      <c r="L287" s="2" t="str">
+        <f>""""&amp;book_list!M287&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M287" s="2" t="str">
+        <f>""""&amp;book_list!N287&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N287" s="2" t="str">
+        <f>""""&amp;book_list!O287&amp;""""</f>
+        <v>"{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson9,'}}"</v>
+      </c>
       <c r="O287" s="2"/>
       <c r="P287" s="2"/>
       <c r="Q287" s="2"/>
@@ -52016,20 +56881,62 @@
       <c r="AA287" s="2"/>
     </row>
     <row r="288" spans="1:27" ht="15.75">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
-      <c r="C288" s="2"/>
-      <c r="D288" s="2"/>
-      <c r="E288" s="2"/>
-      <c r="F288" s="2"/>
-      <c r="G288" s="2"/>
-      <c r="H288" s="2"/>
-      <c r="I288" s="2"/>
-      <c r="J288" s="2"/>
-      <c r="K288" s="2"/>
-      <c r="L288" s="2"/>
-      <c r="M288" s="2"/>
-      <c r="N288" s="2"/>
+      <c r="A288" s="2" t="str">
+        <f>""""&amp;book_list!B288&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B288" s="2" t="str">
+        <f>""""&amp;book_list!C288&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C288" s="2" t="str">
+        <f>""""&amp;book_list!D288&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D288" s="2" t="str">
+        <f>""""&amp;book_list!E288&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E288" s="2" t="str">
+        <f>""""&amp;book_list!F288&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F288" s="2" t="str">
+        <f>""""&amp;book_list!G288&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G288" s="2" t="str">
+        <f>""""&amp;book_list!H288&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H288" s="2" t="str">
+        <f>""""&amp;book_list!I288&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I288" s="2" t="str">
+        <f>""""&amp;book_list!J288&amp;""""</f>
+        <v>"Bài 10"</v>
+      </c>
+      <c r="J288" s="2" t="str">
+        <f>""""&amp;book_list!K288&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K288" s="2" t="str">
+        <f>""""&amp;book_list!L288&amp;""""</f>
+        <v>"10"</v>
+      </c>
+      <c r="L288" s="2" t="str">
+        <f>""""&amp;book_list!M288&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M288" s="2" t="str">
+        <f>""""&amp;book_list!N288&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N288" s="2" t="str">
+        <f>""""&amp;book_list!O288&amp;""""</f>
+        <v>"{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson10,'}}"</v>
+      </c>
       <c r="O288" s="2"/>
       <c r="P288" s="2"/>
       <c r="Q288" s="2"/>
@@ -52045,20 +56952,62 @@
       <c r="AA288" s="2"/>
     </row>
     <row r="289" spans="1:27" ht="15.75">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2"/>
-      <c r="C289" s="2"/>
-      <c r="D289" s="2"/>
-      <c r="E289" s="2"/>
-      <c r="F289" s="2"/>
-      <c r="G289" s="2"/>
-      <c r="H289" s="2"/>
-      <c r="I289" s="2"/>
-      <c r="J289" s="2"/>
-      <c r="K289" s="2"/>
-      <c r="L289" s="2"/>
-      <c r="M289" s="2"/>
-      <c r="N289" s="2"/>
+      <c r="A289" s="2" t="str">
+        <f>""""&amp;book_list!B289&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B289" s="2" t="str">
+        <f>""""&amp;book_list!C289&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C289" s="2" t="str">
+        <f>""""&amp;book_list!D289&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D289" s="2" t="str">
+        <f>""""&amp;book_list!E289&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E289" s="2" t="str">
+        <f>""""&amp;book_list!F289&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F289" s="2" t="str">
+        <f>""""&amp;book_list!G289&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G289" s="2" t="str">
+        <f>""""&amp;book_list!H289&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H289" s="2" t="str">
+        <f>""""&amp;book_list!I289&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I289" s="2" t="str">
+        <f>""""&amp;book_list!J289&amp;""""</f>
+        <v>"Bài 11"</v>
+      </c>
+      <c r="J289" s="2" t="str">
+        <f>""""&amp;book_list!K289&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K289" s="2" t="str">
+        <f>""""&amp;book_list!L289&amp;""""</f>
+        <v>"11"</v>
+      </c>
+      <c r="L289" s="2" t="str">
+        <f>""""&amp;book_list!M289&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M289" s="2" t="str">
+        <f>""""&amp;book_list!N289&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N289" s="2" t="str">
+        <f>""""&amp;book_list!O289&amp;""""</f>
+        <v>"{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson11,'}}"</v>
+      </c>
       <c r="O289" s="2"/>
       <c r="P289" s="2"/>
       <c r="Q289" s="2"/>
@@ -52074,20 +57023,62 @@
       <c r="AA289" s="2"/>
     </row>
     <row r="290" spans="1:27" ht="15.75">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
-      <c r="C290" s="2"/>
-      <c r="D290" s="2"/>
-      <c r="E290" s="2"/>
-      <c r="F290" s="2"/>
-      <c r="G290" s="2"/>
-      <c r="H290" s="2"/>
-      <c r="I290" s="2"/>
-      <c r="J290" s="2"/>
-      <c r="K290" s="2"/>
-      <c r="L290" s="2"/>
-      <c r="M290" s="2"/>
-      <c r="N290" s="2"/>
+      <c r="A290" s="2" t="str">
+        <f>""""&amp;book_list!B290&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B290" s="2" t="str">
+        <f>""""&amp;book_list!C290&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C290" s="2" t="str">
+        <f>""""&amp;book_list!D290&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D290" s="2" t="str">
+        <f>""""&amp;book_list!E290&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E290" s="2" t="str">
+        <f>""""&amp;book_list!F290&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F290" s="2" t="str">
+        <f>""""&amp;book_list!G290&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G290" s="2" t="str">
+        <f>""""&amp;book_list!H290&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H290" s="2" t="str">
+        <f>""""&amp;book_list!I290&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I290" s="2" t="str">
+        <f>""""&amp;book_list!J290&amp;""""</f>
+        <v>"Bài 12"</v>
+      </c>
+      <c r="J290" s="2" t="str">
+        <f>""""&amp;book_list!K290&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K290" s="2" t="str">
+        <f>""""&amp;book_list!L290&amp;""""</f>
+        <v>"12"</v>
+      </c>
+      <c r="L290" s="2" t="str">
+        <f>""""&amp;book_list!M290&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M290" s="2" t="str">
+        <f>""""&amp;book_list!N290&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N290" s="2" t="str">
+        <f>""""&amp;book_list!O290&amp;""""</f>
+        <v>"{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson12,'}}"</v>
+      </c>
       <c r="O290" s="2"/>
       <c r="P290" s="2"/>
       <c r="Q290" s="2"/>
@@ -52103,20 +57094,62 @@
       <c r="AA290" s="2"/>
     </row>
     <row r="291" spans="1:27" ht="15.75">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2"/>
-      <c r="C291" s="2"/>
-      <c r="D291" s="2"/>
-      <c r="E291" s="2"/>
-      <c r="F291" s="2"/>
-      <c r="G291" s="2"/>
-      <c r="H291" s="2"/>
-      <c r="I291" s="2"/>
-      <c r="J291" s="2"/>
-      <c r="K291" s="2"/>
-      <c r="L291" s="2"/>
-      <c r="M291" s="2"/>
-      <c r="N291" s="2"/>
+      <c r="A291" s="2" t="str">
+        <f>""""&amp;book_list!B291&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B291" s="2" t="str">
+        <f>""""&amp;book_list!C291&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C291" s="2" t="str">
+        <f>""""&amp;book_list!D291&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D291" s="2" t="str">
+        <f>""""&amp;book_list!E291&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E291" s="2" t="str">
+        <f>""""&amp;book_list!F291&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F291" s="2" t="str">
+        <f>""""&amp;book_list!G291&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G291" s="2" t="str">
+        <f>""""&amp;book_list!H291&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H291" s="2" t="str">
+        <f>""""&amp;book_list!I291&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I291" s="2" t="str">
+        <f>""""&amp;book_list!J291&amp;""""</f>
+        <v>"Bài 13"</v>
+      </c>
+      <c r="J291" s="2" t="str">
+        <f>""""&amp;book_list!K291&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K291" s="2" t="str">
+        <f>""""&amp;book_list!L291&amp;""""</f>
+        <v>"13"</v>
+      </c>
+      <c r="L291" s="2" t="str">
+        <f>""""&amp;book_list!M291&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M291" s="2" t="str">
+        <f>""""&amp;book_list!N291&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N291" s="2" t="str">
+        <f>""""&amp;book_list!O291&amp;""""</f>
+        <v>"{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson13,'}}"</v>
+      </c>
       <c r="O291" s="2"/>
       <c r="P291" s="2"/>
       <c r="Q291" s="2"/>
@@ -52132,20 +57165,62 @@
       <c r="AA291" s="2"/>
     </row>
     <row r="292" spans="1:27" ht="15.75">
-      <c r="A292" s="2"/>
-      <c r="B292" s="2"/>
-      <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
-      <c r="E292" s="2"/>
-      <c r="F292" s="2"/>
-      <c r="G292" s="2"/>
-      <c r="H292" s="2"/>
-      <c r="I292" s="2"/>
-      <c r="J292" s="2"/>
-      <c r="K292" s="2"/>
-      <c r="L292" s="2"/>
-      <c r="M292" s="2"/>
-      <c r="N292" s="2"/>
+      <c r="A292" s="2" t="str">
+        <f>""""&amp;book_list!B292&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B292" s="2" t="str">
+        <f>""""&amp;book_list!C292&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C292" s="2" t="str">
+        <f>""""&amp;book_list!D292&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D292" s="2" t="str">
+        <f>""""&amp;book_list!E292&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E292" s="2" t="str">
+        <f>""""&amp;book_list!F292&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F292" s="2" t="str">
+        <f>""""&amp;book_list!G292&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G292" s="2" t="str">
+        <f>""""&amp;book_list!H292&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H292" s="2" t="str">
+        <f>""""&amp;book_list!I292&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I292" s="2" t="str">
+        <f>""""&amp;book_list!J292&amp;""""</f>
+        <v>"Bài 14"</v>
+      </c>
+      <c r="J292" s="2" t="str">
+        <f>""""&amp;book_list!K292&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K292" s="2" t="str">
+        <f>""""&amp;book_list!L292&amp;""""</f>
+        <v>"14"</v>
+      </c>
+      <c r="L292" s="2" t="str">
+        <f>""""&amp;book_list!M292&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M292" s="2" t="str">
+        <f>""""&amp;book_list!N292&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N292" s="2" t="str">
+        <f>""""&amp;book_list!O292&amp;""""</f>
+        <v>"{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson14,'}}"</v>
+      </c>
       <c r="O292" s="2"/>
       <c r="P292" s="2"/>
       <c r="Q292" s="2"/>
@@ -52161,20 +57236,62 @@
       <c r="AA292" s="2"/>
     </row>
     <row r="293" spans="1:27" ht="15.75">
-      <c r="A293" s="2"/>
-      <c r="B293" s="2"/>
-      <c r="C293" s="2"/>
-      <c r="D293" s="2"/>
-      <c r="E293" s="2"/>
-      <c r="F293" s="2"/>
-      <c r="G293" s="2"/>
-      <c r="H293" s="2"/>
-      <c r="I293" s="2"/>
-      <c r="J293" s="2"/>
-      <c r="K293" s="2"/>
-      <c r="L293" s="2"/>
-      <c r="M293" s="2"/>
-      <c r="N293" s="2"/>
+      <c r="A293" s="2" t="str">
+        <f>""""&amp;book_list!B293&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B293" s="2" t="str">
+        <f>""""&amp;book_list!C293&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C293" s="2" t="str">
+        <f>""""&amp;book_list!D293&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D293" s="2" t="str">
+        <f>""""&amp;book_list!E293&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E293" s="2" t="str">
+        <f>""""&amp;book_list!F293&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F293" s="2" t="str">
+        <f>""""&amp;book_list!G293&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G293" s="2" t="str">
+        <f>""""&amp;book_list!H293&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H293" s="2" t="str">
+        <f>""""&amp;book_list!I293&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I293" s="2" t="str">
+        <f>""""&amp;book_list!J293&amp;""""</f>
+        <v>"Bài 15"</v>
+      </c>
+      <c r="J293" s="2" t="str">
+        <f>""""&amp;book_list!K293&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K293" s="2" t="str">
+        <f>""""&amp;book_list!L293&amp;""""</f>
+        <v>"15"</v>
+      </c>
+      <c r="L293" s="2" t="str">
+        <f>""""&amp;book_list!M293&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M293" s="2" t="str">
+        <f>""""&amp;book_list!N293&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N293" s="2" t="str">
+        <f>""""&amp;book_list!O293&amp;""""</f>
+        <v>"{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson15,'}}"</v>
+      </c>
       <c r="O293" s="2"/>
       <c r="P293" s="2"/>
       <c r="Q293" s="2"/>
@@ -52190,20 +57307,62 @@
       <c r="AA293" s="2"/>
     </row>
     <row r="294" spans="1:27" ht="15.75">
-      <c r="A294" s="2"/>
-      <c r="B294" s="2"/>
-      <c r="C294" s="2"/>
-      <c r="D294" s="2"/>
-      <c r="E294" s="2"/>
-      <c r="F294" s="2"/>
-      <c r="G294" s="2"/>
-      <c r="H294" s="2"/>
-      <c r="I294" s="2"/>
-      <c r="J294" s="2"/>
-      <c r="K294" s="2"/>
-      <c r="L294" s="2"/>
-      <c r="M294" s="2"/>
-      <c r="N294" s="2"/>
+      <c r="A294" s="2" t="str">
+        <f>""""&amp;book_list!B294&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B294" s="2" t="str">
+        <f>""""&amp;book_list!C294&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C294" s="2" t="str">
+        <f>""""&amp;book_list!D294&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D294" s="2" t="str">
+        <f>""""&amp;book_list!E294&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E294" s="2" t="str">
+        <f>""""&amp;book_list!F294&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F294" s="2" t="str">
+        <f>""""&amp;book_list!G294&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G294" s="2" t="str">
+        <f>""""&amp;book_list!H294&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H294" s="2" t="str">
+        <f>""""&amp;book_list!I294&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I294" s="2" t="str">
+        <f>""""&amp;book_list!J294&amp;""""</f>
+        <v>"Bài 16"</v>
+      </c>
+      <c r="J294" s="2" t="str">
+        <f>""""&amp;book_list!K294&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K294" s="2" t="str">
+        <f>""""&amp;book_list!L294&amp;""""</f>
+        <v>"16"</v>
+      </c>
+      <c r="L294" s="2" t="str">
+        <f>""""&amp;book_list!M294&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M294" s="2" t="str">
+        <f>""""&amp;book_list!N294&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N294" s="2" t="str">
+        <f>""""&amp;book_list!O294&amp;""""</f>
+        <v>"{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson16,'}}"</v>
+      </c>
       <c r="O294" s="2"/>
       <c r="P294" s="2"/>
       <c r="Q294" s="2"/>
@@ -52219,20 +57378,62 @@
       <c r="AA294" s="2"/>
     </row>
     <row r="295" spans="1:27" ht="15.75">
-      <c r="A295" s="2"/>
-      <c r="B295" s="2"/>
-      <c r="C295" s="2"/>
-      <c r="D295" s="2"/>
-      <c r="E295" s="2"/>
-      <c r="F295" s="2"/>
-      <c r="G295" s="2"/>
-      <c r="H295" s="2"/>
-      <c r="I295" s="2"/>
-      <c r="J295" s="2"/>
-      <c r="K295" s="2"/>
-      <c r="L295" s="2"/>
-      <c r="M295" s="2"/>
-      <c r="N295" s="2"/>
+      <c r="A295" s="2" t="str">
+        <f>""""&amp;book_list!B295&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B295" s="2" t="str">
+        <f>""""&amp;book_list!C295&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C295" s="2" t="str">
+        <f>""""&amp;book_list!D295&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D295" s="2" t="str">
+        <f>""""&amp;book_list!E295&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E295" s="2" t="str">
+        <f>""""&amp;book_list!F295&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F295" s="2" t="str">
+        <f>""""&amp;book_list!G295&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G295" s="2" t="str">
+        <f>""""&amp;book_list!H295&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H295" s="2" t="str">
+        <f>""""&amp;book_list!I295&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I295" s="2" t="str">
+        <f>""""&amp;book_list!J295&amp;""""</f>
+        <v>"Bài 17"</v>
+      </c>
+      <c r="J295" s="2" t="str">
+        <f>""""&amp;book_list!K295&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K295" s="2" t="str">
+        <f>""""&amp;book_list!L295&amp;""""</f>
+        <v>"17"</v>
+      </c>
+      <c r="L295" s="2" t="str">
+        <f>""""&amp;book_list!M295&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M295" s="2" t="str">
+        <f>""""&amp;book_list!N295&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N295" s="2" t="str">
+        <f>""""&amp;book_list!O295&amp;""""</f>
+        <v>"{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson17,'}}"</v>
+      </c>
       <c r="O295" s="2"/>
       <c r="P295" s="2"/>
       <c r="Q295" s="2"/>
@@ -52248,20 +57449,62 @@
       <c r="AA295" s="2"/>
     </row>
     <row r="296" spans="1:27" ht="15.75">
-      <c r="A296" s="2"/>
-      <c r="B296" s="2"/>
-      <c r="C296" s="2"/>
-      <c r="D296" s="2"/>
-      <c r="E296" s="2"/>
-      <c r="F296" s="2"/>
-      <c r="G296" s="2"/>
-      <c r="H296" s="2"/>
-      <c r="I296" s="2"/>
-      <c r="J296" s="2"/>
-      <c r="K296" s="2"/>
-      <c r="L296" s="2"/>
-      <c r="M296" s="2"/>
-      <c r="N296" s="2"/>
+      <c r="A296" s="2" t="str">
+        <f>""""&amp;book_list!B296&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="B296" s="2" t="str">
+        <f>""""&amp;book_list!C296&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="C296" s="2" t="str">
+        <f>""""&amp;book_list!D296&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="D296" s="2" t="str">
+        <f>""""&amp;book_list!E296&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="E296" s="2" t="str">
+        <f>""""&amp;book_list!F296&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="F296" s="2" t="str">
+        <f>""""&amp;book_list!G296&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="G296" s="2" t="str">
+        <f>""""&amp;book_list!H296&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="H296" s="2" t="str">
+        <f>""""&amp;book_list!I296&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="I296" s="2" t="str">
+        <f>""""&amp;book_list!J296&amp;""""</f>
+        <v>"Bài 18"</v>
+      </c>
+      <c r="J296" s="2" t="str">
+        <f>""""&amp;book_list!K296&amp;""""</f>
+        <v>"Kanji"</v>
+      </c>
+      <c r="K296" s="2" t="str">
+        <f>""""&amp;book_list!L296&amp;""""</f>
+        <v>"18"</v>
+      </c>
+      <c r="L296" s="2" t="str">
+        <f>""""&amp;book_list!M296&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="M296" s="2" t="str">
+        <f>""""&amp;book_list!N296&amp;""""</f>
+        <v>"kanji"</v>
+      </c>
+      <c r="N296" s="2" t="str">
+        <f>""""&amp;book_list!O296&amp;""""</f>
+        <v>"{'level': 'N3', 'tag' : {'contains':',jlptkanjiN3,lesson18,'}}"</v>
+      </c>
       <c r="O296" s="2"/>
       <c r="P296" s="2"/>
       <c r="Q296" s="2"/>
